--- a/docs/02.개발/01.설계/01.DB설계/COROBO_테이블설계서.xlsx
+++ b/docs/02.개발/01.설계/01.DB설계/COROBO_테이블설계서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my\project\CoRoBo\docs\02.개발\01.설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my\project\CoRoBo\docs\02.개발\01.설계\01.DB설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">테이블!$B$1:$C$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="273">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -60,9 +59,6 @@
   </si>
   <si>
     <t>이메일</t>
-  </si>
-  <si>
-    <t>사용자ID</t>
   </si>
   <si>
     <t>DT</t>
@@ -997,99 +993,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_MST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_NIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_GRADE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">10번, 20번.. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_LVL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~10레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEL_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_TEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOIN_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEAVE_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴일</t>
+    <t>ROBO_MST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROBO_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROBO_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROBO_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROBO_TP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1097,15 +1045,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02 - E:등록, A:활성, S:중지, X:삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">, PRIMARY KEY(USER_ID)); </t>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A04 : MAIN, SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A05 : 꺼짐, 온라인, 작업중, 휴식중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROBO_MAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인로보 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROBO_SUB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브로보1 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROBO_SUB2</t>
+  </si>
+  <si>
+    <t>ROBO_SUB3</t>
+  </si>
+  <si>
+    <t>ROBO_SUB4</t>
+  </si>
+  <si>
+    <t>서브로보2 ID</t>
+  </si>
+  <si>
+    <t>서브로보3 ID</t>
+  </si>
+  <si>
+    <t>서브로보4 ID</t>
+  </si>
+  <si>
+    <t>ROBO_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로보갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">, PRIMARY KEY(ROBO_ID)); </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1414,6 +1412,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1423,15 +1439,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1440,15 +1447,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1782,22 +1780,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1805,13 +1803,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1821,13 +1819,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -1837,13 +1835,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -1853,13 +1851,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1869,13 +1867,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1885,13 +1883,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1901,13 +1899,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1917,13 +1915,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1933,16 +1931,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -1951,16 +1949,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -2141,8 +2139,8 @@
   <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2182,13 +2180,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
@@ -2197,13 +2195,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="Q1" s="7"/>
     </row>
@@ -2212,16 +2210,16 @@
         <v>14</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>7</v>
@@ -2230,28 +2228,28 @@
         <v>8</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="8" t="str">
         <f>CONCATENATE("private ",IF(K2="DT","Date",IF(I2="INT","int",IF(I2="TEXT","String",IF(I2="BIGINT", "long", "double")))), " ", LOWER(D2), ";")</f>
         <v>private long msn_id;</v>
       </c>
       <c r="N2" s="8" t="str">
-        <f t="shared" ref="N2:N8" si="0">IF(ISBLANK(B2), ",", CONCATENATE("CREATE TABLE ", B2, " ( "))</f>
+        <f t="shared" ref="N2:N14" si="0">IF(ISBLANK(B2), ",", CONCATENATE("CREATE TABLE ", B2, " ( "))</f>
         <v xml:space="preserve">CREATE TABLE MSN_MST ( </v>
       </c>
       <c r="O2" s="8" t="str">
-        <f t="shared" ref="O2:O8" si="1">CONCATENATE(N2, D2, " ", I2, IF(NOT(ISBLANK(J2)), " (", " "), J2, IF(NOT(ISBLANK(J2)), ") ", " "), IF(NOT(ISBLANK(H2)), CONCATENATE(" DEFAULT ", H2), " "), " " )</f>
+        <f t="shared" ref="O2:O14" si="1">CONCATENATE(N2, D2, " ", I2, IF(NOT(ISBLANK(J2)), " (", " "), J2, IF(NOT(ISBLANK(J2)), ") ", " "), IF(NOT(ISBLANK(H2)), CONCATENATE(" DEFAULT ", H2), " "), " " )</f>
         <v xml:space="preserve">CREATE TABLE MSN_MST ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q2" s="10" t="str">
-        <f t="shared" ref="Q2:Q8" si="2">CONCATENATE(O2, P2)</f>
+        <f t="shared" ref="Q2:Q14" si="2">CONCATENATE(O2, P2)</f>
         <v xml:space="preserve">CREATE TABLE MSN_MST ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
@@ -2262,10 +2260,10 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
@@ -2273,13 +2271,13 @@
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="8">
         <v>100</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="8" t="str">
         <f t="shared" ref="L3:L92" si="3">CONCATENATE("private ",IF(K3="DT","Date",IF(I3="INT","int",IF(I3="TEXT","String",IF(I3="BIGINT", "long", "double")))), " ", LOWER(D3), ";")</f>
@@ -2305,22 +2303,22 @@
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="8">
         <v>255</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2346,40 +2344,40 @@
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="8">
         <v>10</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L5:L8" si="4">CONCATENATE("private ",IF(K5="DT","Date",IF(I5="INT","int",IF(I5="TEXT","String",IF(I5="BIGINT", "long", "double")))), " ", LOWER(D5), ";")</f>
         <v>private double msn_tp;</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N5" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N5:N8" si="5">IF(ISBLANK(B5), ",", CONCATENATE("CREATE TABLE ", B5, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O5" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O5:O8" si="6">CONCATENATE(N5, D5, " ", I5, IF(NOT(ISBLANK(J5)), " (", " "), J5, IF(NOT(ISBLANK(J5)), ") ", " "), IF(NOT(ISBLANK(H5)), CONCATENATE(" DEFAULT ", H5), " "), " " )</f>
         <v xml:space="preserve">,MSN_TP VARCHAR (10)   </v>
       </c>
       <c r="Q5" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q5:Q8" si="7">CONCATENATE(O5, P5)</f>
         <v xml:space="preserve">,MSN_TP VARCHAR (10)   </v>
       </c>
     </row>
@@ -2390,1185 +2388,1175 @@
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="11" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
       <c r="I6" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private int sorts;</v>
+        <f t="shared" si="4"/>
+        <v>private int robo_cnt;</v>
       </c>
       <c r="N6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>,</v>
       </c>
       <c r="O6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,ROBO_CNT INT   DEFAULT 2 </v>
       </c>
       <c r="Q6" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,ROBO_CNT INT   DEFAULT 2 </v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="11" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>26</v>
+        <v>261</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="J7" s="8">
+        <v>50</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="L7" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="4"/>
+        <v>private double robo_main;</v>
       </c>
       <c r="N7" s="8" t="str">
-        <f>IF(ISBLANK(B7), ",", CONCATENATE("CREATE TABLE ", B7, " ( "))</f>
+        <f t="shared" si="5"/>
         <v>,</v>
       </c>
       <c r="O7" s="8" t="str">
-        <f>CONCATENATE(N7, D7, " ", I7, IF(NOT(ISBLANK(J7)), " (", " "), J7, IF(NOT(ISBLANK(J7)), ") ", " "), IF(NOT(ISBLANK(H7)), CONCATENATE(" DEFAULT ", H7), " "), " " )</f>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,ROBO_MAIN VARCHAR (50)   </v>
       </c>
       <c r="Q7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,ROBO_MAIN VARCHAR (50)   </v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="11" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="J8" s="8">
+        <v>50</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="L8" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private Date mod_dt;</v>
+        <f t="shared" si="4"/>
+        <v>private double robo_sub1;</v>
       </c>
       <c r="N8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>,</v>
       </c>
       <c r="O8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>189</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,ROBO_SUB1 VARCHAR (50)   </v>
       </c>
       <c r="Q8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_ID)); </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,ROBO_SUB1 VARCHAR (50)   </v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>14</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>57</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="11" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="J9" s="8">
+        <v>50</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="L9" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private long srv_id;</v>
+        <v>private double robo_sub2;</v>
       </c>
       <c r="N9" s="8" t="str">
-        <f t="shared" ref="N9:N13" si="4">IF(ISBLANK(B9), ",", CONCATENATE("CREATE TABLE ", B9, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE SRV_MST ( </v>
+        <f t="shared" si="0"/>
+        <v>,</v>
       </c>
       <c r="O9" s="8" t="str">
-        <f t="shared" ref="O9:O13" si="5">CONCATENATE(N9, D9, " ", I9, IF(NOT(ISBLANK(J9)), " (", " "), J9, IF(NOT(ISBLANK(J9)), ") ", " "), IF(NOT(ISBLANK(H9)), CONCATENATE(" DEFAULT ", H9), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE SRV_MST ( SRV_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,ROBO_SUB2 VARCHAR (50)   </v>
       </c>
       <c r="Q9" s="10" t="str">
-        <f t="shared" ref="Q9:Q13" si="6">CONCATENATE(O9, P9)</f>
-        <v xml:space="preserve">CREATE TABLE SRV_MST ( SRV_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,ROBO_SUB2 VARCHAR (50)   </v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="11" t="s">
-        <v>87</v>
+        <v>265</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="L10" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double srv_nm;</v>
+        <v>private double robo_sub3;</v>
       </c>
       <c r="N10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O10" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,SRV_NM VARCHAR (100)   </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,ROBO_SUB3 VARCHAR (50)   </v>
       </c>
       <c r="Q10" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">,SRV_NM VARCHAR (100)   </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,ROBO_SUB3 VARCHAR (50)   </v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="11" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="8">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="L11" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private double srv_desc;</v>
+        <f t="shared" ref="L11" si="8">CONCATENATE("private ",IF(K11="DT","Date",IF(I11="INT","int",IF(I11="TEXT","String",IF(I11="BIGINT", "long", "double")))), " ", LOWER(D11), ";")</f>
+        <v>private double robo_sub4;</v>
       </c>
       <c r="N11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N11" si="9">IF(ISBLANK(B11), ",", CONCATENATE("CREATE TABLE ", B11, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O11" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+        <f t="shared" ref="O11" si="10">CONCATENATE(N11, D11, " ", I11, IF(NOT(ISBLANK(J11)), " (", " "), J11, IF(NOT(ISBLANK(J11)), ") ", " "), IF(NOT(ISBLANK(H11)), CONCATENATE(" DEFAULT ", H11), " "), " " )</f>
+        <v xml:space="preserve">,ROBO_SUB4 VARCHAR (50)   </v>
       </c>
       <c r="Q11" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+        <f t="shared" ref="Q11" si="11">CONCATENATE(O11, P11)</f>
+        <v xml:space="preserve">,ROBO_SUB4 VARCHAR (50)   </v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="8">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="L12" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double srv_tp;</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>175</v>
+        <v>private int sorts;</v>
       </c>
       <c r="N12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O12" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,SRV_TP VARCHAR (10)   </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q12" s="10" t="str">
-        <f>CONCATENATE(O12, P12)</f>
-        <v xml:space="preserve">,SRV_TP VARCHAR (10)   </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="11" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I13" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L13" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private int sorts;</v>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(B13), ",", CONCATENATE("CREATE TABLE ", B13, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O13" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <f>CONCATENATE(N13, D13, " ", I13, IF(NOT(ISBLANK(J13)), " (", " "), J13, IF(NOT(ISBLANK(J13)), ") ", " "), IF(NOT(ISBLANK(H13)), CONCATENATE(" DEFAULT ", H13), " "), " " )</f>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q13" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">,SORTS INT    </v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>28</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="11" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="H14" s="11"/>
       <c r="I14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private Date reg_dt;</v>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N14" s="8" t="str">
-        <f t="shared" ref="N14:N15" si="7">IF(ISBLANK(B14), ",", CONCATENATE("CREATE TABLE ", B14, " ( "))</f>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O14" s="8" t="str">
-        <f t="shared" ref="O14:O15" si="8">CONCATENATE(N14, D14, " ", I14, IF(NOT(ISBLANK(J14)), " (", " "), J14, IF(NOT(ISBLANK(J14)), ") ", " "), IF(NOT(ISBLANK(H14)), CONCATENATE(" DEFAULT ", H14), " "), " " )</f>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="Q14" s="10" t="str">
-        <f t="shared" ref="Q14:Q15" si="9">CONCATENATE(O14, P14)</f>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_ID)); </v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>30</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="I15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L15" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private Date mod_dt;</v>
+        <v>private long srv_id;</v>
       </c>
       <c r="N15" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
+        <f t="shared" ref="N15:N19" si="12">IF(ISBLANK(B15), ",", CONCATENATE("CREATE TABLE ", B15, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE SRV_MST ( </v>
       </c>
       <c r="O15" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>190</v>
+        <f t="shared" ref="O15:O19" si="13">CONCATENATE(N15, D15, " ", I15, IF(NOT(ISBLANK(J15)), " (", " "), J15, IF(NOT(ISBLANK(J15)), ") ", " "), IF(NOT(ISBLANK(H15)), CONCATENATE(" DEFAULT ", H15), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE SRV_MST ( SRV_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q15" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_ID)); </v>
+        <f t="shared" ref="Q15:Q19" si="14">CONCATENATE(O15, P15)</f>
+        <v xml:space="preserve">CREATE TABLE SRV_MST ( SRV_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>56</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="J16" s="8">
+        <v>100</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L16" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private long srv_id;</v>
+        <v>private double srv_nm;</v>
       </c>
       <c r="N16" s="8" t="str">
-        <f t="shared" ref="N16:N39" si="10">IF(ISBLANK(B16), ",", CONCATENATE("CREATE TABLE ", B16, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE PARM_MST ( </v>
+        <f t="shared" si="12"/>
+        <v>,</v>
       </c>
       <c r="O16" s="8" t="str">
-        <f t="shared" ref="O16:O20" si="11">CONCATENATE(N16, D16, " ", I16, IF(NOT(ISBLANK(J16)), " (", " "), J16, IF(NOT(ISBLANK(J16)), ") ", " "), IF(NOT(ISBLANK(H16)), CONCATENATE(" DEFAULT ", H16), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE PARM_MST ( SRV_ID BIGINT    </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,SRV_NM VARCHAR (100)   </v>
       </c>
       <c r="Q16" s="10" t="str">
-        <f t="shared" ref="Q16:Q39" si="12">CONCATENATE(O16, P16)</f>
-        <v xml:space="preserve">CREATE TABLE PARM_MST ( SRV_ID BIGINT    </v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,SRV_NM VARCHAR (100)   </v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" s="8">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L17" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double parm_id;</v>
+        <v>private double srv_desc;</v>
       </c>
       <c r="N17" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>,</v>
       </c>
       <c r="O17" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">,PARM_ID VARCHAR (100)   </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q17" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,PARM_ID VARCHAR (100)   </v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="8">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="L18" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double parm_desc;</v>
+        <v>private double srv_tp;</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="N18" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>,</v>
       </c>
       <c r="O18" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,SRV_TP VARCHAR (10)   </v>
       </c>
       <c r="Q18" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
+        <f>CONCATENATE(O18, P18)</f>
+        <v xml:space="preserve">,SRV_TP VARCHAR (10)   </v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="11" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="8">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="L19" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double parm_tp;</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>188</v>
+        <v>private int sorts;</v>
       </c>
       <c r="N19" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>,</v>
       </c>
       <c r="O19" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">,PARM_TP VARCHAR (10)   </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q19" s="10" t="str">
-        <f>CONCATENATE(O19, P19)</f>
-        <v xml:space="preserve">,PARM_TP VARCHAR (10)   </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="11" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="8">
-        <v>100</v>
-      </c>
       <c r="K20" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L20" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double def_val;</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>177</v>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N20" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N20:N21" si="15">IF(ISBLANK(B20), ",", CONCATENATE("CREATE TABLE ", B20, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O20" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">,DEF_VAL VARCHAR (100)   </v>
+        <f t="shared" ref="O20:O21" si="16">CONCATENATE(N20, D20, " ", I20, IF(NOT(ISBLANK(J20)), " (", " "), J20, IF(NOT(ISBLANK(J20)), ") ", " "), IF(NOT(ISBLANK(H20)), CONCATENATE(" DEFAULT ", H20), " "), " " )</f>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q20" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,DEF_VAL VARCHAR (100)   </v>
+        <f t="shared" ref="Q20:Q21" si="17">CONCATENATE(O20, P20)</f>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L21" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private int sorts;</v>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N21" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="O21" s="8" t="str">
-        <f>CONCATENATE(N21, D21, " ", I21, IF(NOT(ISBLANK(J21)), " (", " "), J21, IF(NOT(ISBLANK(J21)), ") ", " "), IF(NOT(ISBLANK(H21)), CONCATENATE(" DEFAULT ", H21), " "), " " )</f>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="Q21" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,SORTS INT    </v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_ID)); </v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>28</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="D22" s="11" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="8" t="s">
-        <v>202</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="11"/>
       <c r="I22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L22" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private Date reg_dt;</v>
+        <v>private long srv_id;</v>
       </c>
       <c r="N22" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>,</v>
+        <f t="shared" ref="N22:N45" si="18">IF(ISBLANK(B22), ",", CONCATENATE("CREATE TABLE ", B22, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE PARM_MST ( </v>
       </c>
       <c r="O22" s="8" t="str">
-        <f>CONCATENATE(N22, D22, " ", I22, IF(NOT(ISBLANK(J22)), " (", " "), J22, IF(NOT(ISBLANK(J22)), ") ", " "), IF(NOT(ISBLANK(H22)), CONCATENATE(" DEFAULT ", H22), " "), " " )</f>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" ref="O22:O26" si="19">CONCATENATE(N22, D22, " ", I22, IF(NOT(ISBLANK(J22)), " (", " "), J22, IF(NOT(ISBLANK(J22)), ") ", " "), IF(NOT(ISBLANK(H22)), CONCATENATE(" DEFAULT ", H22), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE PARM_MST ( SRV_ID BIGINT    </v>
       </c>
       <c r="Q22" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" ref="Q22:Q45" si="20">CONCATENATE(O22, P22)</f>
+        <v xml:space="preserve">CREATE TABLE PARM_MST ( SRV_ID BIGINT    </v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="J23" s="8">
+        <v>100</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L23" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private Date mod_dt;</v>
+        <v>private double parm_id;</v>
       </c>
       <c r="N23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O23" s="8" t="str">
-        <f>CONCATENATE(N23, D23, " ", I23, IF(NOT(ISBLANK(J23)), " (", " "), J23, IF(NOT(ISBLANK(J23)), ") ", " "), IF(NOT(ISBLANK(H23)), CONCATENATE(" DEFAULT ", H23), " "), " " )</f>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>191</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,PARM_ID VARCHAR (100)   </v>
       </c>
       <c r="Q23" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_ID, PARM_ID)); </v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,PARM_ID VARCHAR (100)   </v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>14</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>158</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="11" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="J24" s="8">
+        <v>255</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L24" s="8" t="str">
-        <f>CONCATENATE("private ",IF(K24="DT","Date",IF(I24="INT","int",IF(I24="TEXT","String",IF(I24="BIGINT", "long", "double")))), " ", LOWER(D24), ";")</f>
-        <v>private long msn_id;</v>
+        <f t="shared" si="3"/>
+        <v>private double parm_desc;</v>
       </c>
       <c r="N24" s="8" t="str">
-        <f>IF(ISBLANK(B24), ",", CONCATENATE("CREATE TABLE ", B24, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE MSN_SRV_MST ( </v>
+        <f t="shared" si="18"/>
+        <v>,</v>
       </c>
       <c r="O24" s="8" t="str">
-        <f t="shared" ref="O24:O32" si="13">CONCATENATE(N24, D24, " ", I24, IF(NOT(ISBLANK(J24)), " (", " "), J24, IF(NOT(ISBLANK(J24)), ") ", " "), IF(NOT(ISBLANK(H24)), CONCATENATE(" DEFAULT ", H24), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE MSN_SRV_MST ( MSN_ID BIGINT    </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q24" s="10" t="str">
-        <f>CONCATENATE(O24, P24)</f>
-        <v xml:space="preserve">CREATE TABLE MSN_SRV_MST ( MSN_ID BIGINT    </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="11" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="J25" s="8">
+        <v>10</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="L25" s="8" t="str">
-        <f>CONCATENATE("private ",IF(K25="DT","Date",IF(I25="INT","int",IF(I25="TEXT","String",IF(I25="BIGINT", "long", "double")))), " ", LOWER(D25), ";")</f>
-        <v>private long srv_seq;</v>
+        <f t="shared" si="3"/>
+        <v>private double parm_tp;</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="N25" s="8" t="str">
-        <f>IF(ISBLANK(B25), ",", CONCATENATE("CREATE TABLE ", B25, " ( "))</f>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O25" s="8" t="str">
-        <f t="shared" ref="O25" si="14">CONCATENATE(N25, D25, " ", I25, IF(NOT(ISBLANK(J25)), " (", " "), J25, IF(NOT(ISBLANK(J25)), ") ", " "), IF(NOT(ISBLANK(H25)), CONCATENATE(" DEFAULT ", H25), " "), " " )</f>
-        <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,PARM_TP VARCHAR (10)   </v>
       </c>
       <c r="Q25" s="10" t="str">
         <f>CONCATENATE(O25, P25)</f>
-        <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">,PARM_TP VARCHAR (10)   </v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>15</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="J26" s="8">
+        <v>100</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L26" s="8" t="str">
-        <f>CONCATENATE("private ",IF(K26="DT","Date",IF(I26="INT","int",IF(I26="TEXT","String",IF(I26="BIGINT", "long", "double")))), " ", LOWER(D26), ";")</f>
-        <v>private long srv_id;</v>
+        <f t="shared" si="3"/>
+        <v>private double def_val;</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="N26" s="8" t="str">
-        <f>IF(ISBLANK(B26), ",", CONCATENATE("CREATE TABLE ", B26, " ( "))</f>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O26" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,SRV_ID BIGINT    </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,DEF_VAL VARCHAR (100)   </v>
       </c>
       <c r="Q26" s="10" t="str">
-        <f>CONCATENATE(O26, P26)</f>
-        <v xml:space="preserve">,SRV_ID BIGINT    </v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,DEF_VAL VARCHAR (100)   </v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>15</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="11" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L27" s="8" t="str">
-        <f>CONCATENATE("private ",IF(K27="DT","Date",IF(I27="INT","int",IF(I27="TEXT","String",IF(I27="BIGINT", "long", "double")))), " ", LOWER(D27), ";")</f>
-        <v>private int srv_dur;</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>166</v>
+        <f t="shared" si="3"/>
+        <v>private int sorts;</v>
       </c>
       <c r="N27" s="8" t="str">
-        <f>IF(ISBLANK(B27), ",", CONCATENATE("CREATE TABLE ", B27, " ( "))</f>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O27" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,SRV_DUR INT    </v>
+        <f>CONCATENATE(N27, D27, " ", I27, IF(NOT(ISBLANK(J27)), " (", " "), J27, IF(NOT(ISBLANK(J27)), ") ", " "), IF(NOT(ISBLANK(H27)), CONCATENATE(" DEFAULT ", H27), " "), " " )</f>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q27" s="10" t="str">
-        <f>CONCATENATE(O27, P27)</f>
-        <v xml:space="preserve">,SRV_DUR INT    </v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>15</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="11" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I28" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L28" s="8" t="str">
-        <f>CONCATENATE("private ",IF(K28="DT","Date",IF(I28="INT","int",IF(I28="TEXT","String",IF(I28="BIGINT", "long", "double")))), " ", LOWER(D28), ";")</f>
-        <v>private int pre_dur;</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>167</v>
+        <f t="shared" si="3"/>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N28" s="8" t="str">
-        <f>IF(ISBLANK(B28), ",", CONCATENATE("CREATE TABLE ", B28, " ( "))</f>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O28" s="8" t="str">
-        <f t="shared" ref="O28" si="15">CONCATENATE(N28, D28, " ", I28, IF(NOT(ISBLANK(J28)), " (", " "), J28, IF(NOT(ISBLANK(J28)), ") ", " "), IF(NOT(ISBLANK(H28)), CONCATENATE(" DEFAULT ", H28), " "), " " )</f>
-        <v xml:space="preserve">,PRE_DUR INT    </v>
+        <f>CONCATENATE(N28, D28, " ", I28, IF(NOT(ISBLANK(J28)), " (", " "), J28, IF(NOT(ISBLANK(J28)), ") ", " "), IF(NOT(ISBLANK(H28)), CONCATENATE(" DEFAULT ", H28), " "), " " )</f>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q28" s="10" t="str">
-        <f>CONCATENATE(O28, P28)</f>
-        <v xml:space="preserve">,PRE_DUR INT    </v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>15</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="11" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L29" s="8" t="str">
-        <f>CONCATENATE("private ",IF(K29="DT","Date",IF(I29="INT","int",IF(I29="TEXT","String",IF(I29="BIGINT", "long", "double")))), " ", LOWER(D29), ";")</f>
-        <v>private int aft_dur;</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>168</v>
+        <f t="shared" si="3"/>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N29" s="8" t="str">
-        <f>IF(ISBLANK(B29), ",", CONCATENATE("CREATE TABLE ", B29, " ( "))</f>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O29" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,AFT_DUR INT    </v>
+        <f>CONCATENATE(N29, D29, " ", I29, IF(NOT(ISBLANK(J29)), " (", " "), J29, IF(NOT(ISBLANK(J29)), ") ", " "), IF(NOT(ISBLANK(H29)), CONCATENATE(" DEFAULT ", H29), " "), " " )</f>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="Q29" s="10" t="str">
-        <f>CONCATENATE(O29, P29)</f>
-        <v xml:space="preserve">,AFT_DUR INT    </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_ID, PARM_ID)); </v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>16</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="D30" s="11" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H30" s="11"/>
       <c r="I30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="8">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="L30" s="8" t="str">
-        <f>CONCATENATE("private ",IF(K30="DT","Date",IF(I30="INT","int",IF(I30="TEXT","String",IF(I30="BIGINT", "long", "double")))), " ", LOWER(D30), ";")</f>
-        <v>private double map_tp;</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>176</v>
+        <f t="shared" ref="L30:L38" si="21">CONCATENATE("private ",IF(K30="DT","Date",IF(I30="INT","int",IF(I30="TEXT","String",IF(I30="BIGINT", "long", "double")))), " ", LOWER(D30), ";")</f>
+        <v>private long msn_id;</v>
       </c>
       <c r="N30" s="8" t="str">
-        <f>IF(ISBLANK(B30), ",", CONCATENATE("CREATE TABLE ", B30, " ( "))</f>
-        <v>,</v>
+        <f t="shared" ref="N30:N38" si="22">IF(ISBLANK(B30), ",", CONCATENATE("CREATE TABLE ", B30, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_MST ( </v>
       </c>
       <c r="O30" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
+        <f t="shared" ref="O30:O38" si="23">CONCATENATE(N30, D30, " ", I30, IF(NOT(ISBLANK(J30)), " (", " "), J30, IF(NOT(ISBLANK(J30)), ") ", " "), IF(NOT(ISBLANK(H30)), CONCATENATE(" DEFAULT ", H30), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_MST ( MSN_ID BIGINT    </v>
       </c>
       <c r="Q30" s="10" t="str">
-        <f>CONCATENATE(O30, P30)</f>
-        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q30:Q36" si="24">CONCATENATE(O30, P30)</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_MST ( MSN_ID BIGINT    </v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
-        <v>28</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="11" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="8" t="s">
-        <v>202</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="11"/>
       <c r="I31" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L31" s="8" t="str">
-        <f>CONCATENATE("private ",IF(K31="DT","Date",IF(I31="INT","int",IF(I31="TEXT","String",IF(I31="BIGINT", "long", "double")))), " ", LOWER(D31), ";")</f>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="21"/>
+        <v>private long srv_seq;</v>
       </c>
       <c r="N31" s="8" t="str">
-        <f>IF(ISBLANK(B31), ",", CONCATENATE("CREATE TABLE ", B31, " ( "))</f>
+        <f t="shared" si="22"/>
         <v>,</v>
       </c>
       <c r="O31" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" ref="O31" si="25">CONCATENATE(N31, D31, " ", I31, IF(NOT(ISBLANK(J31)), " (", " "), J31, IF(NOT(ISBLANK(J31)), ") ", " "), IF(NOT(ISBLANK(H31)), CONCATENATE(" DEFAULT ", H31), " "), " " )</f>
+        <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
       </c>
       <c r="Q31" s="10" t="str">
-        <f t="shared" ref="Q31:Q32" si="16">CONCATENATE(O31, P31)</f>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
-        <v>30</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H32" s="11"/>
       <c r="I32" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L32" s="8" t="str">
-        <f>CONCATENATE("private ",IF(K32="DT","Date",IF(I32="INT","int",IF(I32="TEXT","String",IF(I32="BIGINT", "long", "double")))), " ", LOWER(D32), ";")</f>
-        <v>private Date mod_dt;</v>
+        <f t="shared" si="21"/>
+        <v>private long srv_id;</v>
       </c>
       <c r="N32" s="8" t="str">
-        <f>IF(ISBLANK(B32), ",", CONCATENATE("CREATE TABLE ", B32, " ( "))</f>
+        <f t="shared" si="22"/>
         <v>,</v>
       </c>
       <c r="O32" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>201</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,SRV_ID BIGINT    </v>
       </c>
       <c r="Q32" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_ID, SRV_SEQ)); </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,SRV_ID BIGINT    </v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
-        <v>14</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="11" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L33" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private long msn_seq;</v>
+        <f t="shared" si="21"/>
+        <v>private int srv_dur;</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="N33" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">CREATE TABLE MSN_INFO ( </v>
+        <f t="shared" si="22"/>
+        <v>,</v>
       </c>
       <c r="O33" s="8" t="str">
-        <f t="shared" ref="O33:O51" si="17">CONCATENATE(N33, D33, " ", I33, IF(NOT(ISBLANK(J33)), " (", " "), J33, IF(NOT(ISBLANK(J33)), ") ", " "), IF(NOT(ISBLANK(H33)), CONCATENATE(" DEFAULT ", H33), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE MSN_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,SRV_DUR INT    </v>
       </c>
       <c r="Q33" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">CREATE TABLE MSN_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,SRV_DUR INT    </v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
-        <v>23</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="11" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -3577,446 +3565,457 @@
         <v>48</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L34" s="8" t="str">
-        <f t="shared" ref="L34" si="18">CONCATENATE("private ",IF(K34="DT","Date",IF(I34="INT","int",IF(I34="TEXT","String",IF(I34="BIGINT", "long", "double")))), " ", LOWER(D34), ";")</f>
-        <v>private long msn_id;</v>
+        <f t="shared" si="21"/>
+        <v>private int pre_dur;</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="N34" s="8" t="str">
-        <f t="shared" ref="N34" si="19">IF(ISBLANK(B34), ",", CONCATENATE("CREATE TABLE ", B34, " ( "))</f>
+        <f t="shared" si="22"/>
         <v>,</v>
       </c>
       <c r="O34" s="8" t="str">
-        <f t="shared" ref="O34" si="20">CONCATENATE(N34, D34, " ", I34, IF(NOT(ISBLANK(J34)), " (", " "), J34, IF(NOT(ISBLANK(J34)), ") ", " "), IF(NOT(ISBLANK(H34)), CONCATENATE(" DEFAULT ", H34), " "), " " )</f>
-        <v xml:space="preserve">,MSN_ID BIGINT    </v>
+        <f t="shared" ref="O34" si="26">CONCATENATE(N34, D34, " ", I34, IF(NOT(ISBLANK(J34)), " (", " "), J34, IF(NOT(ISBLANK(J34)), ") ", " "), IF(NOT(ISBLANK(H34)), CONCATENATE(" DEFAULT ", H34), " "), " " )</f>
+        <v xml:space="preserve">,PRE_DUR INT    </v>
       </c>
       <c r="Q34" s="10" t="str">
-        <f t="shared" ref="Q34" si="21">CONCATENATE(O34, P34)</f>
-        <v xml:space="preserve">,MSN_ID BIGINT    </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,PRE_DUR INT    </v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>15</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="11" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L35" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private double msn_call;</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>97</v>
+        <f t="shared" si="21"/>
+        <v>private int aft_dur;</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="N35" s="8" t="str">
-        <f>IF(ISBLANK(B35), ",", CONCATENATE("CREATE TABLE ", B35, " ( "))</f>
+        <f t="shared" si="22"/>
         <v>,</v>
       </c>
       <c r="O35" s="8" t="str">
-        <f>CONCATENATE(N35, D35, " ", I35, IF(NOT(ISBLANK(J35)), " (", " "), J35, IF(NOT(ISBLANK(J35)), ") ", " "), IF(NOT(ISBLANK(H35)), CONCATENATE(" DEFAULT ", H35), " "), " " )</f>
-        <v xml:space="preserve">,MSN_CALL VARCHAR (50)   </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,AFT_DUR INT    </v>
       </c>
       <c r="Q35" s="10" t="str">
-        <f t="shared" ref="Q35:Q36" si="22">CONCATENATE(O35, P35)</f>
-        <v xml:space="preserve">,MSN_CALL VARCHAR (50)   </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,AFT_DUR INT    </v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
-        <v>15</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="11" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" s="8">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="K36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>private double map_tp;</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="N36" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>,</v>
+      </c>
+      <c r="O36" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
+      </c>
+      <c r="Q36" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>28</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private double msn_desc;</v>
-      </c>
-      <c r="N36" s="8" t="str">
-        <f t="shared" ref="N36" si="23">IF(ISBLANK(B36), ",", CONCATENATE("CREATE TABLE ", B36, " ( "))</f>
-        <v>,</v>
-      </c>
-      <c r="O36" s="8" t="str">
-        <f t="shared" ref="O36" si="24">CONCATENATE(N36, D36, " ", I36, IF(NOT(ISBLANK(J36)), " (", " "), J36, IF(NOT(ISBLANK(J36)), ") ", " "), IF(NOT(ISBLANK(H36)), CONCATENATE(" DEFAULT ", H36), " "), " " )</f>
-        <v xml:space="preserve">,MSN_DESC VARCHAR (255)   </v>
-      </c>
-      <c r="Q36" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,MSN_DESC VARCHAR (255)   </v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>15</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="E37" s="11" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="H37" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I37" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J37" s="8">
-        <v>255</v>
-      </c>
       <c r="K37" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L37" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private double remrk;</v>
+        <f t="shared" si="21"/>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N37" s="8" t="str">
-        <f t="shared" ref="N37" si="25">IF(ISBLANK(B37), ",", CONCATENATE("CREATE TABLE ", B37, " ( "))</f>
+        <f t="shared" si="22"/>
         <v>,</v>
       </c>
       <c r="O37" s="8" t="str">
-        <f t="shared" ref="O37" si="26">CONCATENATE(N37, D37, " ", I37, IF(NOT(ISBLANK(J37)), " (", " "), J37, IF(NOT(ISBLANK(J37)), ") ", " "), IF(NOT(ISBLANK(H37)), CONCATENATE(" DEFAULT ", H37), " "), " " )</f>
-        <v xml:space="preserve">,REMRK VARCHAR (255)   </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q37" s="10" t="str">
-        <f t="shared" ref="Q37" si="27">CONCATENATE(O37, P37)</f>
-        <v xml:space="preserve">,REMRK VARCHAR (255)   </v>
+        <f t="shared" ref="Q37:Q38" si="27">CONCATENATE(O37, P37)</f>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
-        <v>20</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="11" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="H38" s="11"/>
       <c r="I38" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L38" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="21"/>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N38" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>,</v>
       </c>
       <c r="O38" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="Q38" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_ID, SRV_SEQ)); </v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
-        <v>30</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="D39" s="11" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+        <v>170</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="I39" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L39" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private Date mod_dt;</v>
+        <v>private long msn_seq;</v>
       </c>
       <c r="N39" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">CREATE TABLE MSN_INFO ( </v>
       </c>
       <c r="O39" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P39" s="12" t="s">
-        <v>203</v>
+        <f t="shared" ref="O39:O57" si="28">CONCATENATE(N39, D39, " ", I39, IF(NOT(ISBLANK(J39)), " (", " "), J39, IF(NOT(ISBLANK(J39)), ") ", " "), IF(NOT(ISBLANK(H39)), CONCATENATE(" DEFAULT ", H39), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE MSN_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q39" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_SEQ)); </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">CREATE TABLE MSN_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
-        <v>14</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>172</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="11" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L40" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private long srv_seq;</v>
+        <f t="shared" ref="L40" si="29">CONCATENATE("private ",IF(K40="DT","Date",IF(I40="INT","int",IF(I40="TEXT","String",IF(I40="BIGINT", "long", "double")))), " ", LOWER(D40), ";")</f>
+        <v>private long msn_id;</v>
       </c>
       <c r="N40" s="8" t="str">
-        <f t="shared" ref="N40:N51" si="28">IF(ISBLANK(B40), ",", CONCATENATE("CREATE TABLE ", B40, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( </v>
+        <f t="shared" ref="N40" si="30">IF(ISBLANK(B40), ",", CONCATENATE("CREATE TABLE ", B40, " ( "))</f>
+        <v>,</v>
       </c>
       <c r="O40" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( SRV_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f t="shared" ref="O40" si="31">CONCATENATE(N40, D40, " ", I40, IF(NOT(ISBLANK(J40)), " (", " "), J40, IF(NOT(ISBLANK(J40)), ") ", " "), IF(NOT(ISBLANK(H40)), CONCATENATE(" DEFAULT ", H40), " "), " " )</f>
+        <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
       <c r="Q40" s="10" t="str">
-        <f t="shared" ref="Q40:Q45" si="29">CONCATENATE(O40, P40)</f>
-        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( SRV_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f t="shared" ref="Q40" si="32">CONCATENATE(O40, P40)</f>
+        <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>15</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="11" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="J41" s="8">
+        <v>50</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L41" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private long msn_id;</v>
+        <v>private double msn_call;</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="N41" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(ISBLANK(B41), ",", CONCATENATE("CREATE TABLE ", B41, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O41" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,MSN_ID BIGINT    </v>
+        <f>CONCATENATE(N41, D41, " ", I41, IF(NOT(ISBLANK(J41)), " (", " "), J41, IF(NOT(ISBLANK(J41)), ") ", " "), IF(NOT(ISBLANK(H41)), CONCATENATE(" DEFAULT ", H41), " "), " " )</f>
+        <v xml:space="preserve">,MSN_CALL VARCHAR (50)   </v>
       </c>
       <c r="Q41" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,MSN_ID BIGINT    </v>
+        <f t="shared" ref="Q41:Q42" si="33">CONCATENATE(O41, P41)</f>
+        <v xml:space="preserve">,MSN_CALL VARCHAR (50)   </v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>15</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="11" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="8" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="J42" s="8">
+        <v>255</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L42" s="8" t="str">
-        <f t="shared" ref="L42" si="30">CONCATENATE("private ",IF(K42="DT","Date",IF(I42="INT","int",IF(I42="TEXT","String",IF(I42="BIGINT", "long", "double")))), " ", LOWER(D42), ";")</f>
-        <v>private long msn_seq;</v>
+        <f t="shared" si="3"/>
+        <v>private double msn_desc;</v>
       </c>
       <c r="N42" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="N42" si="34">IF(ISBLANK(B42), ",", CONCATENATE("CREATE TABLE ", B42, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O42" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
+        <f t="shared" ref="O42" si="35">CONCATENATE(N42, D42, " ", I42, IF(NOT(ISBLANK(J42)), " (", " "), J42, IF(NOT(ISBLANK(J42)), ") ", " "), IF(NOT(ISBLANK(H42)), CONCATENATE(" DEFAULT ", H42), " "), " " )</f>
+        <v xml:space="preserve">,MSN_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q42" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,MSN_DESC VARCHAR (255)   </v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
-        <v>16</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="11" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="J43" s="8">
+        <v>255</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L43" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private long srv_id;</v>
+        <v>private double remrk;</v>
       </c>
       <c r="N43" s="8" t="str">
-        <f t="shared" ref="N43:N44" si="31">IF(ISBLANK(B43), ",", CONCATENATE("CREATE TABLE ", B43, " ( "))</f>
+        <f t="shared" ref="N43" si="36">IF(ISBLANK(B43), ",", CONCATENATE("CREATE TABLE ", B43, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O43" s="8" t="str">
-        <f t="shared" ref="O43:O44" si="32">CONCATENATE(N43, D43, " ", I43, IF(NOT(ISBLANK(J43)), " (", " "), J43, IF(NOT(ISBLANK(J43)), ") ", " "), IF(NOT(ISBLANK(H43)), CONCATENATE(" DEFAULT ", H43), " "), " " )</f>
-        <v xml:space="preserve">,SRV_ID BIGINT    </v>
+        <f t="shared" ref="O43" si="37">CONCATENATE(N43, D43, " ", I43, IF(NOT(ISBLANK(J43)), " (", " "), J43, IF(NOT(ISBLANK(J43)), ") ", " "), IF(NOT(ISBLANK(H43)), CONCATENATE(" DEFAULT ", H43), " "), " " )</f>
+        <v xml:space="preserve">,REMRK VARCHAR (255)   </v>
       </c>
       <c r="Q43" s="10" t="str">
-        <f>CONCATENATE(O43, P43)</f>
-        <v xml:space="preserve">,SRV_ID BIGINT    </v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q43" si="38">CONCATENATE(O43, P43)</f>
+        <v xml:space="preserve">,REMRK VARCHAR (255)   </v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
-        <v>18</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="8">
-        <v>255</v>
-      </c>
       <c r="K44" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L44" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double srv_desc;</v>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N44" s="8" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O44" s="8" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q44" s="10" t="str">
-        <f t="shared" ref="Q44" si="33">CONCATENATE(O44, P44)</f>
-        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
-        <v>15</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -4024,68 +4023,75 @@
       <c r="I45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J45" s="8">
-        <v>100</v>
-      </c>
       <c r="K45" s="8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L45" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double srv_call;</v>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N45" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O45" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>,</v>
-      </c>
-      <c r="O45" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,SRV_CALL VARCHAR (100)   </v>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="Q45" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,SRV_CALL VARCHAR (100)   </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_SEQ)); </v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
-        <v>15</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="D46" s="11" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+        <v>194</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="I46" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L46" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private int srv_dur;</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>166</v>
+        <v>private long srv_seq;</v>
       </c>
       <c r="N46" s="8" t="str">
-        <f>IF(ISBLANK(B46), ",", CONCATENATE("CREATE TABLE ", B46, " ( "))</f>
-        <v>,</v>
+        <f t="shared" ref="N46:N57" si="39">IF(ISBLANK(B46), ",", CONCATENATE("CREATE TABLE ", B46, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( </v>
       </c>
       <c r="O46" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,SRV_DUR INT    </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( SRV_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q46" s="10" t="str">
-        <f>CONCATENATE(O46, P46)</f>
-        <v xml:space="preserve">,SRV_DUR INT    </v>
+        <f t="shared" ref="Q46:Q51" si="40">CONCATENATE(O46, P46)</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( SRV_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
@@ -4095,38 +4101,35 @@
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="11" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L47" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private int pre_dur;</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>167</v>
+        <v>private long msn_id;</v>
       </c>
       <c r="N47" s="8" t="str">
-        <f>IF(ISBLANK(B47), ",", CONCATENATE("CREATE TABLE ", B47, " ( "))</f>
+        <f t="shared" si="39"/>
         <v>,</v>
       </c>
       <c r="O47" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,PRE_DUR INT    </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
       <c r="Q47" s="10" t="str">
-        <f>CONCATENATE(O47, P47)</f>
-        <v xml:space="preserve">,PRE_DUR INT    </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
@@ -4136,38 +4139,35 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="11" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L48" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private int aft_dur;</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>168</v>
+        <f t="shared" ref="L48" si="41">CONCATENATE("private ",IF(K48="DT","Date",IF(I48="INT","int",IF(I48="TEXT","String",IF(I48="BIGINT", "long", "double")))), " ", LOWER(D48), ";")</f>
+        <v>private long msn_seq;</v>
       </c>
       <c r="N48" s="8" t="str">
-        <f>IF(ISBLANK(B48), ",", CONCATENATE("CREATE TABLE ", B48, " ( "))</f>
+        <f t="shared" si="39"/>
         <v>,</v>
       </c>
       <c r="O48" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,AFT_DUR INT    </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
       <c r="Q48" s="10" t="str">
-        <f>CONCATENATE(O48, P48)</f>
-        <v xml:space="preserve">,AFT_DUR INT    </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
@@ -4177,223 +4177,212 @@
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="11" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" s="8">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="L49" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double map_tp;</v>
+        <v>private long srv_id;</v>
       </c>
       <c r="N49" s="8" t="str">
-        <f>IF(ISBLANK(B49), ",", CONCATENATE("CREATE TABLE ", B49, " ( "))</f>
+        <f t="shared" ref="N49:N50" si="42">IF(ISBLANK(B49), ",", CONCATENATE("CREATE TABLE ", B49, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O49" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
+        <f t="shared" ref="O49:O50" si="43">CONCATENATE(N49, D49, " ", I49, IF(NOT(ISBLANK(J49)), " (", " "), J49, IF(NOT(ISBLANK(J49)), ") ", " "), IF(NOT(ISBLANK(H49)), CONCATENATE(" DEFAULT ", H49), " "), " " )</f>
+        <v xml:space="preserve">,SRV_ID BIGINT    </v>
       </c>
       <c r="Q49" s="10" t="str">
         <f>CONCATENATE(O49, P49)</f>
-        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">,SRV_ID BIGINT    </v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
-        <v>28</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="11" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="H50" s="11"/>
       <c r="I50" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="J50" s="8">
+        <v>255</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L50" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private Date reg_dt;</v>
+        <v>private double srv_desc;</v>
       </c>
       <c r="N50" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>,</v>
       </c>
       <c r="O50" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q50" s="10" t="str">
-        <f t="shared" ref="Q50:Q51" si="34">CONCATENATE(O50, P50)</f>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q50" si="44">CONCATENATE(O50, P50)</f>
+        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
-        <v>30</v>
-      </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="11" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="J51" s="8">
+        <v>100</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private Date mod_dt;</v>
+        <v>private double srv_call;</v>
       </c>
       <c r="N51" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>,</v>
+      </c>
+      <c r="O51" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>,</v>
-      </c>
-      <c r="O51" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P51" s="12" t="s">
-        <v>204</v>
+        <v xml:space="preserve">,SRV_CALL VARCHAR (100)   </v>
       </c>
       <c r="Q51" s="10" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ)); </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,SRV_CALL VARCHAR (100)   </v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
-        <v>14</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>59</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="11" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L52" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private long srv_seq;</v>
+        <v>private int srv_dur;</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="N52" s="8" t="str">
-        <f t="shared" ref="N52:N68" si="35">IF(ISBLANK(B52), ",", CONCATENATE("CREATE TABLE ", B52, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE PARM_INFO ( </v>
+        <f>IF(ISBLANK(B52), ",", CONCATENATE("CREATE TABLE ", B52, " ( "))</f>
+        <v>,</v>
       </c>
       <c r="O52" s="8" t="str">
-        <f t="shared" ref="O52:O68" si="36">CONCATENATE(N52, D52, " ", I52, IF(NOT(ISBLANK(J52)), " (", " "), J52, IF(NOT(ISBLANK(J52)), ") ", " "), IF(NOT(ISBLANK(H52)), CONCATENATE(" DEFAULT ", H52), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,SRV_DUR INT    </v>
       </c>
       <c r="Q52" s="10" t="str">
-        <f t="shared" ref="Q52:Q86" si="37">CONCATENATE(O52, P52)</f>
-        <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
+        <f>CONCATENATE(O52, P52)</f>
+        <v xml:space="preserve">,SRV_DUR INT    </v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>15</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="11" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J53" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L53" s="8" t="str">
-        <f t="shared" ref="L53" si="38">CONCATENATE("private ",IF(K53="DT","Date",IF(I53="INT","int",IF(I53="TEXT","String",IF(I53="BIGINT", "long", "double")))), " ", LOWER(D53), ";")</f>
-        <v>private double parm_id;</v>
+        <f t="shared" si="3"/>
+        <v>private int pre_dur;</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="N53" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(ISBLANK(B53), ",", CONCATENATE("CREATE TABLE ", B53, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O53" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,PRE_DUR INT    </v>
       </c>
       <c r="Q53" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
+        <f>CONCATENATE(O53, P53)</f>
+        <v xml:space="preserve">,PRE_DUR INT    </v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>15</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="11" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4402,115 +4391,120 @@
         <v>48</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L54" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private long msn_id;</v>
+        <v>private int aft_dur;</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="N54" s="8" t="str">
-        <f t="shared" ref="N54:N55" si="39">IF(ISBLANK(B54), ",", CONCATENATE("CREATE TABLE ", B54, " ( "))</f>
+        <f>IF(ISBLANK(B54), ",", CONCATENATE("CREATE TABLE ", B54, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O54" s="8" t="str">
-        <f t="shared" ref="O54:O55" si="40">CONCATENATE(N54, D54, " ", I54, IF(NOT(ISBLANK(J54)), " (", " "), J54, IF(NOT(ISBLANK(J54)), ") ", " "), IF(NOT(ISBLANK(H54)), CONCATENATE(" DEFAULT ", H54), " "), " " )</f>
-        <v xml:space="preserve">,MSN_ID BIGINT    </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,AFT_DUR INT    </v>
       </c>
       <c r="Q54" s="10" t="str">
-        <f t="shared" ref="Q54:Q55" si="41">CONCATENATE(O54, P54)</f>
-        <v xml:space="preserve">,MSN_ID BIGINT    </v>
+        <f>CONCATENATE(O54, P54)</f>
+        <v xml:space="preserve">,AFT_DUR INT    </v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
-        <v>18</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="11" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="8" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="J55" s="8">
+        <v>10</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="L55" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private long msn_seq;</v>
+        <v>private double map_tp;</v>
       </c>
       <c r="N55" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f>IF(ISBLANK(B55), ",", CONCATENATE("CREATE TABLE ", B55, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O55" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
       </c>
       <c r="Q55" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(O55, P55)</f>
+        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
-        <v>18</v>
-      </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="11" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="H56" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I56" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="8">
-        <v>50</v>
-      </c>
       <c r="K56" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L56" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double def_val;</v>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N56" s="8" t="str">
-        <f t="shared" ref="N56" si="42">IF(ISBLANK(B56), ",", CONCATENATE("CREATE TABLE ", B56, " ( "))</f>
+        <f t="shared" si="39"/>
         <v>,</v>
       </c>
       <c r="O56" s="8" t="str">
-        <f t="shared" ref="O56" si="43">CONCATENATE(N56, D56, " ", I56, IF(NOT(ISBLANK(J56)), " (", " "), J56, IF(NOT(ISBLANK(J56)), ") ", " "), IF(NOT(ISBLANK(H56)), CONCATENATE(" DEFAULT ", H56), " "), " " )</f>
-        <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q56" s="10" t="str">
-        <f t="shared" ref="Q56" si="44">CONCATENATE(O56, P56)</f>
-        <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q56:Q57" si="45">CONCATENATE(O56, P56)</f>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
-        <v>18</v>
-      </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="11" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
@@ -4518,118 +4512,131 @@
       <c r="I57" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J57" s="8">
-        <v>50</v>
-      </c>
       <c r="K57" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L57" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double parm_val;</v>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N57" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>,</v>
       </c>
       <c r="O57" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P57" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="Q57" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ)); </v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
-        <v>18</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="D58" s="11" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+        <v>194</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H58" s="11"/>
       <c r="I58" s="8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L58" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private int sorts;</v>
+        <v>private long srv_seq;</v>
       </c>
       <c r="N58" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v>,</v>
+        <f t="shared" ref="N58:N74" si="46">IF(ISBLANK(B58), ",", CONCATENATE("CREATE TABLE ", B58, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE PARM_INFO ( </v>
       </c>
       <c r="O58" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <f t="shared" ref="O58:O74" si="47">CONCATENATE(N58, D58, " ", I58, IF(NOT(ISBLANK(J58)), " (", " "), J58, IF(NOT(ISBLANK(J58)), ") ", " "), IF(NOT(ISBLANK(H58)), CONCATENATE(" DEFAULT ", H58), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
       </c>
       <c r="Q58" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,SORTS INT    </v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q58:Q86" si="48">CONCATENATE(O58, P58)</f>
+        <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
-        <v>18</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="11" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="8" t="s">
-        <v>202</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="11"/>
       <c r="I59" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="J59" s="8">
+        <v>50</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L59" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" ref="L59" si="49">CONCATENATE("private ",IF(K59="DT","Date",IF(I59="INT","int",IF(I59="TEXT","String",IF(I59="BIGINT", "long", "double")))), " ", LOWER(D59), ";")</f>
+        <v>private double parm_id;</v>
       </c>
       <c r="N59" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>,</v>
       </c>
       <c r="O59" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
       </c>
       <c r="Q59" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
-        <v>30</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
@@ -4638,413 +4645,418 @@
         <v>47</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L60" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private Date mod_dt;</v>
+        <v>private long msn_id;</v>
       </c>
       <c r="N60" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="N60:N61" si="50">IF(ISBLANK(B60), ",", CONCATENATE("CREATE TABLE ", B60, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O60" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P60" s="12" t="s">
-        <v>205</v>
+        <f t="shared" ref="O60:O61" si="51">CONCATENATE(N60, D60, " ", I60, IF(NOT(ISBLANK(J60)), " (", " "), J60, IF(NOT(ISBLANK(J60)), ") ", " "), IF(NOT(ISBLANK(H60)), CONCATENATE(" DEFAULT ", H60), " "), " " )</f>
+        <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
       <c r="Q60" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ, PARM_ID)); </v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q60:Q61" si="52">CONCATENATE(O60, P60)</f>
+        <v xml:space="preserve">,MSN_ID BIGINT    </v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
-        <v>14</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
       <c r="I61" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J61" s="8">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="L61" s="8" t="str">
-        <f t="shared" ref="L61:L86" si="45">CONCATENATE("private ",IF(K61="DT","Date",IF(I61="INTEGER","int",IF(I61="TEXT","String","double"))), " ", LOWER(D61), ";")</f>
-        <v>private double admin_id;</v>
+        <f t="shared" si="3"/>
+        <v>private long msn_seq;</v>
       </c>
       <c r="N61" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( </v>
+        <f t="shared" si="50"/>
+        <v>,</v>
       </c>
       <c r="O61" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
       <c r="Q61" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="11" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>215</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
       <c r="I62" s="8" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="J62" s="8">
         <v>50</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="L62" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double admin_nm;</v>
+        <f t="shared" si="3"/>
+        <v>private double def_val;</v>
       </c>
       <c r="N62" s="8" t="str">
-        <f>IF(ISBLANK(B62), ",", CONCATENATE("CREATE TABLE ", B62, " ( "))</f>
+        <f t="shared" ref="N62" si="53">IF(ISBLANK(B62), ",", CONCATENATE("CREATE TABLE ", B62, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O62" s="8" t="str">
-        <f>CONCATENATE(N62, D62, " ", I62, IF(NOT(ISBLANK(J62)), " (", " "), J62, IF(NOT(ISBLANK(J62)), ") ", " "), IF(NOT(ISBLANK(H62)), CONCATENATE(" DEFAULT ", H62), " "), " " )</f>
-        <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
+        <f t="shared" ref="O62" si="54">CONCATENATE(N62, D62, " ", I62, IF(NOT(ISBLANK(J62)), " (", " "), J62, IF(NOT(ISBLANK(J62)), ") ", " "), IF(NOT(ISBLANK(H62)), CONCATENATE(" DEFAULT ", H62), " "), " " )</f>
+        <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
       </c>
       <c r="Q62" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q62" si="55">CONCATENATE(O62, P62)</f>
+        <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="11" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>9</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="8" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="J63" s="8">
         <v>50</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="L63" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double tel_no;</v>
+        <f t="shared" si="3"/>
+        <v>private double parm_val;</v>
       </c>
       <c r="N63" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>,</v>
       </c>
       <c r="O63" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
       </c>
       <c r="Q63" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>10</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
       <c r="I64" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="J64" s="8">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="L64" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double email;</v>
+        <f t="shared" si="3"/>
+        <v>private int sorts;</v>
       </c>
       <c r="N64" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>,</v>
       </c>
       <c r="O64" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q64" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="11" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>222</v>
+        <v>25</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="L65" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double auto_login;</v>
+        <f t="shared" si="3"/>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N65" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>,</v>
       </c>
       <c r="O65" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,AUTO_LOGIN INT    </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q65" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,AUTO_LOGIN INT    </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
-        <v>23</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="11" t="s">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>226</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
       <c r="I66" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J66" s="8">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="L66" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double passwd;</v>
+        <f t="shared" si="3"/>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N66" s="8" t="str">
-        <f>IF(ISBLANK(B66), ",", CONCATENATE("CREATE TABLE ", B66, " ( "))</f>
+        <f t="shared" si="46"/>
         <v>,</v>
       </c>
       <c r="O66" s="8" t="str">
-        <f>CONCATENATE(N66, D66, " ", I66, IF(NOT(ISBLANK(J66)), " (", " "), J66, IF(NOT(ISBLANK(J66)), ") ", " "), IF(NOT(ISBLANK(H66)), CONCATENATE(" DEFAULT ", H66), " "), " " )</f>
-        <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P66" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="Q66" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ, PARM_ID)); </v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
-        <v>15</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>228</v>
+        <v>14</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J67" s="8">
         <v>50</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L67" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double auth_level;</v>
+        <f t="shared" ref="L67:L86" si="56">CONCATENATE("private ",IF(K67="DT","Date",IF(I67="INTEGER","int",IF(I67="TEXT","String","double"))), " ", LOWER(D67), ";")</f>
+        <v>private double admin_id;</v>
       </c>
       <c r="N67" s="8" t="str">
-        <f>IF(ISBLANK(B67), ",", CONCATENATE("CREATE TABLE ", B67, " ( "))</f>
-        <v>,</v>
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( </v>
       </c>
       <c r="O67" s="8" t="str">
-        <f>CONCATENATE(N67, D67, " ", I67, IF(NOT(ISBLANK(J67)), " (", " "), J67, IF(NOT(ISBLANK(J67)), ") ", " "), IF(NOT(ISBLANK(H67)), CONCATENATE(" DEFAULT ", H67), " "), " " )</f>
-        <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
       </c>
       <c r="Q67" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>231</v>
+        <v>211</v>
+      </c>
+      <c r="J68" s="8">
+        <v>50</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="L68" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="56"/>
+        <v>private double admin_nm;</v>
       </c>
       <c r="N68" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(ISBLANK(B68), ",", CONCATENATE("CREATE TABLE ", B68, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O68" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,REG_DT DATETIME    </v>
-      </c>
-      <c r="P68" s="8" t="s">
-        <v>233</v>
+        <f>CONCATENATE(N68, D68, " ", I68, IF(NOT(ISBLANK(J68)), " (", " "), J68, IF(NOT(ISBLANK(J68)), ") ", " "), IF(NOT(ISBLANK(H68)), CONCATENATE(" DEFAULT ", H68), " "), " " )</f>
+        <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
       </c>
       <c r="Q68" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
-        <v>14</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J69" s="8">
         <v>50</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L69" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double admin_id;</v>
+        <f t="shared" si="56"/>
+        <v>private double tel_no;</v>
       </c>
       <c r="N69" s="8" t="str">
-        <f>IF(ISBLANK(B69), ",", CONCATENATE("CREATE TABLE ", B69, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( </v>
+        <f t="shared" si="46"/>
+        <v>,</v>
       </c>
       <c r="O69" s="8" t="str">
-        <f>CONCATENATE(N69, D69, " ", I69, IF(NOT(ISBLANK(J69)), " (", " "), J69, IF(NOT(ISBLANK(J69)), ") ", " "), IF(NOT(ISBLANK(H69)), CONCATENATE(" DEFAULT ", H69), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
       </c>
       <c r="Q69" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="J70" s="8">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L70" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double auto_login_key;</v>
+        <f t="shared" si="56"/>
+        <v>private double email;</v>
       </c>
       <c r="N70" s="8" t="str">
-        <f>IF(ISBLANK(B70), ",", CONCATENATE("CREATE TABLE ", B70, " ( "))</f>
+        <f t="shared" si="46"/>
         <v>,</v>
       </c>
       <c r="O70" s="8" t="str">
-        <f>CONCATENATE(N70, D70, " ", I70, IF(NOT(ISBLANK(J70)), " (", " "), J70, IF(NOT(ISBLANK(J70)), ") ", " "), IF(NOT(ISBLANK(H70)), CONCATENATE(" DEFAULT ", H70), " "), " " )</f>
-        <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
       </c>
       <c r="Q70" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,56 +5064,56 @@
         <v>15</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J71" s="8">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="L71" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double remote_addr;</v>
+        <f t="shared" si="56"/>
+        <v>private double auto_login;</v>
       </c>
       <c r="N71" s="8" t="str">
-        <f>IF(ISBLANK(B71), ",", CONCATENATE("CREATE TABLE ", B71, " ( "))</f>
+        <f t="shared" si="46"/>
         <v>,</v>
       </c>
       <c r="O71" s="8" t="str">
-        <f>CONCATENATE(N71, D71, " ", I71, IF(NOT(ISBLANK(J71)), " (", " "), J71, IF(NOT(ISBLANK(J71)), ") ", " "), IF(NOT(ISBLANK(H71)), CONCATENATE(" DEFAULT ", H71), " "), " " )</f>
-        <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,AUTO_LOGIN INT    </v>
       </c>
       <c r="Q71" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,AUTO_LOGIN INT    </v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>241</v>
+        <v>211</v>
+      </c>
+      <c r="J72" s="8">
+        <v>100</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="L72" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="56"/>
+        <v>private double passwd;</v>
       </c>
       <c r="N72" s="8" t="str">
         <f>IF(ISBLANK(B72), ",", CONCATENATE("CREATE TABLE ", B72, " ( "))</f>
@@ -5109,86 +5121,68 @@
       </c>
       <c r="O72" s="8" t="str">
         <f>CONCATENATE(N72, D72, " ", I72, IF(NOT(ISBLANK(J72)), " (", " "), J72, IF(NOT(ISBLANK(J72)), ") ", " "), IF(NOT(ISBLANK(H72)), CONCATENATE(" DEFAULT ", H72), " "), " " )</f>
-        <v xml:space="preserve">,REG_DT DATETIME    </v>
-      </c>
-      <c r="P72" s="8" t="s">
-        <v>243</v>
+        <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
       </c>
       <c r="Q72" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID, AUTO_LOGIN_KEY)); </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
-        <v>14</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>248</v>
+        <v>217</v>
+      </c>
+      <c r="J73" s="8">
+        <v>50</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="L73" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double user_id;</v>
+        <f t="shared" si="56"/>
+        <v>private double auth_level;</v>
       </c>
       <c r="N73" s="8" t="str">
-        <f t="shared" ref="N73:N86" si="46">IF(ISBLANK(B73), ",", CONCATENATE("CREATE TABLE ", B73, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE USER_MST ( </v>
+        <f>IF(ISBLANK(B73), ",", CONCATENATE("CREATE TABLE ", B73, " ( "))</f>
+        <v>,</v>
       </c>
       <c r="O73" s="8" t="str">
-        <f t="shared" ref="O73:O86" si="47">CONCATENATE(N73, D73, " ", I73, IF(NOT(ISBLANK(J73)), " (", " "), J73, IF(NOT(ISBLANK(J73)), ") ", " "), IF(NOT(ISBLANK(H73)), CONCATENATE(" DEFAULT ", H73), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE USER_MST ( USER_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f>CONCATENATE(N73, D73, " ", I73, IF(NOT(ISBLANK(J73)), " (", " "), J73, IF(NOT(ISBLANK(J73)), ") ", " "), IF(NOT(ISBLANK(H73)), CONCATENATE(" DEFAULT ", H73), " "), " " )</f>
+        <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
       </c>
       <c r="Q73" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">CREATE TABLE USER_MST ( USER_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
-        <v>15</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>210</v>
+        <v>30</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="J74" s="8">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="L74" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double admin_id;</v>
+        <f t="shared" si="56"/>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N74" s="8" t="str">
         <f t="shared" si="46"/>
@@ -5196,410 +5190,451 @@
       </c>
       <c r="O74" s="8" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">,ADMIN_ID VARCHAR (50)   </v>
+        <v xml:space="preserve">,REG_DT DATETIME    </v>
+      </c>
+      <c r="P74" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="Q74" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,ADMIN_ID VARCHAR (50)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
-        <v>15</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>250</v>
+        <v>14</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="J75" s="8">
         <v>50</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L75" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double user_nic;</v>
+        <f t="shared" si="56"/>
+        <v>private double admin_id;</v>
       </c>
       <c r="N75" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>,</v>
+        <f>IF(ISBLANK(B75), ",", CONCATENATE("CREATE TABLE ", B75, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( </v>
       </c>
       <c r="O75" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,USER_NIC VARCHAR (50)   </v>
+        <f>CONCATENATE(N75, D75, " ", I75, IF(NOT(ISBLANK(J75)), " (", " "), J75, IF(NOT(ISBLANK(J75)), ") ", " "), IF(NOT(ISBLANK(H75)), CONCATENATE(" DEFAULT ", H75), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
       </c>
       <c r="Q75" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,USER_NIC VARCHAR (50)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>252</v>
+        <v>236</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J76" s="8">
         <v>50</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L76" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double user_nm;</v>
+        <f t="shared" si="56"/>
+        <v>private double auto_login_key;</v>
       </c>
       <c r="N76" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f>IF(ISBLANK(B76), ",", CONCATENATE("CREATE TABLE ", B76, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O76" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,USER_NM VARCHAR (50)   </v>
+        <f>CONCATENATE(N76, D76, " ", I76, IF(NOT(ISBLANK(J76)), " (", " "), J76, IF(NOT(ISBLANK(J76)), ") ", " "), IF(NOT(ISBLANK(H76)), CONCATENATE(" DEFAULT ", H76), " "), " " )</f>
+        <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
       </c>
       <c r="Q76" s="10" t="str">
-        <f>CONCATENATE(O76, P76)</f>
-        <v xml:space="preserve">,USER_NM VARCHAR (50)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I77" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J77" s="8">
+        <v>50</v>
+      </c>
+      <c r="K77" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="J77" s="8">
-        <v>10</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="L77" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double user_grade;</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>255</v>
+        <f t="shared" si="56"/>
+        <v>private double remote_addr;</v>
       </c>
       <c r="N77" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f>IF(ISBLANK(B77), ",", CONCATENATE("CREATE TABLE ", B77, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O77" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,USER_GRADE VARCHAR (10)   </v>
+        <f>CONCATENATE(N77, D77, " ", I77, IF(NOT(ISBLANK(J77)), " (", " "), J77, IF(NOT(ISBLANK(J77)), ") ", " "), IF(NOT(ISBLANK(H77)), CONCATENATE(" DEFAULT ", H77), " "), " " )</f>
+        <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
       </c>
       <c r="Q77" s="10" t="str">
-        <f>CONCATENATE(O77, P77)</f>
-        <v xml:space="preserve">,USER_GRADE VARCHAR (10)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="H78" s="8">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="L78" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double user_lvl;</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>258</v>
+        <f t="shared" si="56"/>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N78" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f>IF(ISBLANK(B78), ",", CONCATENATE("CREATE TABLE ", B78, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O78" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,USER_LVL INT   DEFAULT 1 </v>
+        <f>CONCATENATE(N78, D78, " ", I78, IF(NOT(ISBLANK(J78)), " (", " "), J78, IF(NOT(ISBLANK(J78)), ") ", " "), IF(NOT(ISBLANK(H78)), CONCATENATE(" DEFAULT ", H78), " "), " " )</f>
+        <v xml:space="preserve">,REG_DT DATETIME    </v>
+      </c>
+      <c r="P78" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="Q78" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,USER_LVL INT   DEFAULT 1 </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID, AUTO_LOGIN_KEY)); </v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>9</v>
+        <v>246</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="J79" s="8">
         <v>50</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="L79" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double tel_no;</v>
+        <f t="shared" si="56"/>
+        <v>private double robo_id;</v>
       </c>
       <c r="N79" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>,</v>
+        <f t="shared" ref="N79:N86" si="57">IF(ISBLANK(B79), ",", CONCATENATE("CREATE TABLE ", B79, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE ROBO_MST ( </v>
       </c>
       <c r="O79" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
+        <f t="shared" ref="O79:O86" si="58">CONCATENATE(N79, D79, " ", I79, IF(NOT(ISBLANK(J79)), " (", " "), J79, IF(NOT(ISBLANK(J79)), ") ", " "), IF(NOT(ISBLANK(H79)), CONCATENATE(" DEFAULT ", H79), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
       </c>
       <c r="Q79" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="J80" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="L80" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double add_tel;</v>
+        <f t="shared" si="56"/>
+        <v>private double robo_nm;</v>
       </c>
       <c r="N80" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>,</v>
       </c>
       <c r="O80" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,ADD_TEL VARCHAR (50)   </v>
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
       </c>
       <c r="Q80" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,ADD_TEL VARCHAR (50)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="J81" s="8">
         <v>255</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="L81" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double email;</v>
+        <f t="shared" si="56"/>
+        <v>private double robo_desc;</v>
       </c>
       <c r="N81" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>,</v>
       </c>
       <c r="O81" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q81" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="J82" s="8">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="L82" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double image;</v>
+        <f t="shared" si="56"/>
+        <v>private double ip_addr;</v>
       </c>
       <c r="N82" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>,</v>
       </c>
       <c r="O82" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,IMAGE VARCHAR (255)   </v>
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">,IP_ADDR VARCHAR (20)   </v>
       </c>
       <c r="Q82" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,IMAGE VARCHAR (255)   </v>
+        <f>CONCATENATE(O82, P82)</f>
+        <v xml:space="preserve">,IP_ADDR VARCHAR (20)   </v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
+      </c>
+      <c r="H83" s="8">
+        <v>1</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>241</v>
+        <v>45</v>
+      </c>
+      <c r="J83" s="8">
+        <v>10</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="L83" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private Date join_dt;</v>
+        <f t="shared" si="56"/>
+        <v>private double robo_tp;</v>
       </c>
       <c r="N83" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>,</v>
       </c>
       <c r="O83" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,JOIN_DT DATETIME    </v>
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">,ROBO_TP VARCHAR (10)  DEFAULT 1 </v>
       </c>
       <c r="Q83" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,JOIN_DT DATETIME    </v>
+        <f>CONCATENATE(O83, P83)</f>
+        <v xml:space="preserve">,ROBO_TP VARCHAR (10)  DEFAULT 1 </v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>267</v>
+        <v>255</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>256</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>231</v>
+        <v>45</v>
+      </c>
+      <c r="J84" s="8">
+        <v>10</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="L84" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private Date leave_dt;</v>
+        <f t="shared" si="56"/>
+        <v>private double state;</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="N84" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>,</v>
       </c>
       <c r="O84" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,LEAVE_DT DATETIME    </v>
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">,STATE VARCHAR (10)   </v>
       </c>
       <c r="Q84" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,LEAVE_DT DATETIME    </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,STATE VARCHAR (10)   </v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>269</v>
+        <v>25</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="J85" s="8">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="L85" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private double state;</v>
+        <f t="shared" si="56"/>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="N85" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>,</v>
       </c>
       <c r="O85" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,STATE VARCHAR (10)   </v>
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q85" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,STATE VARCHAR (10)   </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,35 +5642,38 @@
         <v>30</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>230</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
       <c r="I86" s="8" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="L86" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="56"/>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N86" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>,</v>
       </c>
       <c r="O86" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,REG_DT DATETIME    </v>
-      </c>
-      <c r="P86" s="8" t="s">
-        <v>271</v>
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P86" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="Q86" s="10" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(USER_ID)); </v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(ROBO_ID)); </v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
@@ -5643,16 +5681,16 @@
         <v>14</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>7</v>
@@ -5661,28 +5699,28 @@
         <v>8</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L87" s="8" t="str">
         <f t="shared" si="3"/>
         <v>private long msn_id;</v>
       </c>
       <c r="N87" s="8" t="str">
-        <f t="shared" ref="N87:N99" si="48">IF(ISBLANK(B87), ",", CONCATENATE("CREATE TABLE ", B87, " ( "))</f>
+        <f t="shared" ref="N87:N99" si="59">IF(ISBLANK(B87), ",", CONCATENATE("CREATE TABLE ", B87, " ( "))</f>
         <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( </v>
       </c>
       <c r="O87" s="8" t="str">
-        <f t="shared" ref="O87:O99" si="49">CONCATENATE(N87, D87, " ", I87, IF(NOT(ISBLANK(J87)), " (", " "), J87, IF(NOT(ISBLANK(J87)), ") ", " "), IF(NOT(ISBLANK(H87)), CONCATENATE(" DEFAULT ", H87), " "), " " )</f>
+        <f t="shared" ref="O87:O99" si="60">CONCATENATE(N87, D87, " ", I87, IF(NOT(ISBLANK(J87)), " (", " "), J87, IF(NOT(ISBLANK(J87)), ") ", " "), IF(NOT(ISBLANK(H87)), CONCATENATE(" DEFAULT ", H87), " "), " " )</f>
         <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q87" s="10" t="str">
-        <f t="shared" ref="Q87:Q99" si="50">CONCATENATE(O87, P87)</f>
+        <f t="shared" ref="Q87:Q99" si="61">CONCATENATE(O87, P87)</f>
         <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
@@ -5693,10 +5731,10 @@
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>7</v>
@@ -5706,10 +5744,10 @@
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L88" s="8" t="str">
         <f t="shared" si="3"/>
@@ -5720,7 +5758,7 @@
         <v>,</v>
       </c>
       <c r="O88" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
       <c r="Q88" s="10" t="str">
@@ -5735,10 +5773,10 @@
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>7</v>
@@ -5748,25 +5786,25 @@
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L89" s="8" t="str">
         <f t="shared" si="3"/>
         <v>private int exe_seq;</v>
       </c>
       <c r="N89" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>,</v>
       </c>
       <c r="O89" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">,EXE_SEQ INT    </v>
       </c>
       <c r="Q89" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">,EXE_SEQ INT    </v>
       </c>
     </row>
@@ -5777,19 +5815,19 @@
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L90" s="8" t="str">
         <f t="shared" si="3"/>
@@ -5800,7 +5838,7 @@
         <v>,</v>
       </c>
       <c r="O90" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">,EXE_DT DATETIME    </v>
       </c>
       <c r="Q90" s="10" t="str">
@@ -5815,34 +5853,34 @@
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
       <c r="I91" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L91" s="8" t="str">
         <f t="shared" si="3"/>
         <v>private Date end_dt;</v>
       </c>
       <c r="N91" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>,</v>
       </c>
       <c r="O91" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">,END_DT DATETIME    </v>
       </c>
       <c r="Q91" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">,END_DT DATETIME    </v>
       </c>
     </row>
@@ -5853,34 +5891,34 @@
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
       <c r="I92" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L92" s="8" t="str">
         <f t="shared" si="3"/>
         <v>private int exe_dur;</v>
       </c>
       <c r="N92" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>,</v>
       </c>
       <c r="O92" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">,EXE_DUR INT    </v>
       </c>
       <c r="Q92" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">,EXE_DUR INT    </v>
       </c>
     </row>
@@ -5891,10 +5929,10 @@
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
@@ -5902,25 +5940,25 @@
         <v>0</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L93" s="8" t="str">
-        <f t="shared" ref="L93:L105" si="51">CONCATENATE("private ",IF(K93="DT","Date",IF(I93="INT","int",IF(I93="TEXT","String",IF(I93="BIGINT", "long", "double")))), " ", LOWER(D93), ";")</f>
+        <f t="shared" ref="L93:L105" si="62">CONCATENATE("private ",IF(K93="DT","Date",IF(I93="INT","int",IF(I93="TEXT","String",IF(I93="BIGINT", "long", "double")))), " ", LOWER(D93), ";")</f>
         <v>private int exe_res;</v>
       </c>
       <c r="N93" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>,</v>
       </c>
       <c r="O93" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
       </c>
       <c r="Q93" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
       </c>
     </row>
@@ -5931,37 +5969,37 @@
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J94" s="8">
         <v>10000</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L94" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private double res_msg;</v>
       </c>
       <c r="N94" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>,</v>
       </c>
       <c r="O94" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
       </c>
       <c r="Q94" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
       </c>
     </row>
@@ -5972,39 +6010,39 @@
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L95" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private Date reg_dt;</v>
       </c>
       <c r="N95" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>,</v>
       </c>
       <c r="O95" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q95" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() , PRIMARY KEY(CLASS_DT, CLASS_ID, USER_ID)); </v>
       </c>
     </row>
@@ -6013,10 +6051,10 @@
         <v>14</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -6028,28 +6066,28 @@
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J96" s="8">
         <v>50</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L96" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private long ;</v>
       </c>
       <c r="N96" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG ( </v>
       </c>
       <c r="O96" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
       </c>
       <c r="Q96" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
       </c>
     </row>
@@ -6065,28 +6103,28 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J97" s="8">
         <v>50</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L97" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private double ;</v>
       </c>
       <c r="N97" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>,</v>
       </c>
       <c r="O97" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
       <c r="Q97" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
     </row>
@@ -6102,28 +6140,28 @@
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J98" s="8">
         <v>1000</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L98" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private double ;</v>
       </c>
       <c r="N98" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>,</v>
       </c>
       <c r="O98" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q98" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -6139,28 +6177,28 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J99" s="8">
         <v>1000</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L99" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private double ;</v>
       </c>
       <c r="N99" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>,</v>
       </c>
       <c r="O99" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q99" s="10" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -6176,13 +6214,13 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L100" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private Date ;</v>
       </c>
       <c r="N100" s="8" t="str">
@@ -6194,7 +6232,7 @@
         <v xml:space="preserve">, DATETIME    </v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q100" s="10" t="str">
         <f>CONCATENATE(O100, P100)</f>
@@ -6206,10 +6244,10 @@
         <v>14</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
@@ -6221,28 +6259,28 @@
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J101" s="8">
         <v>50</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L101" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private long ;</v>
       </c>
       <c r="N101" s="8" t="str">
-        <f t="shared" ref="N101:N105" si="52">IF(ISBLANK(B101), ",", CONCATENATE("CREATE TABLE ", B101, " ( "))</f>
+        <f t="shared" ref="N101:N104" si="63">IF(ISBLANK(B101), ",", CONCATENATE("CREATE TABLE ", B101, " ( "))</f>
         <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG ( </v>
       </c>
       <c r="O101" s="8" t="str">
-        <f t="shared" ref="O101:O105" si="53">CONCATENATE(N101, D101, " ", I101, IF(NOT(ISBLANK(J101)), " (", " "), J101, IF(NOT(ISBLANK(J101)), ") ", " "), IF(NOT(ISBLANK(H101)), CONCATENATE(" DEFAULT ", H101), " "), " " )</f>
+        <f t="shared" ref="O101:O104" si="64">CONCATENATE(N101, D101, " ", I101, IF(NOT(ISBLANK(J101)), " (", " "), J101, IF(NOT(ISBLANK(J101)), ") ", " "), IF(NOT(ISBLANK(H101)), CONCATENATE(" DEFAULT ", H101), " "), " " )</f>
         <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
       </c>
       <c r="Q101" s="10" t="str">
-        <f t="shared" ref="Q101:Q105" si="54">CONCATENATE(O101, P101)</f>
+        <f t="shared" ref="Q101:Q104" si="65">CONCATENATE(O101, P101)</f>
         <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
       </c>
     </row>
@@ -6258,28 +6296,28 @@
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J102" s="8">
         <v>50</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L102" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private double ;</v>
       </c>
       <c r="N102" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>,</v>
       </c>
       <c r="O102" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
       <c r="Q102" s="10" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
     </row>
@@ -6295,28 +6333,28 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J103" s="8">
         <v>1000</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L103" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private double ;</v>
       </c>
       <c r="N103" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>,</v>
       </c>
       <c r="O103" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q103" s="10" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -6332,28 +6370,28 @@
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J104" s="8">
         <v>1000</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L104" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private double ;</v>
       </c>
       <c r="N104" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>,</v>
       </c>
       <c r="O104" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q104" s="10" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -6369,13 +6407,13 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L105" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>private Date ;</v>
       </c>
       <c r="N105" s="8" t="str">
@@ -6387,7 +6425,7 @@
         <v xml:space="preserve">, DATETIME    </v>
       </c>
       <c r="P105" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q105" s="10" t="str">
         <f>CONCATENATE(O105, P105)</f>
@@ -6396,13 +6434,13 @@
     </row>
     <row r="106" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B106" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="D106" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
@@ -6412,120 +6450,120 @@
       <c r="J106" s="23"/>
       <c r="K106" s="23"/>
       <c r="L106" s="24"/>
-      <c r="M106" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="27"/>
+      <c r="M106" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="32"/>
+      <c r="Q106" s="33"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D107" s="28"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="32"/>
-      <c r="O107" s="32"/>
-      <c r="P107" s="32"/>
-      <c r="Q107" s="33"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="34"/>
+      <c r="N107" s="35"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="35"/>
+      <c r="Q107" s="36"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D108" s="28"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="30"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="33"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="34"/>
+      <c r="N108" s="35"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
+      <c r="Q108" s="36"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D109" s="28"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="30"/>
-      <c r="M109" s="31"/>
-      <c r="N109" s="32"/>
-      <c r="O109" s="32"/>
-      <c r="P109" s="32"/>
-      <c r="Q109" s="33"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="34"/>
+      <c r="N109" s="35"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
+      <c r="Q109" s="36"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D110" s="28"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="30"/>
-      <c r="M110" s="31"/>
-      <c r="N110" s="32"/>
-      <c r="O110" s="32"/>
-      <c r="P110" s="32"/>
-      <c r="Q110" s="33"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="34"/>
+      <c r="N110" s="35"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35"/>
+      <c r="Q110" s="36"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D111" s="28"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="30"/>
-      <c r="M111" s="31"/>
-      <c r="N111" s="32"/>
-      <c r="O111" s="32"/>
-      <c r="P111" s="32"/>
-      <c r="Q111" s="33"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="27"/>
+      <c r="M111" s="34"/>
+      <c r="N111" s="35"/>
+      <c r="O111" s="35"/>
+      <c r="P111" s="35"/>
+      <c r="Q111" s="36"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D112" s="28"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="30"/>
-      <c r="M112" s="31"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="32"/>
-      <c r="P112" s="32"/>
-      <c r="Q112" s="33"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="34"/>
+      <c r="N112" s="35"/>
+      <c r="O112" s="35"/>
+      <c r="P112" s="35"/>
+      <c r="Q112" s="36"/>
     </row>
     <row r="113" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D113" s="34"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="35"/>
-      <c r="J113" s="35"/>
-      <c r="K113" s="35"/>
-      <c r="L113" s="36"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="30"/>
       <c r="M113" s="37"/>
       <c r="N113" s="38"/>
       <c r="O113" s="38"/>
@@ -6568,42 +6606,42 @@
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -6616,19 +6654,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -6640,19 +6678,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
@@ -6664,19 +6702,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -6688,19 +6726,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -6712,19 +6750,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -6736,19 +6774,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
@@ -6760,19 +6798,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
@@ -6784,19 +6822,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -6808,19 +6846,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -6832,19 +6870,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="4">
         <v>3</v>
@@ -6856,19 +6894,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -6880,19 +6918,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
@@ -6904,19 +6942,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="4">
         <v>3</v>
@@ -6928,19 +6966,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" s="4">
         <v>4</v>
@@ -6952,19 +6990,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>

--- a/docs/02.개발/01.설계/01.DB설계/COROBO_테이블설계서.xlsx
+++ b/docs/02.개발/01.설계/01.DB설계/COROBO_테이블설계서.xlsx
@@ -9,16 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="3030" windowWidth="19095" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="7245" yWindow="3030" windowWidth="19095" windowHeight="9255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="9" r:id="rId1"/>
-    <sheet name="설계서" sheetId="10" r:id="rId2"/>
-    <sheet name="공통코드" sheetId="11" r:id="rId3"/>
+    <sheet name="공통코드" sheetId="11" r:id="rId2"/>
+    <sheet name="SRV_INFO" sheetId="15" r:id="rId3"/>
+    <sheet name="MSN_SRV" sheetId="16" r:id="rId4"/>
+    <sheet name="PARM" sheetId="14" r:id="rId5"/>
+    <sheet name="설계서_V2" sheetId="10" r:id="rId6"/>
+    <sheet name="설계서_V1" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">공통코드!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">설계서!$A$1:$K$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MSN_SRV!$B$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PARM!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SRV_INFO!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">공통코드!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">설계서_V1!$A$1:$K$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">설계서_V2!$A$1:$K$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">테이블!$B$1:$C$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="344">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1104,6 +1112,269 @@
   </si>
   <si>
     <t xml:space="preserve">, PRIMARY KEY(ROBO_ID)); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 서비스 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">, PRIMARY KEY(SRV_SEQ)); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스실행타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execute Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARM_VAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARM_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint2</t>
+  </si>
+  <si>
+    <t>joint3</t>
+  </si>
+  <si>
+    <t>joint4</t>
+  </si>
+  <si>
+    <t>joint1 rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint2 rest</t>
+  </si>
+  <si>
+    <t>joint3 rest</t>
+  </si>
+  <si>
+    <t>joint4 rest</t>
+  </si>
+  <si>
+    <t>joint1 start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint2 start</t>
+  </si>
+  <si>
+    <t>joint3 start</t>
+  </si>
+  <si>
+    <t>joint4 start</t>
+  </si>
+  <si>
+    <t>joint1 preset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint2 preset</t>
+  </si>
+  <si>
+    <t>joint3 preset</t>
+  </si>
+  <si>
+    <t>joint4 preset</t>
+  </si>
+  <si>
+    <t>joint1 set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint2 set</t>
+  </si>
+  <si>
+    <t>joint3 set</t>
+  </si>
+  <si>
+    <t>joint4 set</t>
+  </si>
+  <si>
+    <t>joint1 lift mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint2 lift mid</t>
+  </si>
+  <si>
+    <t>joint3 lift mid</t>
+  </si>
+  <si>
+    <t>joint4 lift mid</t>
+  </si>
+  <si>
+    <t>joint1 lift top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint2 lift top</t>
+  </si>
+  <si>
+    <t>joint3 lift top</t>
+  </si>
+  <si>
+    <t>joint4 lift top</t>
+  </si>
+  <si>
+    <t>MSN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRV_CALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRV_DUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_DUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFT_DUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gripper grip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm_gripper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm_joint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gripper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint preset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint lift mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint lift top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gripper release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gripper release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRV_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSN_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">, PRIMARY KEY(MSN_SEQ)); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1171,7 +1442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1223,6 +1494,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,6 +1733,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2136,11 +2419,1760 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q113"/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="4" t="str">
+        <f t="shared" ref="H2:H17" si="0">CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A2, "', '", B2, "', '", C2, "', '", D2, "', '", E2, "', ", F2, ", '", G2, "', NOW());")</f>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A', 'A01', 'COM', '미션구분', 'Mission Type', 1, '', NOW());</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A', 'A02', 'COM', '서비스구분', 'Service Type', 2, '', NOW());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A', 'A03', 'COM', '파라메터타입', 'Param Type', 3, '', NOW());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A01', 'M1', 'COM', '이동', 'Move', 1, '', NOW());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A01', 'M2', 'COM', '행동', 'Action', 2, '', NOW());</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A01', 'P1', 'COM', '경로탐색', 'Path', 3, '', NOW());</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A01', 'I1', 'COM', '이미지정보', 'Image Info', 4, '', NOW());</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A01', 'I2', 'COM', '이미지변조', 'Image Modu', 5, '', NOW());</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A02', 'M1', 'COM', '서보모터', 'Servo Motor', 1, '', NOW());</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A02', 'M2', 'COM', 'DC모터', 'DC Motor', 2, '', NOW());</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A02', 'G1', 'COM', 'GPIO', 'GPIO', 3, '', NOW());</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'I', 'COM', 'INT', 'INT', 1, '', NOW());</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'F', 'COM', 'FLOAT', 'FLOAT', 2, '', NOW());</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'S', 'COM', 'String', 'String', 3, '', NOW());</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" ref="H16" si="1">CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A16, "', '", B16, "', '", C16, "', '", D16, "', '", E16, "', ", F16, ", '", G16, "', NOW());")</f>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'L', 'COM', 'Bool', 'Bool', 4, '', NOW());</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'B', 'COM', 'Binary', 'Binary', 5, '', NOW());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" ref="H18:H22" si="2">CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A18, "', '", B18, "', '", C18, "', '", D18, "', '", E18, "', ", F18, ", '", G18, "', NOW());")</f>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A', 'A04', 'COM', '서비스실행타입', 'Execute Type', 4, '', NOW());</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A04', 'E', 'COM', '실행', 'Execute', 1, '', NOW());</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A04', 'S', 'COM', '대기', 'Sleep', 2, '', NOW());</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A04', 'D', 'COM', '더미', 'Dummy', 3, '', NOW());</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A04', 'X', 'COM', '중지', 'Stop', 4, '', NOW());</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>CONCATENATE("INSERT INTO SRV_INFO(SRV_SEQ, SRV_ID, SRV_DESC, SRV_CALL, SRV_DUR, PRE_DUR, AFT_DUR, SORTS, REG_DT) VALUES(", A2, ", ",B2, ", '", C2, "', '", D2, "', ", E2, ", ", F2, ", ", G2, ", ", H2, ", NOW());")</f>
+        <v>INSERT INTO SRV_INFO(SRV_SEQ, SRV_ID, SRV_DESC, SRV_CALL, SRV_DUR, PRE_DUR, AFT_DUR, SORTS, REG_DT) VALUES(1, 1, 'joint reset', 'arm_joint', 3000, 0, 0, 1, NOW());</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I9" si="0">CONCATENATE("INSERT INTO SRV_INFO(SRV_SEQ, SRV_ID, SRV_DESC, SRV_CALL, SRV_DUR, PRE_DUR, AFT_DUR, SORTS, REG_DT) VALUES(", A3, ", ",B3, ", '", C3, "', '", D3, "', ", E3, ", ", F3, ", ", G3, ", ", H3, ", NOW());")</f>
+        <v>INSERT INTO SRV_INFO(SRV_SEQ, SRV_ID, SRV_DESC, SRV_CALL, SRV_DUR, PRE_DUR, AFT_DUR, SORTS, REG_DT) VALUES(2, 1, 'joint start', 'arm_joint', 3000, 0, 0, 2, NOW());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SRV_INFO(SRV_SEQ, SRV_ID, SRV_DESC, SRV_CALL, SRV_DUR, PRE_DUR, AFT_DUR, SORTS, REG_DT) VALUES(3, 1, 'joint preset', 'arm_joint', 2000, 0, 0, 3, NOW());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SRV_INFO(SRV_SEQ, SRV_ID, SRV_DESC, SRV_CALL, SRV_DUR, PRE_DUR, AFT_DUR, SORTS, REG_DT) VALUES(4, 1, 'joint set', 'arm_joint', 1000, 0, 0, 4, NOW());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SRV_INFO(SRV_SEQ, SRV_ID, SRV_DESC, SRV_CALL, SRV_DUR, PRE_DUR, AFT_DUR, SORTS, REG_DT) VALUES(5, 2, 'gripper grip', 'arm_gripper', 2000, 0, 0, 5, NOW());</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SRV_INFO(SRV_SEQ, SRV_ID, SRV_DESC, SRV_CALL, SRV_DUR, PRE_DUR, AFT_DUR, SORTS, REG_DT) VALUES(6, 1, 'joint lift mid', 'arm_joint', 2000, 0, 0, 6, NOW());</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SRV_INFO(SRV_SEQ, SRV_ID, SRV_DESC, SRV_CALL, SRV_DUR, PRE_DUR, AFT_DUR, SORTS, REG_DT) VALUES(7, 1, 'joint lift top', 'arm_joint', 2000, 0, 0, 7, NOW());</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SRV_INFO(SRV_SEQ, SRV_ID, SRV_DESC, SRV_CALL, SRV_DUR, PRE_DUR, AFT_DUR, SORTS, REG_DT) VALUES(8, 2, 'gripper release', 'arm_gripper', 3000, 0, 0, 2, NOW());</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>CONCATENATE("INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(", A2, ", ", B2, ", ", C2, ", ", D2, ", ", E2, ", NOW());")</f>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(1, 1, 1, 1, 1, NOW());</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F13" si="0">CONCATENATE("INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(", A3, ", ", B3, ", ", C3, ", ", D3, ", ", E3, ", NOW());")</f>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(2, 2, 1, 1, 2, NOW());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(3, 3, 1, 1, 3, NOW());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(4, 4, 1, 1, 4, NOW());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(5, 5, 1, 2, 5, NOW());</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(6, 6, 1, 1, 6, NOW());</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(7, 7, 1, 1, 7, NOW());</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(8, 6, 2, 1, 1, NOW());</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(9, 8, 2, 2, 2, NOW());</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(10, 1, 2, 1, 3, NOW());</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(11, 1, 5, 1, 2, NOW());</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO MSN_SRV_INFO(MSN_SEQ, SRV_SEQ, MSN_ID, SRV_ID, SORTS, REG_DT) VALUES(12, 8, 5, 2, 1, NOW());</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:E1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="4" customWidth="1"/>
+    <col min="3" max="4" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="4" t="str">
+        <f>CONCATENATE("INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(", A2, ", '", B2, "', '", C2, "', '",D2, "', ", E2, ", NOW());")</f>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(1, 'joint1', 'joint1 rest', '0.0337', 1, NOW());</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-0.495</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G26" si="0">CONCATENATE("INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(", A3, ", '", B3, "', '", C3, "', '",D3, "', ", E3, ", NOW());")</f>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(1, 'joint2', 'joint2 rest', '-0.495', 2, NOW());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(1, 'joint3', 'joint3 rest', '0.652', 3, NOW());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(1, 'joint4', 'joint4 rest', '1.791', 4, NOW());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(2, 'joint1', 'joint1 start', '0.0337', 1, NOW());</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-0.61299999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(2, 'joint2', 'joint2 start', '-0.613', 2, NOW());</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.377</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(2, 'joint3', 'joint3 start', '0.377', 3, NOW());</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(2, 'joint4', 'joint4 start', '1.386', 4, NOW());</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(3, 'joint1', 'joint1 preset', '0.0337', 1, NOW());</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(3, 'joint2', 'joint2 preset', '0.918', 2, NOW());</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(3, 'joint3', 'joint3 preset', '0.816', 3, NOW());</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-1.5429999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(3, 'joint4', 'joint4 preset', '-1.543', 4, NOW());</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(4, 'joint1', 'joint1 set', '0.0337', 1, NOW());</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(4, 'joint2', 'joint2 set', '1.02', 2, NOW());</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(4, 'joint3', 'joint3 set', '0.15', 3, NOW());</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-1.32</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(4, 'joint4', 'joint4 set', '-1.32', 4, NOW());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" ref="G18" si="1">CONCATENATE("INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(", A18, ", '", B18, "', '", C18, "', '",D18, "', ", E18, ", NOW());")</f>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(5, 'gripper', 'gripper grip', '-0.009', 1, NOW());</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(6, 'joint1', 'joint1 lift mid', '0.0337', 1, NOW());</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(6, 'joint2', 'joint2 lift mid', '0.348', 2, NOW());</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(6, 'joint3', 'joint3 lift mid', '0.233', 3, NOW());</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-0.70399999999999996</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(6, 'joint4', 'joint4 lift mid', '-0.704', 4, NOW());</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(7, 'joint1', 'joint1 lift top', '0.0337', 1, NOW());</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.248</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(7, 'joint2', 'joint2 lift top', '0.248', 2, NOW());</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-0.79</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(7, 'joint3', 'joint3 lift top', '-0.79', 3, NOW());</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(7, 'joint4', 'joint4 lift top', '0.475', 4, NOW());</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D27" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" ref="G27" si="2">CONCATENATE("INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(", A27, ", '", B27, "', '", C27, "', '",D27, "', ", E27, ", NOW());")</f>
+        <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(8, 'gripper', 'gripper release', '0.009', 1, NOW());</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2280,7 +4312,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="8" t="str">
-        <f t="shared" ref="L3:L92" si="3">CONCATENATE("private ",IF(K3="DT","Date",IF(I3="INT","int",IF(I3="TEXT","String",IF(I3="BIGINT", "long", "double")))), " ", LOWER(D3), ";")</f>
+        <f t="shared" ref="L3:L81" si="3">CONCATENATE("private ",IF(K3="DT","Date",IF(I3="INT","int",IF(I3="TEXT","String",IF(I3="BIGINT", "long", "double")))), " ", LOWER(D3), ";")</f>
         <v>private double msn_nm;</v>
       </c>
       <c r="N3" s="8" t="str">
@@ -3072,7 +5104,7 @@
         <v>private long srv_id;</v>
       </c>
       <c r="N22" s="8" t="str">
-        <f t="shared" ref="N22:N45" si="18">IF(ISBLANK(B22), ",", CONCATENATE("CREATE TABLE ", B22, " ( "))</f>
+        <f t="shared" ref="N22:N40" si="18">IF(ISBLANK(B22), ",", CONCATENATE("CREATE TABLE ", B22, " ( "))</f>
         <v xml:space="preserve">CREATE TABLE PARM_MST ( </v>
       </c>
       <c r="O22" s="8" t="str">
@@ -3080,7 +5112,7 @@
         <v xml:space="preserve">CREATE TABLE PARM_MST ( SRV_ID BIGINT    </v>
       </c>
       <c r="Q22" s="10" t="str">
-        <f t="shared" ref="Q22:Q45" si="20">CONCATENATE(O22, P22)</f>
+        <f t="shared" ref="Q22:Q40" si="20">CONCATENATE(O22, P22)</f>
         <v xml:space="preserve">CREATE TABLE PARM_MST ( SRV_ID BIGINT    </v>
       </c>
     </row>
@@ -3382,6 +5414,4004 @@
         <v>14</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private long srv_seq;</v>
+      </c>
+      <c r="N30" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">CREATE TABLE SRV_INFO ( </v>
+      </c>
+      <c r="O30" s="8" t="str">
+        <f t="shared" ref="O30:O37" si="21">CONCATENATE(N30, D30, " ", I30, IF(NOT(ISBLANK(J30)), " (", " "), J30, IF(NOT(ISBLANK(J30)), ") ", " "), IF(NOT(ISBLANK(H30)), CONCATENATE(" DEFAULT ", H30), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE SRV_INFO ( SRV_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
+      </c>
+      <c r="Q30" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">CREATE TABLE SRV_INFO ( SRV_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>15</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private long srv_id;</v>
+      </c>
+      <c r="N31" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O31" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,SRV_ID BIGINT    </v>
+      </c>
+      <c r="Q31" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,SRV_ID BIGINT    </v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>18</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="8">
+        <v>255</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double srv_desc;</v>
+      </c>
+      <c r="N32" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O32" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+      </c>
+      <c r="Q32" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>15</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="8">
+        <v>100</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double srv_call;</v>
+      </c>
+      <c r="N33" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O33" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,SRV_CALL VARCHAR (100)   </v>
+      </c>
+      <c r="Q33" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,SRV_CALL VARCHAR (100)   </v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>15</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int srv_dur;</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O34" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,SRV_DUR INT    </v>
+      </c>
+      <c r="Q34" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,SRV_DUR INT    </v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>15</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int pre_dur;</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N35" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O35" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,PRE_DUR INT    </v>
+      </c>
+      <c r="Q35" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,PRE_DUR INT    </v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>15</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int aft_dur;</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="N36" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O36" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,AFT_DUR INT    </v>
+      </c>
+      <c r="Q36" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,AFT_DUR INT    </v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>16</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="8">
+        <v>10</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double map_tp;</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="N37" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O37" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
+      </c>
+      <c r="Q37" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>28</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int sorts;</v>
+      </c>
+      <c r="N38" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O38" s="8" t="str">
+        <f>CONCATENATE(N38, D38, " ", I38, IF(NOT(ISBLANK(J38)), " (", " "), J38, IF(NOT(ISBLANK(J38)), ") ", " "), IF(NOT(ISBLANK(H38)), CONCATENATE(" DEFAULT ", H38), " "), " " )</f>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+      <c r="Q38" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>28</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="N39" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O39" s="8" t="str">
+        <f t="shared" ref="O39:O40" si="22">CONCATENATE(N39, D39, " ", I39, IF(NOT(ISBLANK(J39)), " (", " "), J39, IF(NOT(ISBLANK(J39)), ") ", " "), IF(NOT(ISBLANK(H39)), CONCATENATE(" DEFAULT ", H39), " "), " " )</f>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+      <c r="Q39" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>30</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date mod_dt;</v>
+      </c>
+      <c r="N40" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="O40" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q40" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ)); </v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>14</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="8" t="str">
+        <f t="shared" ref="L41:L47" si="23">CONCATENATE("private ",IF(K41="DT","Date",IF(I41="INT","int",IF(I41="TEXT","String",IF(I41="BIGINT", "long", "double")))), " ", LOWER(D41), ";")</f>
+        <v>private long msn_seq;</v>
+      </c>
+      <c r="N41" s="8" t="str">
+        <f t="shared" ref="N41:N47" si="24">IF(ISBLANK(B41), ",", CONCATENATE("CREATE TABLE ", B41, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( </v>
+      </c>
+      <c r="O41" s="8" t="str">
+        <f t="shared" ref="O41:O47" si="25">CONCATENATE(N41, D41, " ", I41, IF(NOT(ISBLANK(J41)), " (", " "), J41, IF(NOT(ISBLANK(J41)), ") ", " "), IF(NOT(ISBLANK(H41)), CONCATENATE(" DEFAULT ", H41), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
+      </c>
+      <c r="Q41" s="10" t="str">
+        <f t="shared" ref="Q41:Q45" si="26">CONCATENATE(O41, P41)</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>15</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v>private long srv_seq;</v>
+      </c>
+      <c r="N42" s="8" t="str">
+        <f t="shared" si="24"/>
+        <v>,</v>
+      </c>
+      <c r="O42" s="8" t="str">
+        <f t="shared" ref="O42" si="27">CONCATENATE(N42, D42, " ", I42, IF(NOT(ISBLANK(J42)), " (", " "), J42, IF(NOT(ISBLANK(J42)), ") ", " "), IF(NOT(ISBLANK(H42)), CONCATENATE(" DEFAULT ", H42), " "), " " )</f>
+        <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
+      </c>
+      <c r="Q42" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>15</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v>private long msn_id;</v>
+      </c>
+      <c r="N43" s="8" t="str">
+        <f t="shared" si="24"/>
+        <v>,</v>
+      </c>
+      <c r="O43" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,MSN_ID BIGINT    </v>
+      </c>
+      <c r="Q43" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">,MSN_ID BIGINT    </v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>18</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v>private long srv_id;</v>
+      </c>
+      <c r="N44" s="8" t="str">
+        <f t="shared" si="24"/>
+        <v>,</v>
+      </c>
+      <c r="O44" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,SRV_ID BIGINT    </v>
+      </c>
+      <c r="Q44" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">,SRV_ID BIGINT    </v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>28</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v>private int sorts;</v>
+      </c>
+      <c r="N45" s="8" t="str">
+        <f t="shared" si="24"/>
+        <v>,</v>
+      </c>
+      <c r="O45" s="8" t="str">
+        <f>CONCATENATE(N45, D45, " ", I45, IF(NOT(ISBLANK(J45)), " (", " "), J45, IF(NOT(ISBLANK(J45)), ") ", " "), IF(NOT(ISBLANK(H45)), CONCATENATE(" DEFAULT ", H45), " "), " " )</f>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+      <c r="Q45" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>28</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="N46" s="8" t="str">
+        <f t="shared" si="24"/>
+        <v>,</v>
+      </c>
+      <c r="O46" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+      <c r="Q46" s="10" t="str">
+        <f t="shared" ref="Q46:Q47" si="28">CONCATENATE(O46, P46)</f>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>30</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v>private Date mod_dt;</v>
+      </c>
+      <c r="N47" s="8" t="str">
+        <f t="shared" si="24"/>
+        <v>,</v>
+      </c>
+      <c r="O47" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q47" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_SEQ)); </v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>14</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private long srv_seq;</v>
+      </c>
+      <c r="N48" s="8" t="str">
+        <f t="shared" ref="N48:N63" si="29">IF(ISBLANK(B48), ",", CONCATENATE("CREATE TABLE ", B48, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE PARM_INFO ( </v>
+      </c>
+      <c r="O48" s="8" t="str">
+        <f t="shared" ref="O48:O63" si="30">CONCATENATE(N48, D48, " ", I48, IF(NOT(ISBLANK(J48)), " (", " "), J48, IF(NOT(ISBLANK(J48)), ") ", " "), IF(NOT(ISBLANK(H48)), CONCATENATE(" DEFAULT ", H48), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
+      </c>
+      <c r="Q48" s="10" t="str">
+        <f t="shared" ref="Q48:Q75" si="31">CONCATENATE(O48, P48)</f>
+        <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>15</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="8">
+        <v>50</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="8" t="str">
+        <f t="shared" ref="L49:L50" si="32">CONCATENATE("private ",IF(K49="DT","Date",IF(I49="INT","int",IF(I49="TEXT","String",IF(I49="BIGINT", "long", "double")))), " ", LOWER(D49), ";")</f>
+        <v>private double parm_id;</v>
+      </c>
+      <c r="N49" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v>,</v>
+      </c>
+      <c r="O49" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
+      </c>
+      <c r="Q49" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>16</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="8">
+        <v>255</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="8" t="str">
+        <f t="shared" si="32"/>
+        <v>private double parm_desc;</v>
+      </c>
+      <c r="N50" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v>,</v>
+      </c>
+      <c r="O50" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
+      </c>
+      <c r="Q50" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>18</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="8">
+        <v>50</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double def_val;</v>
+      </c>
+      <c r="N51" s="8" t="str">
+        <f t="shared" ref="N51" si="33">IF(ISBLANK(B51), ",", CONCATENATE("CREATE TABLE ", B51, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O51" s="8" t="str">
+        <f t="shared" ref="O51" si="34">CONCATENATE(N51, D51, " ", I51, IF(NOT(ISBLANK(J51)), " (", " "), J51, IF(NOT(ISBLANK(J51)), ") ", " "), IF(NOT(ISBLANK(H51)), CONCATENATE(" DEFAULT ", H51), " "), " " )</f>
+        <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
+      </c>
+      <c r="Q51" s="10" t="str">
+        <f t="shared" ref="Q51" si="35">CONCATENATE(O51, P51)</f>
+        <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>18</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="8">
+        <v>50</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double parm_val;</v>
+      </c>
+      <c r="N52" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v>,</v>
+      </c>
+      <c r="O52" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
+      </c>
+      <c r="Q52" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>18</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int sorts;</v>
+      </c>
+      <c r="N53" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v>,</v>
+      </c>
+      <c r="O53" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+      <c r="Q53" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>18</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="N54" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v>,</v>
+      </c>
+      <c r="O54" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+      <c r="Q54" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>30</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date mod_dt;</v>
+      </c>
+      <c r="N55" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v>,</v>
+      </c>
+      <c r="O55" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P55" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q55" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ, PARM_ID)); </v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>14</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J56" s="8">
+        <v>50</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L56" s="8" t="str">
+        <f t="shared" ref="L56:L75" si="36">CONCATENATE("private ",IF(K56="DT","Date",IF(I56="INTEGER","int",IF(I56="TEXT","String","double"))), " ", LOWER(D56), ";")</f>
+        <v>private double admin_id;</v>
+      </c>
+      <c r="N56" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( </v>
+      </c>
+      <c r="O56" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
+      </c>
+      <c r="Q56" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>15</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J57" s="8">
+        <v>50</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L57" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double admin_nm;</v>
+      </c>
+      <c r="N57" s="8" t="str">
+        <f>IF(ISBLANK(B57), ",", CONCATENATE("CREATE TABLE ", B57, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O57" s="8" t="str">
+        <f>CONCATENATE(N57, D57, " ", I57, IF(NOT(ISBLANK(J57)), " (", " "), J57, IF(NOT(ISBLANK(J57)), ") ", " "), IF(NOT(ISBLANK(H57)), CONCATENATE(" DEFAULT ", H57), " "), " " )</f>
+        <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
+      </c>
+      <c r="Q57" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>15</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J58" s="8">
+        <v>50</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L58" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double tel_no;</v>
+      </c>
+      <c r="N58" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v>,</v>
+      </c>
+      <c r="O58" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
+      </c>
+      <c r="Q58" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>24</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J59" s="8">
+        <v>255</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L59" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double email;</v>
+      </c>
+      <c r="N59" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v>,</v>
+      </c>
+      <c r="O59" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
+      </c>
+      <c r="Q59" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>15</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L60" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double auto_login;</v>
+      </c>
+      <c r="N60" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v>,</v>
+      </c>
+      <c r="O60" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,AUTO_LOGIN INT    </v>
+      </c>
+      <c r="Q60" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,AUTO_LOGIN INT    </v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>23</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J61" s="8">
+        <v>100</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L61" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double passwd;</v>
+      </c>
+      <c r="N61" s="8" t="str">
+        <f>IF(ISBLANK(B61), ",", CONCATENATE("CREATE TABLE ", B61, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O61" s="8" t="str">
+        <f>CONCATENATE(N61, D61, " ", I61, IF(NOT(ISBLANK(J61)), " (", " "), J61, IF(NOT(ISBLANK(J61)), ") ", " "), IF(NOT(ISBLANK(H61)), CONCATENATE(" DEFAULT ", H61), " "), " " )</f>
+        <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
+      </c>
+      <c r="Q61" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>15</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J62" s="8">
+        <v>50</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L62" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double auth_level;</v>
+      </c>
+      <c r="N62" s="8" t="str">
+        <f>IF(ISBLANK(B62), ",", CONCATENATE("CREATE TABLE ", B62, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O62" s="8" t="str">
+        <f>CONCATENATE(N62, D62, " ", I62, IF(NOT(ISBLANK(J62)), " (", " "), J62, IF(NOT(ISBLANK(J62)), ") ", " "), IF(NOT(ISBLANK(H62)), CONCATENATE(" DEFAULT ", H62), " "), " " )</f>
+        <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
+      </c>
+      <c r="Q62" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>30</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="L63" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="N63" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v>,</v>
+      </c>
+      <c r="O63" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,REG_DT DATETIME    </v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q63" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>14</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J64" s="8">
+        <v>50</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L64" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double admin_id;</v>
+      </c>
+      <c r="N64" s="8" t="str">
+        <f>IF(ISBLANK(B64), ",", CONCATENATE("CREATE TABLE ", B64, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( </v>
+      </c>
+      <c r="O64" s="8" t="str">
+        <f>CONCATENATE(N64, D64, " ", I64, IF(NOT(ISBLANK(J64)), " (", " "), J64, IF(NOT(ISBLANK(J64)), ") ", " "), IF(NOT(ISBLANK(H64)), CONCATENATE(" DEFAULT ", H64), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
+      </c>
+      <c r="Q64" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>15</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J65" s="8">
+        <v>50</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L65" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double auto_login_key;</v>
+      </c>
+      <c r="N65" s="8" t="str">
+        <f>IF(ISBLANK(B65), ",", CONCATENATE("CREATE TABLE ", B65, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O65" s="8" t="str">
+        <f>CONCATENATE(N65, D65, " ", I65, IF(NOT(ISBLANK(J65)), " (", " "), J65, IF(NOT(ISBLANK(J65)), ") ", " "), IF(NOT(ISBLANK(H65)), CONCATENATE(" DEFAULT ", H65), " "), " " )</f>
+        <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
+      </c>
+      <c r="Q65" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>15</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J66" s="8">
+        <v>50</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L66" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double remote_addr;</v>
+      </c>
+      <c r="N66" s="8" t="str">
+        <f>IF(ISBLANK(B66), ",", CONCATENATE("CREATE TABLE ", B66, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O66" s="8" t="str">
+        <f>CONCATENATE(N66, D66, " ", I66, IF(NOT(ISBLANK(J66)), " (", " "), J66, IF(NOT(ISBLANK(J66)), ") ", " "), IF(NOT(ISBLANK(H66)), CONCATENATE(" DEFAULT ", H66), " "), " " )</f>
+        <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
+      </c>
+      <c r="Q66" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>30</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L67" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="N67" s="8" t="str">
+        <f>IF(ISBLANK(B67), ",", CONCATENATE("CREATE TABLE ", B67, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O67" s="8" t="str">
+        <f>CONCATENATE(N67, D67, " ", I67, IF(NOT(ISBLANK(J67)), " (", " "), J67, IF(NOT(ISBLANK(J67)), ") ", " "), IF(NOT(ISBLANK(H67)), CONCATENATE(" DEFAULT ", H67), " "), " " )</f>
+        <v xml:space="preserve">,REG_DT DATETIME    </v>
+      </c>
+      <c r="P67" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q67" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID, AUTO_LOGIN_KEY)); </v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>14</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J68" s="8">
+        <v>50</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double robo_id;</v>
+      </c>
+      <c r="N68" s="8" t="str">
+        <f t="shared" ref="N68:N75" si="37">IF(ISBLANK(B68), ",", CONCATENATE("CREATE TABLE ", B68, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE ROBO_MST ( </v>
+      </c>
+      <c r="O68" s="8" t="str">
+        <f t="shared" ref="O68:O75" si="38">CONCATENATE(N68, D68, " ", I68, IF(NOT(ISBLANK(J68)), " (", " "), J68, IF(NOT(ISBLANK(J68)), ") ", " "), IF(NOT(ISBLANK(H68)), CONCATENATE(" DEFAULT ", H68), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
+      </c>
+      <c r="Q68" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>15</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J69" s="8">
+        <v>100</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double robo_nm;</v>
+      </c>
+      <c r="N69" s="8" t="str">
+        <f t="shared" si="37"/>
+        <v>,</v>
+      </c>
+      <c r="O69" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
+      </c>
+      <c r="Q69" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>15</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J70" s="8">
+        <v>255</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double robo_desc;</v>
+      </c>
+      <c r="N70" s="8" t="str">
+        <f t="shared" si="37"/>
+        <v>,</v>
+      </c>
+      <c r="O70" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
+      </c>
+      <c r="Q70" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>16</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J71" s="8">
+        <v>20</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double ip_addr;</v>
+      </c>
+      <c r="N71" s="8" t="str">
+        <f t="shared" si="37"/>
+        <v>,</v>
+      </c>
+      <c r="O71" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,IP_ADDR VARCHAR (20)   </v>
+      </c>
+      <c r="Q71" s="10" t="str">
+        <f>CONCATENATE(O71, P71)</f>
+        <v xml:space="preserve">,IP_ADDR VARCHAR (20)   </v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>18</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H72" s="8">
+        <v>1</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" s="8">
+        <v>10</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L72" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double robo_tp;</v>
+      </c>
+      <c r="N72" s="8" t="str">
+        <f t="shared" si="37"/>
+        <v>,</v>
+      </c>
+      <c r="O72" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,ROBO_TP VARCHAR (10)  DEFAULT 1 </v>
+      </c>
+      <c r="Q72" s="10" t="str">
+        <f>CONCATENATE(O72, P72)</f>
+        <v xml:space="preserve">,ROBO_TP VARCHAR (10)  DEFAULT 1 </v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>18</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J73" s="8">
+        <v>10</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L73" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private double state;</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N73" s="8" t="str">
+        <f t="shared" si="37"/>
+        <v>,</v>
+      </c>
+      <c r="O73" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,STATE VARCHAR (10)   </v>
+      </c>
+      <c r="Q73" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,STATE VARCHAR (10)   </v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>20</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N74" s="8" t="str">
+        <f t="shared" si="37"/>
+        <v>,</v>
+      </c>
+      <c r="O74" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+      <c r="Q74" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>30</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v>private Date mod_dt;</v>
+      </c>
+      <c r="N75" s="8" t="str">
+        <f t="shared" si="37"/>
+        <v>,</v>
+      </c>
+      <c r="O75" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P75" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q75" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(ROBO_ID)); </v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>14</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L76" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private long msn_id;</v>
+      </c>
+      <c r="N76" s="8" t="str">
+        <f t="shared" ref="N76:N88" si="39">IF(ISBLANK(B76), ",", CONCATENATE("CREATE TABLE ", B76, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( </v>
+      </c>
+      <c r="O76" s="8" t="str">
+        <f t="shared" ref="O76:O88" si="40">CONCATENATE(N76, D76, " ", I76, IF(NOT(ISBLANK(J76)), " (", " "), J76, IF(NOT(ISBLANK(J76)), ") ", " "), IF(NOT(ISBLANK(H76)), CONCATENATE(" DEFAULT ", H76), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+      </c>
+      <c r="Q76" s="10" t="str">
+        <f t="shared" ref="Q76:Q88" si="41">CONCATENATE(O76, P76)</f>
+        <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>23</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L77" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private long msn_seq;</v>
+      </c>
+      <c r="N77" s="8" t="str">
+        <f>IF(ISBLANK(B77), ",", CONCATENATE("CREATE TABLE ", B77, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O77" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
+      </c>
+      <c r="Q77" s="10" t="str">
+        <f>CONCATENATE(O77, P77)</f>
+        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>16</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L78" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int exe_seq;</v>
+      </c>
+      <c r="N78" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>,</v>
+      </c>
+      <c r="O78" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,EXE_SEQ INT    </v>
+      </c>
+      <c r="Q78" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,EXE_SEQ INT    </v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>15</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date exe_dt;</v>
+      </c>
+      <c r="N79" s="8" t="str">
+        <f>IF(ISBLANK(B79), ",", CONCATENATE("CREATE TABLE ", B79, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O79" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,EXE_DT DATETIME    </v>
+      </c>
+      <c r="Q79" s="10" t="str">
+        <f>CONCATENATE(O79, P79)</f>
+        <v xml:space="preserve">,EXE_DT DATETIME    </v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>20</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date end_dt;</v>
+      </c>
+      <c r="N80" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>,</v>
+      </c>
+      <c r="O80" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,END_DT DATETIME    </v>
+      </c>
+      <c r="Q80" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,END_DT DATETIME    </v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>22</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L81" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int exe_dur;</v>
+      </c>
+      <c r="N81" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>,</v>
+      </c>
+      <c r="O81" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,EXE_DUR INT    </v>
+      </c>
+      <c r="Q81" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,EXE_DUR INT    </v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>28</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L82" s="8" t="str">
+        <f t="shared" ref="L82:L94" si="42">CONCATENATE("private ",IF(K82="DT","Date",IF(I82="INT","int",IF(I82="TEXT","String",IF(I82="BIGINT", "long", "double")))), " ", LOWER(D82), ";")</f>
+        <v>private int exe_res;</v>
+      </c>
+      <c r="N82" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>,</v>
+      </c>
+      <c r="O82" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
+      </c>
+      <c r="Q82" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>18</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J83" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L83" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private double res_msg;</v>
+      </c>
+      <c r="N83" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>,</v>
+      </c>
+      <c r="O83" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
+      </c>
+      <c r="Q83" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>30</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="N84" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>,</v>
+      </c>
+      <c r="O84" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+      <c r="P84" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q84" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() , PRIMARY KEY(CLASS_DT, CLASS_ID, USER_ID)); </v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>14</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J85" s="8">
+        <v>50</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L85" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private long ;</v>
+      </c>
+      <c r="N85" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG ( </v>
+      </c>
+      <c r="O85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
+      </c>
+      <c r="Q85" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>15</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J86" s="8">
+        <v>50</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private double ;</v>
+      </c>
+      <c r="N86" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>,</v>
+      </c>
+      <c r="O86" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">, VARCHAR (50)   </v>
+      </c>
+      <c r="Q86" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">, VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>15</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J87" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private double ;</v>
+      </c>
+      <c r="N87" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>,</v>
+      </c>
+      <c r="O87" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+      <c r="Q87" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>24</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J88" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private double ;</v>
+      </c>
+      <c r="N88" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>,</v>
+      </c>
+      <c r="O88" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+      <c r="Q88" s="10" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <v>30</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private Date ;</v>
+      </c>
+      <c r="N89" s="8" t="str">
+        <f>IF(ISBLANK(B89), ",", CONCATENATE("CREATE TABLE ", B89, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O89" s="8" t="str">
+        <f>CONCATENATE(N89, D89, " ", I89, IF(NOT(ISBLANK(J89)), " (", " "), J89, IF(NOT(ISBLANK(J89)), ") ", " "), IF(NOT(ISBLANK(H89)), CONCATENATE(" DEFAULT ", H89), " "), " " )</f>
+        <v xml:space="preserve">, DATETIME    </v>
+      </c>
+      <c r="P89" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q89" s="10" t="str">
+        <f>CONCATENATE(O89, P89)</f>
+        <v xml:space="preserve">, DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>14</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J90" s="8">
+        <v>50</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L90" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private long ;</v>
+      </c>
+      <c r="N90" s="8" t="str">
+        <f t="shared" ref="N90:N93" si="43">IF(ISBLANK(B90), ",", CONCATENATE("CREATE TABLE ", B90, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG ( </v>
+      </c>
+      <c r="O90" s="8" t="str">
+        <f t="shared" ref="O90:O93" si="44">CONCATENATE(N90, D90, " ", I90, IF(NOT(ISBLANK(J90)), " (", " "), J90, IF(NOT(ISBLANK(J90)), ") ", " "), IF(NOT(ISBLANK(H90)), CONCATENATE(" DEFAULT ", H90), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
+      </c>
+      <c r="Q90" s="10" t="str">
+        <f t="shared" ref="Q90:Q93" si="45">CONCATENATE(O90, P90)</f>
+        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="8">
+        <v>15</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J91" s="8">
+        <v>50</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L91" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private double ;</v>
+      </c>
+      <c r="N91" s="8" t="str">
+        <f t="shared" si="43"/>
+        <v>,</v>
+      </c>
+      <c r="O91" s="8" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">, VARCHAR (50)   </v>
+      </c>
+      <c r="Q91" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">, VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>15</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J92" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private double ;</v>
+      </c>
+      <c r="N92" s="8" t="str">
+        <f t="shared" si="43"/>
+        <v>,</v>
+      </c>
+      <c r="O92" s="8" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+      <c r="Q92" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="8">
+        <v>24</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J93" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private double ;</v>
+      </c>
+      <c r="N93" s="8" t="str">
+        <f t="shared" si="43"/>
+        <v>,</v>
+      </c>
+      <c r="O93" s="8" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+      <c r="Q93" s="10" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="8">
+        <v>30</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>private Date ;</v>
+      </c>
+      <c r="N94" s="8" t="str">
+        <f>IF(ISBLANK(B94), ",", CONCATENATE("CREATE TABLE ", B94, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O94" s="8" t="str">
+        <f>CONCATENATE(N94, D94, " ", I94, IF(NOT(ISBLANK(J94)), " (", " "), J94, IF(NOT(ISBLANK(J94)), ") ", " "), IF(NOT(ISBLANK(H94)), CONCATENATE(" DEFAULT ", H94), " "), " " )</f>
+        <v xml:space="preserve">, DATETIME    </v>
+      </c>
+      <c r="P94" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q94" s="10" t="str">
+        <f>CONCATENATE(O94, P94)</f>
+        <v xml:space="preserve">, DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B95" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="33"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D96" s="25"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="34"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="36"/>
+    </row>
+    <row r="97" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D97" s="25"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="34"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="36"/>
+    </row>
+    <row r="98" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D98" s="25"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="36"/>
+    </row>
+    <row r="99" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D99" s="25"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="36"/>
+    </row>
+    <row r="100" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D100" s="25"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="36"/>
+    </row>
+    <row r="101" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D101" s="25"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="36"/>
+    </row>
+    <row r="102" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D102" s="28"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="38"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
+      <c r="Q102" s="39"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K102"/>
+  <mergeCells count="2">
+    <mergeCell ref="D95:L102"/>
+    <mergeCell ref="M95:Q102"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q113"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13" style="8" customWidth="1"/>
+    <col min="6" max="8" width="4.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="26.125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="9" style="8"/>
+    <col min="15" max="15" width="9" style="8" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="8" customWidth="1"/>
+    <col min="17" max="17" width="42.25" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="8" t="str">
+        <f>CONCATENATE("private ",IF(K2="DT","Date",IF(I2="INT","int",IF(I2="TEXT","String",IF(I2="BIGINT", "long", "double")))), " ", LOWER(D2), ";")</f>
+        <v>private long msn_id;</v>
+      </c>
+      <c r="N2" s="8" t="str">
+        <f t="shared" ref="N2:N65" si="0">IF(ISBLANK(B2), ",", CONCATENATE("CREATE TABLE ", B2, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE MSN_MST ( </v>
+      </c>
+      <c r="O2" s="8" t="str">
+        <f t="shared" ref="O2:O26" si="1">CONCATENATE(N2, D2, " ", I2, IF(NOT(ISBLANK(J2)), " (", " "), J2, IF(NOT(ISBLANK(J2)), ") ", " "), IF(NOT(ISBLANK(H2)), CONCATENATE(" DEFAULT ", H2), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE MSN_MST ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+      </c>
+      <c r="Q2" s="10" t="str">
+        <f t="shared" ref="Q2:Q51" si="2">CONCATENATE(O2, P2)</f>
+        <v xml:space="preserve">CREATE TABLE MSN_MST ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>15</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="8">
+        <v>100</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8" t="str">
+        <f t="shared" ref="L3:L92" si="3">CONCATENATE("private ",IF(K3="DT","Date",IF(I3="INT","int",IF(I3="TEXT","String",IF(I3="BIGINT", "long", "double")))), " ", LOWER(D3), ";")</f>
+        <v>private double msn_nm;</v>
+      </c>
+      <c r="N3" s="8" t="str">
+        <f>IF(ISBLANK(B3), ",", CONCATENATE("CREATE TABLE ", B3, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O3" s="8" t="str">
+        <f>CONCATENATE(N3, D3, " ", I3, IF(NOT(ISBLANK(J3)), " (", " "), J3, IF(NOT(ISBLANK(J3)), ") ", " "), IF(NOT(ISBLANK(H3)), CONCATENATE(" DEFAULT ", H3), " "), " " )</f>
+        <v xml:space="preserve">,MSN_NM VARCHAR (100)   </v>
+      </c>
+      <c r="Q3" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,MSN_NM VARCHAR (100)   </v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>15</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="8">
+        <v>255</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double msn_desc;</v>
+      </c>
+      <c r="N4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,MSN_DESC VARCHAR (255)   </v>
+      </c>
+      <c r="Q4" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,MSN_DESC VARCHAR (255)   </v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>24</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="8">
+        <v>10</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double msn_tp;</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,MSN_TP VARCHAR (10)   </v>
+      </c>
+      <c r="Q5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,MSN_TP VARCHAR (10)   </v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>15</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int robo_cnt;</v>
+      </c>
+      <c r="N6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,ROBO_CNT INT   DEFAULT 2 </v>
+      </c>
+      <c r="Q6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,ROBO_CNT INT   DEFAULT 2 </v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>24</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="8">
+        <v>50</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double robo_main;</v>
+      </c>
+      <c r="N7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,ROBO_MAIN VARCHAR (50)   </v>
+      </c>
+      <c r="Q7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,ROBO_MAIN VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>24</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="8">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double robo_sub1;</v>
+      </c>
+      <c r="N8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,ROBO_SUB1 VARCHAR (50)   </v>
+      </c>
+      <c r="Q8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,ROBO_SUB1 VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="8">
+        <v>50</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double robo_sub2;</v>
+      </c>
+      <c r="N9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,ROBO_SUB2 VARCHAR (50)   </v>
+      </c>
+      <c r="Q9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,ROBO_SUB2 VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>24</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="8">
+        <v>50</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double robo_sub3;</v>
+      </c>
+      <c r="N10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,ROBO_SUB3 VARCHAR (50)   </v>
+      </c>
+      <c r="Q10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,ROBO_SUB3 VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>24</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="8">
+        <v>50</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double robo_sub4;</v>
+      </c>
+      <c r="N11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,ROBO_SUB4 VARCHAR (50)   </v>
+      </c>
+      <c r="Q11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,ROBO_SUB4 VARCHAR (50)   </v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>15</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int sorts;</v>
+      </c>
+      <c r="N12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+      <c r="Q12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>15</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="N13" s="8" t="str">
+        <f>IF(ISBLANK(B13), ",", CONCATENATE("CREATE TABLE ", B13, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O13" s="8" t="str">
+        <f>CONCATENATE(N13, D13, " ", I13, IF(NOT(ISBLANK(J13)), " (", " "), J13, IF(NOT(ISBLANK(J13)), ") ", " "), IF(NOT(ISBLANK(H13)), CONCATENATE(" DEFAULT ", H13), " "), " " )</f>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+      <c r="Q13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>30</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date mod_dt;</v>
+      </c>
+      <c r="N14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_ID)); </v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private long srv_id;</v>
+      </c>
+      <c r="N15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CREATE TABLE SRV_MST ( </v>
+      </c>
+      <c r="O15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">CREATE TABLE SRV_MST ( SRV_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+      </c>
+      <c r="Q15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">CREATE TABLE SRV_MST ( SRV_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="8">
+        <v>100</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double srv_nm;</v>
+      </c>
+      <c r="N16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,SRV_NM VARCHAR (100)   </v>
+      </c>
+      <c r="Q16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,SRV_NM VARCHAR (100)   </v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="8">
+        <v>255</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double srv_desc;</v>
+      </c>
+      <c r="N17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+      </c>
+      <c r="Q17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="8">
+        <v>10</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double srv_tp;</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="N18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,SRV_TP VARCHAR (10)   </v>
+      </c>
+      <c r="Q18" s="10" t="str">
+        <f>CONCATENATE(O18, P18)</f>
+        <v xml:space="preserve">,SRV_TP VARCHAR (10)   </v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int sorts;</v>
+      </c>
+      <c r="N19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+      <c r="Q19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>28</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="N20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+      <c r="Q20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>30</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date mod_dt;</v>
+      </c>
+      <c r="N21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_ID)); </v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private long srv_id;</v>
+      </c>
+      <c r="N22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CREATE TABLE PARM_MST ( </v>
+      </c>
+      <c r="O22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">CREATE TABLE PARM_MST ( SRV_ID BIGINT    </v>
+      </c>
+      <c r="Q22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">CREATE TABLE PARM_MST ( SRV_ID BIGINT    </v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="8">
+        <v>100</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double parm_id;</v>
+      </c>
+      <c r="N23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,PARM_ID VARCHAR (100)   </v>
+      </c>
+      <c r="Q23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,PARM_ID VARCHAR (100)   </v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="8">
+        <v>255</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double parm_desc;</v>
+      </c>
+      <c r="N24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
+      </c>
+      <c r="Q24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>16</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="8">
+        <v>10</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double parm_tp;</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,PARM_TP VARCHAR (10)   </v>
+      </c>
+      <c r="Q25" s="10" t="str">
+        <f>CONCATENATE(O25, P25)</f>
+        <v xml:space="preserve">,PARM_TP VARCHAR (10)   </v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="8">
+        <v>100</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private double def_val;</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,DEF_VAL VARCHAR (100)   </v>
+      </c>
+      <c r="Q26" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,DEF_VAL VARCHAR (100)   </v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int sorts;</v>
+      </c>
+      <c r="N27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O27" s="8" t="str">
+        <f>CONCATENATE(N27, D27, " ", I27, IF(NOT(ISBLANK(J27)), " (", " "), J27, IF(NOT(ISBLANK(J27)), ") ", " "), IF(NOT(ISBLANK(H27)), CONCATENATE(" DEFAULT ", H27), " "), " " )</f>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+      <c r="Q27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>28</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="N28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O28" s="8" t="str">
+        <f>CONCATENATE(N28, D28, " ", I28, IF(NOT(ISBLANK(J28)), " (", " "), J28, IF(NOT(ISBLANK(J28)), ") ", " "), IF(NOT(ISBLANK(H28)), CONCATENATE(" DEFAULT ", H28), " "), " " )</f>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+      <c r="Q28" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private Date mod_dt;</v>
+      </c>
+      <c r="N29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="O29" s="8" t="str">
+        <f>CONCATENATE(N29, D29, " ", I29, IF(NOT(ISBLANK(J29)), " (", " "), J29, IF(NOT(ISBLANK(J29)), ") ", " "), IF(NOT(ISBLANK(H29)), CONCATENATE(" DEFAULT ", H29), " "), " " )</f>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q29" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_ID, PARM_ID)); </v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>14</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -3407,19 +9437,19 @@
         <v>34</v>
       </c>
       <c r="L30" s="8" t="str">
-        <f t="shared" ref="L30:L38" si="21">CONCATENATE("private ",IF(K30="DT","Date",IF(I30="INT","int",IF(I30="TEXT","String",IF(I30="BIGINT", "long", "double")))), " ", LOWER(D30), ";")</f>
+        <f t="shared" si="3"/>
         <v>private long msn_id;</v>
       </c>
       <c r="N30" s="8" t="str">
-        <f t="shared" ref="N30:N38" si="22">IF(ISBLANK(B30), ",", CONCATENATE("CREATE TABLE ", B30, " ( "))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">CREATE TABLE MSN_SRV_MST ( </v>
       </c>
       <c r="O30" s="8" t="str">
-        <f t="shared" ref="O30:O38" si="23">CONCATENATE(N30, D30, " ", I30, IF(NOT(ISBLANK(J30)), " (", " "), J30, IF(NOT(ISBLANK(J30)), ") ", " "), IF(NOT(ISBLANK(H30)), CONCATENATE(" DEFAULT ", H30), " "), " " )</f>
+        <f t="shared" ref="O30:O74" si="4">CONCATENATE(N30, D30, " ", I30, IF(NOT(ISBLANK(J30)), " (", " "), J30, IF(NOT(ISBLANK(J30)), ") ", " "), IF(NOT(ISBLANK(H30)), CONCATENATE(" DEFAULT ", H30), " "), " " )</f>
         <v xml:space="preserve">CREATE TABLE MSN_SRV_MST ( MSN_ID BIGINT    </v>
       </c>
       <c r="Q30" s="10" t="str">
-        <f t="shared" ref="Q30:Q36" si="24">CONCATENATE(O30, P30)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CREATE TABLE MSN_SRV_MST ( MSN_ID BIGINT    </v>
       </c>
     </row>
@@ -3449,19 +9479,19 @@
         <v>34</v>
       </c>
       <c r="L31" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>private long srv_seq;</v>
       </c>
       <c r="N31" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O31" s="8" t="str">
-        <f t="shared" ref="O31" si="25">CONCATENATE(N31, D31, " ", I31, IF(NOT(ISBLANK(J31)), " (", " "), J31, IF(NOT(ISBLANK(J31)), ") ", " "), IF(NOT(ISBLANK(H31)), CONCATENATE(" DEFAULT ", H31), " "), " " )</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
       </c>
       <c r="Q31" s="10" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
       </c>
     </row>
@@ -3489,19 +9519,19 @@
         <v>34</v>
       </c>
       <c r="L32" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>private long srv_id;</v>
       </c>
       <c r="N32" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O32" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,SRV_ID BIGINT    </v>
       </c>
       <c r="Q32" s="10" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,SRV_ID BIGINT    </v>
       </c>
     </row>
@@ -3521,28 +9551,28 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L33" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>private int srv_dur;</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>165</v>
       </c>
       <c r="N33" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O33" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,SRV_DUR INT    </v>
       </c>
       <c r="Q33" s="10" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,SRV_DUR INT    </v>
       </c>
     </row>
@@ -3562,28 +9592,28 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L34" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>private int pre_dur;</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>166</v>
       </c>
       <c r="N34" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O34" s="8" t="str">
-        <f t="shared" ref="O34" si="26">CONCATENATE(N34, D34, " ", I34, IF(NOT(ISBLANK(J34)), " (", " "), J34, IF(NOT(ISBLANK(J34)), ") ", " "), IF(NOT(ISBLANK(H34)), CONCATENATE(" DEFAULT ", H34), " "), " " )</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,PRE_DUR INT    </v>
       </c>
       <c r="Q34" s="10" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,PRE_DUR INT    </v>
       </c>
     </row>
@@ -3603,28 +9633,28 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L35" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>private int aft_dur;</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>167</v>
       </c>
       <c r="N35" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O35" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,AFT_DUR INT    </v>
       </c>
       <c r="Q35" s="10" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,AFT_DUR INT    </v>
       </c>
     </row>
@@ -3650,25 +9680,25 @@
         <v>10</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="L36" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>private double map_tp;</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>175</v>
       </c>
       <c r="N36" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O36" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
       </c>
       <c r="Q36" s="10" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
       </c>
     </row>
@@ -3696,19 +9726,19 @@
         <v>11</v>
       </c>
       <c r="L37" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>private Date reg_dt;</v>
       </c>
       <c r="N37" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O37" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q37" s="10" t="str">
-        <f t="shared" ref="Q37:Q38" si="27">CONCATENATE(O37, P37)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
@@ -3734,22 +9764,22 @@
         <v>11</v>
       </c>
       <c r="L38" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>private Date mod_dt;</v>
       </c>
       <c r="N38" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O38" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MOD_DT DATETIME    </v>
       </c>
       <c r="P38" s="12" t="s">
         <v>200</v>
       </c>
       <c r="Q38" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_ID, SRV_SEQ)); </v>
       </c>
     </row>
@@ -3789,15 +9819,15 @@
         <v>private long msn_seq;</v>
       </c>
       <c r="N39" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">CREATE TABLE MSN_INFO ( </v>
       </c>
       <c r="O39" s="8" t="str">
-        <f t="shared" ref="O39:O57" si="28">CONCATENATE(N39, D39, " ", I39, IF(NOT(ISBLANK(J39)), " (", " "), J39, IF(NOT(ISBLANK(J39)), ") ", " "), IF(NOT(ISBLANK(H39)), CONCATENATE(" DEFAULT ", H39), " "), " " )</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">CREATE TABLE MSN_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q39" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CREATE TABLE MSN_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
@@ -3823,19 +9853,19 @@
         <v>34</v>
       </c>
       <c r="L40" s="8" t="str">
-        <f t="shared" ref="L40" si="29">CONCATENATE("private ",IF(K40="DT","Date",IF(I40="INT","int",IF(I40="TEXT","String",IF(I40="BIGINT", "long", "double")))), " ", LOWER(D40), ";")</f>
+        <f t="shared" si="3"/>
         <v>private long msn_id;</v>
       </c>
       <c r="N40" s="8" t="str">
-        <f t="shared" ref="N40" si="30">IF(ISBLANK(B40), ",", CONCATENATE("CREATE TABLE ", B40, " ( "))</f>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O40" s="8" t="str">
-        <f t="shared" ref="O40" si="31">CONCATENATE(N40, D40, " ", I40, IF(NOT(ISBLANK(J40)), " (", " "), J40, IF(NOT(ISBLANK(J40)), ") ", " "), IF(NOT(ISBLANK(H40)), CONCATENATE(" DEFAULT ", H40), " "), " " )</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
       <c r="Q40" s="10" t="str">
-        <f t="shared" ref="Q40" si="32">CONCATENATE(O40, P40)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
     </row>
@@ -3861,7 +9891,7 @@
         <v>50</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L41" s="8" t="str">
         <f t="shared" si="3"/>
@@ -3879,7 +9909,7 @@
         <v xml:space="preserve">,MSN_CALL VARCHAR (50)   </v>
       </c>
       <c r="Q41" s="10" t="str">
-        <f t="shared" ref="Q41:Q42" si="33">CONCATENATE(O41, P41)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,MSN_CALL VARCHAR (50)   </v>
       </c>
     </row>
@@ -3912,15 +9942,15 @@
         <v>private double msn_desc;</v>
       </c>
       <c r="N42" s="8" t="str">
-        <f t="shared" ref="N42" si="34">IF(ISBLANK(B42), ",", CONCATENATE("CREATE TABLE ", B42, " ( "))</f>
+        <f t="shared" ref="N42:N43" si="5">IF(ISBLANK(B42), ",", CONCATENATE("CREATE TABLE ", B42, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O42" s="8" t="str">
-        <f t="shared" ref="O42" si="35">CONCATENATE(N42, D42, " ", I42, IF(NOT(ISBLANK(J42)), " (", " "), J42, IF(NOT(ISBLANK(J42)), ") ", " "), IF(NOT(ISBLANK(H42)), CONCATENATE(" DEFAULT ", H42), " "), " " )</f>
+        <f t="shared" ref="O42:O43" si="6">CONCATENATE(N42, D42, " ", I42, IF(NOT(ISBLANK(J42)), " (", " "), J42, IF(NOT(ISBLANK(J42)), ") ", " "), IF(NOT(ISBLANK(H42)), CONCATENATE(" DEFAULT ", H42), " "), " " )</f>
         <v xml:space="preserve">,MSN_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q42" s="10" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,MSN_DESC VARCHAR (255)   </v>
       </c>
     </row>
@@ -3953,15 +9983,15 @@
         <v>private double remrk;</v>
       </c>
       <c r="N43" s="8" t="str">
-        <f t="shared" ref="N43" si="36">IF(ISBLANK(B43), ",", CONCATENATE("CREATE TABLE ", B43, " ( "))</f>
+        <f t="shared" si="5"/>
         <v>,</v>
       </c>
       <c r="O43" s="8" t="str">
-        <f t="shared" ref="O43" si="37">CONCATENATE(N43, D43, " ", I43, IF(NOT(ISBLANK(J43)), " (", " "), J43, IF(NOT(ISBLANK(J43)), ") ", " "), IF(NOT(ISBLANK(H43)), CONCATENATE(" DEFAULT ", H43), " "), " " )</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">,REMRK VARCHAR (255)   </v>
       </c>
       <c r="Q43" s="10" t="str">
-        <f t="shared" ref="Q43" si="38">CONCATENATE(O43, P43)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,REMRK VARCHAR (255)   </v>
       </c>
     </row>
@@ -3993,15 +10023,15 @@
         <v>private Date reg_dt;</v>
       </c>
       <c r="N44" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O44" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q44" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
@@ -4031,18 +10061,18 @@
         <v>private Date mod_dt;</v>
       </c>
       <c r="N45" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O45" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MOD_DT DATETIME    </v>
       </c>
       <c r="P45" s="12" t="s">
         <v>202</v>
       </c>
       <c r="Q45" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_SEQ)); </v>
       </c>
     </row>
@@ -4082,15 +10112,15 @@
         <v>private long srv_seq;</v>
       </c>
       <c r="N46" s="8" t="str">
-        <f t="shared" ref="N46:N57" si="39">IF(ISBLANK(B46), ",", CONCATENATE("CREATE TABLE ", B46, " ( "))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( </v>
       </c>
       <c r="O46" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( SRV_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q46" s="10" t="str">
-        <f t="shared" ref="Q46:Q51" si="40">CONCATENATE(O46, P46)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( SRV_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
@@ -4120,15 +10150,15 @@
         <v>private long msn_id;</v>
       </c>
       <c r="N47" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O47" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
       <c r="Q47" s="10" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
     </row>
@@ -4154,19 +10184,19 @@
         <v>34</v>
       </c>
       <c r="L48" s="8" t="str">
-        <f t="shared" ref="L48" si="41">CONCATENATE("private ",IF(K48="DT","Date",IF(I48="INT","int",IF(I48="TEXT","String",IF(I48="BIGINT", "long", "double")))), " ", LOWER(D48), ";")</f>
+        <f t="shared" si="3"/>
         <v>private long msn_seq;</v>
       </c>
       <c r="N48" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O48" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
       <c r="Q48" s="10" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
     </row>
@@ -4196,11 +10226,11 @@
         <v>private long srv_id;</v>
       </c>
       <c r="N49" s="8" t="str">
-        <f t="shared" ref="N49:N50" si="42">IF(ISBLANK(B49), ",", CONCATENATE("CREATE TABLE ", B49, " ( "))</f>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O49" s="8" t="str">
-        <f t="shared" ref="O49:O50" si="43">CONCATENATE(N49, D49, " ", I49, IF(NOT(ISBLANK(J49)), " (", " "), J49, IF(NOT(ISBLANK(J49)), ") ", " "), IF(NOT(ISBLANK(H49)), CONCATENATE(" DEFAULT ", H49), " "), " " )</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,SRV_ID BIGINT    </v>
       </c>
       <c r="Q49" s="10" t="str">
@@ -4237,15 +10267,15 @@
         <v>private double srv_desc;</v>
       </c>
       <c r="N50" s="8" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O50" s="8" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q50" s="10" t="str">
-        <f t="shared" ref="Q50" si="44">CONCATENATE(O50, P50)</f>
+        <f t="shared" ref="Q50" si="7">CONCATENATE(O50, P50)</f>
         <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
       </c>
     </row>
@@ -4271,22 +10301,22 @@
         <v>100</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L51" s="8" t="str">
         <f t="shared" si="3"/>
         <v>private double srv_call;</v>
       </c>
       <c r="N51" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O51" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,SRV_CALL VARCHAR (100)   </v>
       </c>
       <c r="Q51" s="10" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,SRV_CALL VARCHAR (100)   </v>
       </c>
     </row>
@@ -4306,7 +10336,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>13</v>
@@ -4323,7 +10353,7 @@
         <v>,</v>
       </c>
       <c r="O52" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,SRV_DUR INT    </v>
       </c>
       <c r="Q52" s="10" t="str">
@@ -4347,7 +10377,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>13</v>
@@ -4364,7 +10394,7 @@
         <v>,</v>
       </c>
       <c r="O53" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,PRE_DUR INT    </v>
       </c>
       <c r="Q53" s="10" t="str">
@@ -4388,7 +10418,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>13</v>
@@ -4405,7 +10435,7 @@
         <v>,</v>
       </c>
       <c r="O54" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,AFT_DUR INT    </v>
       </c>
       <c r="Q54" s="10" t="str">
@@ -4435,7 +10465,7 @@
         <v>10</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="L55" s="8" t="str">
         <f t="shared" si="3"/>
@@ -4446,7 +10476,7 @@
         <v>,</v>
       </c>
       <c r="O55" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
       </c>
       <c r="Q55" s="10" t="str">
@@ -4482,15 +10512,15 @@
         <v>private Date reg_dt;</v>
       </c>
       <c r="N56" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O56" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q56" s="10" t="str">
-        <f t="shared" ref="Q56:Q57" si="45">CONCATENATE(O56, P56)</f>
+        <f t="shared" ref="Q56:Q99" si="8">CONCATENATE(O56, P56)</f>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
@@ -4520,18 +10550,18 @@
         <v>private Date mod_dt;</v>
       </c>
       <c r="N57" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O57" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MOD_DT DATETIME    </v>
       </c>
       <c r="P57" s="12" t="s">
         <v>203</v>
       </c>
       <c r="Q57" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ)); </v>
       </c>
     </row>
@@ -4569,15 +10599,15 @@
         <v>private long srv_seq;</v>
       </c>
       <c r="N58" s="8" t="str">
-        <f t="shared" ref="N58:N74" si="46">IF(ISBLANK(B58), ",", CONCATENATE("CREATE TABLE ", B58, " ( "))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">CREATE TABLE PARM_INFO ( </v>
       </c>
       <c r="O58" s="8" t="str">
-        <f t="shared" ref="O58:O74" si="47">CONCATENATE(N58, D58, " ", I58, IF(NOT(ISBLANK(J58)), " (", " "), J58, IF(NOT(ISBLANK(J58)), ") ", " "), IF(NOT(ISBLANK(H58)), CONCATENATE(" DEFAULT ", H58), " "), " " )</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
       </c>
       <c r="Q58" s="10" t="str">
-        <f t="shared" ref="Q58:Q86" si="48">CONCATENATE(O58, P58)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
       </c>
     </row>
@@ -4588,7 +10618,7 @@
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="11" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>99</v>
@@ -4607,22 +10637,22 @@
         <v>50</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L59" s="8" t="str">
-        <f t="shared" ref="L59" si="49">CONCATENATE("private ",IF(K59="DT","Date",IF(I59="INT","int",IF(I59="TEXT","String",IF(I59="BIGINT", "long", "double")))), " ", LOWER(D59), ";")</f>
+        <f t="shared" si="3"/>
         <v>private double parm_id;</v>
       </c>
       <c r="N59" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O59" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
       </c>
       <c r="Q59" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
       </c>
     </row>
@@ -4652,15 +10682,15 @@
         <v>private long msn_id;</v>
       </c>
       <c r="N60" s="8" t="str">
-        <f t="shared" ref="N60:N61" si="50">IF(ISBLANK(B60), ",", CONCATENATE("CREATE TABLE ", B60, " ( "))</f>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O60" s="8" t="str">
-        <f t="shared" ref="O60:O61" si="51">CONCATENATE(N60, D60, " ", I60, IF(NOT(ISBLANK(J60)), " (", " "), J60, IF(NOT(ISBLANK(J60)), ") ", " "), IF(NOT(ISBLANK(H60)), CONCATENATE(" DEFAULT ", H60), " "), " " )</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
       <c r="Q60" s="10" t="str">
-        <f t="shared" ref="Q60:Q61" si="52">CONCATENATE(O60, P60)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
     </row>
@@ -4690,15 +10720,15 @@
         <v>private long msn_seq;</v>
       </c>
       <c r="N61" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O61" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
       <c r="Q61" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
     </row>
@@ -4731,15 +10761,15 @@
         <v>private double def_val;</v>
       </c>
       <c r="N62" s="8" t="str">
-        <f t="shared" ref="N62" si="53">IF(ISBLANK(B62), ",", CONCATENATE("CREATE TABLE ", B62, " ( "))</f>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O62" s="8" t="str">
-        <f t="shared" ref="O62" si="54">CONCATENATE(N62, D62, " ", I62, IF(NOT(ISBLANK(J62)), " (", " "), J62, IF(NOT(ISBLANK(J62)), ") ", " "), IF(NOT(ISBLANK(H62)), CONCATENATE(" DEFAULT ", H62), " "), " " )</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
       </c>
       <c r="Q62" s="10" t="str">
-        <f t="shared" ref="Q62" si="55">CONCATENATE(O62, P62)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
       </c>
     </row>
@@ -4772,15 +10802,15 @@
         <v>private double parm_val;</v>
       </c>
       <c r="N63" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O63" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
       </c>
       <c r="Q63" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
       </c>
     </row>
@@ -4800,7 +10830,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>13</v>
@@ -4810,15 +10840,15 @@
         <v>private int sorts;</v>
       </c>
       <c r="N64" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O64" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q64" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,SORTS INT    </v>
       </c>
     </row>
@@ -4850,15 +10880,15 @@
         <v>private Date reg_dt;</v>
       </c>
       <c r="N65" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
       <c r="O65" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q65" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
@@ -4888,18 +10918,18 @@
         <v>private Date mod_dt;</v>
       </c>
       <c r="N66" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="N66:N82" si="9">IF(ISBLANK(B66), ",", CONCATENATE("CREATE TABLE ", B66, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O66" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,MOD_DT DATETIME    </v>
       </c>
       <c r="P66" s="12" t="s">
         <v>204</v>
       </c>
       <c r="Q66" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ, PARM_ID)); </v>
       </c>
     </row>
@@ -4917,7 +10947,7 @@
         <v>208</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>7</v>
@@ -4926,28 +10956,28 @@
         <v>8</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="J67" s="8">
         <v>50</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L67" s="8" t="str">
-        <f t="shared" ref="L67:L86" si="56">CONCATENATE("private ",IF(K67="DT","Date",IF(I67="INTEGER","int",IF(I67="TEXT","String","double"))), " ", LOWER(D67), ";")</f>
+        <f t="shared" ref="L67:L86" si="10">CONCATENATE("private ",IF(K67="DT","Date",IF(I67="INTEGER","int",IF(I67="TEXT","String","double"))), " ", LOWER(D67), ";")</f>
         <v>private double admin_id;</v>
       </c>
       <c r="N67" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">CREATE TABLE ADMIN_MST ( </v>
       </c>
       <c r="O67" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
       </c>
       <c r="Q67" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
       </c>
     </row>
@@ -4962,16 +10992,16 @@
         <v>214</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="J68" s="8">
         <v>50</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="L68" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double admin_nm;</v>
       </c>
       <c r="N68" s="8" t="str">
@@ -4983,7 +11013,7 @@
         <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
       </c>
       <c r="Q68" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
       </c>
     </row>
@@ -4998,28 +11028,28 @@
         <v>9</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="J69" s="8">
         <v>50</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="L69" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double tel_no;</v>
       </c>
       <c r="N69" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="9"/>
         <v>,</v>
       </c>
       <c r="O69" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
       </c>
       <c r="Q69" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
       </c>
     </row>
@@ -5034,28 +11064,28 @@
         <v>10</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="J70" s="8">
         <v>255</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="L70" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double email;</v>
       </c>
       <c r="N70" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="9"/>
         <v>,</v>
       </c>
       <c r="O70" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
       </c>
       <c r="Q70" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
       </c>
     </row>
@@ -5070,25 +11100,25 @@
         <v>221</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>223</v>
       </c>
       <c r="L71" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double auto_login;</v>
       </c>
       <c r="N71" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="9"/>
         <v>,</v>
       </c>
       <c r="O71" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,AUTO_LOGIN INT    </v>
       </c>
       <c r="Q71" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,AUTO_LOGIN INT    </v>
       </c>
     </row>
@@ -5103,7 +11133,7 @@
         <v>225</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="J72" s="8">
         <v>100</v>
@@ -5112,7 +11142,7 @@
         <v>224</v>
       </c>
       <c r="L72" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double passwd;</v>
       </c>
       <c r="N72" s="8" t="str">
@@ -5124,7 +11154,7 @@
         <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
       </c>
       <c r="Q72" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
       </c>
     </row>
@@ -5139,16 +11169,16 @@
         <v>227</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="J73" s="8">
         <v>50</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L73" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double auth_level;</v>
       </c>
       <c r="N73" s="8" t="str">
@@ -5160,7 +11190,7 @@
         <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
       </c>
       <c r="Q73" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
       </c>
     </row>
@@ -5169,34 +11199,34 @@
         <v>30</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>229</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="L74" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private Date reg_dt;</v>
       </c>
       <c r="N74" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="9"/>
         <v>,</v>
       </c>
       <c r="O74" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,REG_DT DATETIME    </v>
       </c>
       <c r="P74" s="8" t="s">
         <v>232</v>
       </c>
       <c r="Q74" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
       </c>
     </row>
@@ -5211,7 +11241,7 @@
         <v>234</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>209</v>
@@ -5223,16 +11253,16 @@
         <v>8</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="J75" s="8">
         <v>50</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L75" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double admin_id;</v>
       </c>
       <c r="N75" s="8" t="str">
@@ -5244,7 +11274,7 @@
         <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
       </c>
       <c r="Q75" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
       </c>
     </row>
@@ -5265,16 +11295,16 @@
         <v>8</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="J76" s="8">
         <v>50</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L76" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double auto_login_key;</v>
       </c>
       <c r="N76" s="8" t="str">
@@ -5286,7 +11316,7 @@
         <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
       </c>
       <c r="Q76" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
       </c>
     </row>
@@ -5301,16 +11331,16 @@
         <v>238</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="J77" s="8">
         <v>50</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L77" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double remote_addr;</v>
       </c>
       <c r="N77" s="8" t="str">
@@ -5322,7 +11352,7 @@
         <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
       </c>
       <c r="Q77" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
       </c>
     </row>
@@ -5331,19 +11361,19 @@
         <v>30</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>240</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="L78" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private Date reg_dt;</v>
       </c>
       <c r="N78" s="8" t="str">
@@ -5358,7 +11388,7 @@
         <v>242</v>
       </c>
       <c r="Q78" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID, AUTO_LOGIN_KEY)); </v>
       </c>
     </row>
@@ -5394,19 +11424,19 @@
         <v>12</v>
       </c>
       <c r="L79" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double robo_id;</v>
       </c>
       <c r="N79" s="8" t="str">
-        <f t="shared" ref="N79:N86" si="57">IF(ISBLANK(B79), ",", CONCATENATE("CREATE TABLE ", B79, " ( "))</f>
+        <f t="shared" ref="N79:N99" si="11">IF(ISBLANK(B79), ",", CONCATENATE("CREATE TABLE ", B79, " ( "))</f>
         <v xml:space="preserve">CREATE TABLE ROBO_MST ( </v>
       </c>
       <c r="O79" s="8" t="str">
-        <f t="shared" ref="O79:O86" si="58">CONCATENATE(N79, D79, " ", I79, IF(NOT(ISBLANK(J79)), " (", " "), J79, IF(NOT(ISBLANK(J79)), ") ", " "), IF(NOT(ISBLANK(H79)), CONCATENATE(" DEFAULT ", H79), " "), " " )</f>
+        <f t="shared" ref="O79:O99" si="12">CONCATENATE(N79, D79, " ", I79, IF(NOT(ISBLANK(J79)), " (", " "), J79, IF(NOT(ISBLANK(J79)), ") ", " "), IF(NOT(ISBLANK(H79)), CONCATENATE(" DEFAULT ", H79), " "), " " )</f>
         <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
       </c>
       <c r="Q79" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
       </c>
     </row>
@@ -5430,19 +11460,19 @@
         <v>12</v>
       </c>
       <c r="L80" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double robo_nm;</v>
       </c>
       <c r="N80" s="8" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O80" s="8" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
       </c>
       <c r="Q80" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
       </c>
     </row>
@@ -5466,19 +11496,19 @@
         <v>12</v>
       </c>
       <c r="L81" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double robo_desc;</v>
       </c>
       <c r="N81" s="8" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O81" s="8" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q81" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
       </c>
     </row>
@@ -5502,15 +11532,15 @@
         <v>12</v>
       </c>
       <c r="L82" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double ip_addr;</v>
       </c>
       <c r="N82" s="8" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O82" s="8" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,IP_ADDR VARCHAR (20)   </v>
       </c>
       <c r="Q82" s="10" t="str">
@@ -5538,18 +11568,18 @@
         <v>10</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="L83" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double robo_tp;</v>
       </c>
       <c r="N83" s="8" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O83" s="8" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,ROBO_TP VARCHAR (10)  DEFAULT 1 </v>
       </c>
       <c r="Q83" s="10" t="str">
@@ -5574,25 +11604,25 @@
         <v>10</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="L84" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private double state;</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>257</v>
       </c>
       <c r="N84" s="8" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O84" s="8" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,STATE VARCHAR (10)   </v>
       </c>
       <c r="Q84" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,STATE VARCHAR (10)   </v>
       </c>
     </row>
@@ -5618,22 +11648,22 @@
         <v>11</v>
       </c>
       <c r="L85" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private Date reg_dt;</v>
       </c>
       <c r="M85" s="9" t="s">
         <v>258</v>
       </c>
       <c r="N85" s="8" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O85" s="8" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q85" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
@@ -5657,22 +11687,22 @@
         <v>11</v>
       </c>
       <c r="L86" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="10"/>
         <v>private Date mod_dt;</v>
       </c>
       <c r="N86" s="8" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O86" s="8" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,MOD_DT DATETIME    </v>
       </c>
       <c r="P86" s="12" t="s">
         <v>272</v>
       </c>
       <c r="Q86" s="10" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(ROBO_ID)); </v>
       </c>
     </row>
@@ -5712,15 +11742,15 @@
         <v>private long msn_id;</v>
       </c>
       <c r="N87" s="8" t="str">
-        <f t="shared" ref="N87:N99" si="59">IF(ISBLANK(B87), ",", CONCATENATE("CREATE TABLE ", B87, " ( "))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( </v>
       </c>
       <c r="O87" s="8" t="str">
-        <f t="shared" ref="O87:O99" si="60">CONCATENATE(N87, D87, " ", I87, IF(NOT(ISBLANK(J87)), " (", " "), J87, IF(NOT(ISBLANK(J87)), ") ", " "), IF(NOT(ISBLANK(H87)), CONCATENATE(" DEFAULT ", H87), " "), " " )</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q87" s="10" t="str">
-        <f t="shared" ref="Q87:Q99" si="61">CONCATENATE(O87, P87)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
@@ -5758,7 +11788,7 @@
         <v>,</v>
       </c>
       <c r="O88" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
       <c r="Q88" s="10" t="str">
@@ -5786,7 +11816,7 @@
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K89" s="8" t="s">
         <v>13</v>
@@ -5796,15 +11826,15 @@
         <v>private int exe_seq;</v>
       </c>
       <c r="N89" s="8" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O89" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,EXE_SEQ INT    </v>
       </c>
       <c r="Q89" s="10" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,EXE_SEQ INT    </v>
       </c>
     </row>
@@ -5838,7 +11868,7 @@
         <v>,</v>
       </c>
       <c r="O90" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,EXE_DT DATETIME    </v>
       </c>
       <c r="Q90" s="10" t="str">
@@ -5872,15 +11902,15 @@
         <v>private Date end_dt;</v>
       </c>
       <c r="N91" s="8" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O91" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,END_DT DATETIME    </v>
       </c>
       <c r="Q91" s="10" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,END_DT DATETIME    </v>
       </c>
     </row>
@@ -5900,7 +11930,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
       <c r="I92" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>13</v>
@@ -5910,15 +11940,15 @@
         <v>private int exe_dur;</v>
       </c>
       <c r="N92" s="8" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O92" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,EXE_DUR INT    </v>
       </c>
       <c r="Q92" s="10" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,EXE_DUR INT    </v>
       </c>
     </row>
@@ -5940,25 +11970,25 @@
         <v>0</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L93" s="8" t="str">
-        <f t="shared" ref="L93:L105" si="62">CONCATENATE("private ",IF(K93="DT","Date",IF(I93="INT","int",IF(I93="TEXT","String",IF(I93="BIGINT", "long", "double")))), " ", LOWER(D93), ";")</f>
+        <f t="shared" ref="L93:L105" si="13">CONCATENATE("private ",IF(K93="DT","Date",IF(I93="INT","int",IF(I93="TEXT","String",IF(I93="BIGINT", "long", "double")))), " ", LOWER(D93), ";")</f>
         <v>private int exe_res;</v>
       </c>
       <c r="N93" s="8" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O93" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
       </c>
       <c r="Q93" s="10" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
       </c>
     </row>
@@ -5987,19 +12017,19 @@
         <v>35</v>
       </c>
       <c r="L94" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private double res_msg;</v>
       </c>
       <c r="N94" s="8" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O94" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
       </c>
       <c r="Q94" s="10" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
       </c>
     </row>
@@ -6027,22 +12057,22 @@
         <v>11</v>
       </c>
       <c r="L95" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private Date reg_dt;</v>
       </c>
       <c r="N95" s="8" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O95" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="P95" s="12" t="s">
         <v>51</v>
       </c>
       <c r="Q95" s="10" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() , PRIMARY KEY(CLASS_DT, CLASS_ID, USER_ID)); </v>
       </c>
     </row>
@@ -6066,28 +12096,28 @@
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J96" s="8">
         <v>50</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L96" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private long ;</v>
       </c>
       <c r="N96" s="8" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG ( </v>
       </c>
       <c r="O96" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
       </c>
       <c r="Q96" s="10" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
       </c>
     </row>
@@ -6109,22 +12139,22 @@
         <v>50</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L97" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private double ;</v>
       </c>
       <c r="N97" s="8" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O97" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
       <c r="Q97" s="10" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
     </row>
@@ -6149,19 +12179,19 @@
         <v>22</v>
       </c>
       <c r="L98" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private double ;</v>
       </c>
       <c r="N98" s="8" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O98" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q98" s="10" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -6186,19 +12216,19 @@
         <v>23</v>
       </c>
       <c r="L99" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private double ;</v>
       </c>
       <c r="N99" s="8" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O99" s="8" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q99" s="10" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -6220,7 +12250,7 @@
         <v>11</v>
       </c>
       <c r="L100" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private Date ;</v>
       </c>
       <c r="N100" s="8" t="str">
@@ -6259,28 +12289,28 @@
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J101" s="8">
         <v>50</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L101" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private long ;</v>
       </c>
       <c r="N101" s="8" t="str">
-        <f t="shared" ref="N101:N104" si="63">IF(ISBLANK(B101), ",", CONCATENATE("CREATE TABLE ", B101, " ( "))</f>
+        <f t="shared" ref="N101:N104" si="14">IF(ISBLANK(B101), ",", CONCATENATE("CREATE TABLE ", B101, " ( "))</f>
         <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG ( </v>
       </c>
       <c r="O101" s="8" t="str">
-        <f t="shared" ref="O101:O104" si="64">CONCATENATE(N101, D101, " ", I101, IF(NOT(ISBLANK(J101)), " (", " "), J101, IF(NOT(ISBLANK(J101)), ") ", " "), IF(NOT(ISBLANK(H101)), CONCATENATE(" DEFAULT ", H101), " "), " " )</f>
+        <f t="shared" ref="O101:O104" si="15">CONCATENATE(N101, D101, " ", I101, IF(NOT(ISBLANK(J101)), " (", " "), J101, IF(NOT(ISBLANK(J101)), ") ", " "), IF(NOT(ISBLANK(H101)), CONCATENATE(" DEFAULT ", H101), " "), " " )</f>
         <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
       </c>
       <c r="Q101" s="10" t="str">
-        <f t="shared" ref="Q101:Q104" si="65">CONCATENATE(O101, P101)</f>
+        <f t="shared" ref="Q101:Q104" si="16">CONCATENATE(O101, P101)</f>
         <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
       </c>
     </row>
@@ -6302,22 +12332,22 @@
         <v>50</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L102" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private double ;</v>
       </c>
       <c r="N102" s="8" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="O102" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
       <c r="Q102" s="10" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
     </row>
@@ -6342,19 +12372,19 @@
         <v>22</v>
       </c>
       <c r="L103" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private double ;</v>
       </c>
       <c r="N103" s="8" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="O103" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q103" s="10" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -6379,19 +12409,19 @@
         <v>23</v>
       </c>
       <c r="L104" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private double ;</v>
       </c>
       <c r="N104" s="8" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="O104" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q104" s="10" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -6413,7 +12443,7 @@
         <v>11</v>
       </c>
       <c r="L105" s="8" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="13"/>
         <v>private Date ;</v>
       </c>
       <c r="N105" s="8" t="str">
@@ -6580,442 +12610,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="4" t="str">
-        <f t="shared" ref="H2:H17" si="0">CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A2, "', '", B2, "', '", C2, "', '", D2, "', '", E2, "', ", F2, ", '", G2, "', NOW());")</f>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A', 'A01', 'COM', '미션구분', 'Mission Type', 1, '', NOW());</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A', 'A02', 'COM', '서비스구분', 'Service Type', 2, '', NOW());</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A', 'A03', 'COM', '파라메터타입', 'Param Type', 3, '', NOW());</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A01', 'M1', 'COM', '이동', 'Move', 1, '', NOW());</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A01', 'M2', 'COM', '행동', 'Action', 2, '', NOW());</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A01', 'P1', 'COM', '경로탐색', 'Path', 3, '', NOW());</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A01', 'I1', 'COM', '이미지정보', 'Image Info', 4, '', NOW());</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A01', 'I2', 'COM', '이미지변조', 'Image Modu', 5, '', NOW());</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A02', 'M1', 'COM', '서보모터', 'Servo Motor', 1, '', NOW());</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A02', 'M2', 'COM', 'DC모터', 'DC Motor', 2, '', NOW());</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="4">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A02', 'G1', 'COM', 'GPIO', 'GPIO', 3, '', NOW());</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'I', 'COM', 'INT', 'INT', 1, '', NOW());</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'F', 'COM', 'FLOAT', 'FLOAT', 2, '', NOW());</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="4">
-        <v>3</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'S', 'COM', 'String', 'String', 3, '', NOW());</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f t="shared" ref="H16" si="1">CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A16, "', '", B16, "', '", C16, "', '", D16, "', '", E16, "', ", F16, ", '", G16, "', NOW());")</f>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'L', 'COM', 'Bool', 'Bool', 4, '', NOW());</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'B', 'COM', 'Binary', 'Binary', 5, '', NOW());</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/docs/02.개발/01.설계/01.DB설계/COROBO_테이블설계서.xlsx
+++ b/docs/02.개발/01.설계/01.DB설계/COROBO_테이블설계서.xlsx
@@ -26,15 +26,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SRV_INFO!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">공통코드!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">설계서_V1!$A$1:$K$113</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">설계서_V2!$A$1:$K$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">설계서_V2!$A$1:$K$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">테이블!$B$1:$C$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="346">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1375,6 +1376,14 @@
   </si>
   <si>
     <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRV_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스상세설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1613,7 +1622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,6 +1689,15 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1733,12 +1751,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2423,7 +2435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2819,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" ref="H16" si="1">CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A16, "', '", B16, "', '", C16, "', '", D16, "', '", E16, "', ", F16, ", '", G16, "', NOW());")</f>
+        <f>CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A16, "', '", B16, "', '", C16, "', '", D16, "', '", E16, "', ", F16, ", '", G16, "', NOW());")</f>
         <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A03', 'L', 'COM', 'Bool', 'Bool', 4, '', NOW());</v>
       </c>
     </row>
@@ -2867,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f t="shared" ref="H18:H22" si="2">CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A18, "', '", B18, "', '", C18, "', '", D18, "', '", E18, "', ", F18, ", '", G18, "', NOW());")</f>
+        <f>CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A18, "', '", B18, "', '", C18, "', '", D18, "', '", E18, "', ", F18, ", '", G18, "', NOW());")</f>
         <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A', 'A04', 'COM', '서비스실행타입', 'Execute Type', 4, '', NOW());</v>
       </c>
     </row>
@@ -2891,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A19, "', '", B19, "', '", C19, "', '", D19, "', '", E19, "', ", F19, ", '", G19, "', NOW());")</f>
         <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A04', 'E', 'COM', '실행', 'Execute', 1, '', NOW());</v>
       </c>
     </row>
@@ -2915,7 +2927,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A20, "', '", B20, "', '", C20, "', '", D20, "', '", E20, "', ", F20, ", '", G20, "', NOW());")</f>
         <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A04', 'S', 'COM', '대기', 'Sleep', 2, '', NOW());</v>
       </c>
     </row>
@@ -2939,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A21, "', '", B21, "', '", C21, "', '", D21, "', '", E21, "', ", F21, ", '", G21, "', NOW());")</f>
         <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A04', 'D', 'COM', '더미', 'Dummy', 3, '', NOW());</v>
       </c>
     </row>
@@ -2963,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('", A22, "', '", B22, "', '", C22, "', '", D22, "', '", E22, "', ", F22, ", '", G22, "', NOW());")</f>
         <v>INSERT INTO COM_CODE(PCODE, CODE, PTYPE, NAME, ENAME, SORTS, REMRK, REG_DT) VALUES('A04', 'X', 'COM', '중지', 'Stop', 4, '', NOW());</v>
       </c>
     </row>
@@ -3020,7 +3032,7 @@
       <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="23" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3181,7 +3193,7 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>332</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3307,7 +3319,7 @@
       <c r="E1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="23" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3965,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f t="shared" ref="G18" si="1">CONCATENATE("INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(", A18, ", '", B18, "', '", C18, "', '",D18, "', ", E18, ", NOW());")</f>
+        <f>CONCATENATE("INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(", A18, ", '", B18, "', '", C18, "', '",D18, "', ", E18, ", NOW());")</f>
         <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(5, 'gripper', 'gripper grip', '-0.009', 1, NOW());</v>
       </c>
     </row>
@@ -4154,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="4" t="str">
-        <f t="shared" ref="G27" si="2">CONCATENATE("INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(", A27, ", '", B27, "', '", C27, "', '",D27, "', ", E27, ", NOW());")</f>
+        <f>CONCATENATE("INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(", A27, ", '", B27, "', '", C27, "', '",D27, "', ", E27, ", NOW());")</f>
         <v>INSERT INTO PARM_INFO(SRV_SEQ, PARM_ID, PARM_DESC, PARM_VAL, SORTS, REG_DT) VALUES(8, 'gripper', 'gripper release', '0.009', 1, NOW());</v>
       </c>
     </row>
@@ -4168,11 +4180,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -4312,7 +4324,7 @@
         <v>27</v>
       </c>
       <c r="L3" s="8" t="str">
-        <f t="shared" ref="L3:L81" si="3">CONCATENATE("private ",IF(K3="DT","Date",IF(I3="INT","int",IF(I3="TEXT","String",IF(I3="BIGINT", "long", "double")))), " ", LOWER(D3), ";")</f>
+        <f t="shared" ref="L3:L78" si="3">CONCATENATE("private ",IF(K3="DT","Date",IF(I3="INT","int",IF(I3="TEXT","String",IF(I3="BIGINT", "long", "double")))), " ", LOWER(D3), ";")</f>
         <v>private double msn_nm;</v>
       </c>
       <c r="N3" s="8" t="str">
@@ -4394,22 +4406,22 @@
         <v>82</v>
       </c>
       <c r="L5" s="8" t="str">
-        <f t="shared" ref="L5:L8" si="4">CONCATENATE("private ",IF(K5="DT","Date",IF(I5="INT","int",IF(I5="TEXT","String",IF(I5="BIGINT", "long", "double")))), " ", LOWER(D5), ";")</f>
+        <f>CONCATENATE("private ",IF(K5="DT","Date",IF(I5="INT","int",IF(I5="TEXT","String",IF(I5="BIGINT", "long", "double")))), " ", LOWER(D5), ";")</f>
         <v>private double msn_tp;</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>117</v>
       </c>
       <c r="N5" s="8" t="str">
-        <f t="shared" ref="N5:N8" si="5">IF(ISBLANK(B5), ",", CONCATENATE("CREATE TABLE ", B5, " ( "))</f>
+        <f>IF(ISBLANK(B5), ",", CONCATENATE("CREATE TABLE ", B5, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O5" s="8" t="str">
-        <f t="shared" ref="O5:O8" si="6">CONCATENATE(N5, D5, " ", I5, IF(NOT(ISBLANK(J5)), " (", " "), J5, IF(NOT(ISBLANK(J5)), ") ", " "), IF(NOT(ISBLANK(H5)), CONCATENATE(" DEFAULT ", H5), " "), " " )</f>
+        <f>CONCATENATE(N5, D5, " ", I5, IF(NOT(ISBLANK(J5)), " (", " "), J5, IF(NOT(ISBLANK(J5)), ") ", " "), IF(NOT(ISBLANK(H5)), CONCATENATE(" DEFAULT ", H5), " "), " " )</f>
         <v xml:space="preserve">,MSN_TP VARCHAR (10)   </v>
       </c>
       <c r="Q5" s="10" t="str">
-        <f t="shared" ref="Q5:Q8" si="7">CONCATENATE(O5, P5)</f>
+        <f>CONCATENATE(O5, P5)</f>
         <v xml:space="preserve">,MSN_TP VARCHAR (10)   </v>
       </c>
     </row>
@@ -4437,19 +4449,19 @@
         <v>13</v>
       </c>
       <c r="L6" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("private ",IF(K6="DT","Date",IF(I6="INT","int",IF(I6="TEXT","String",IF(I6="BIGINT", "long", "double")))), " ", LOWER(D6), ";")</f>
         <v>private int robo_cnt;</v>
       </c>
       <c r="N6" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B6), ",", CONCATENATE("CREATE TABLE ", B6, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O6" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(N6, D6, " ", I6, IF(NOT(ISBLANK(J6)), " (", " "), J6, IF(NOT(ISBLANK(J6)), ") ", " "), IF(NOT(ISBLANK(H6)), CONCATENATE(" DEFAULT ", H6), " "), " " )</f>
         <v xml:space="preserve">,ROBO_CNT INT   DEFAULT 2 </v>
       </c>
       <c r="Q6" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(O6, P6)</f>
         <v xml:space="preserve">,ROBO_CNT INT   DEFAULT 2 </v>
       </c>
     </row>
@@ -4478,19 +4490,19 @@
         <v>82</v>
       </c>
       <c r="L7" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("private ",IF(K7="DT","Date",IF(I7="INT","int",IF(I7="TEXT","String",IF(I7="BIGINT", "long", "double")))), " ", LOWER(D7), ";")</f>
         <v>private double robo_main;</v>
       </c>
       <c r="N7" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B7), ",", CONCATENATE("CREATE TABLE ", B7, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O7" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(N7, D7, " ", I7, IF(NOT(ISBLANK(J7)), " (", " "), J7, IF(NOT(ISBLANK(J7)), ") ", " "), IF(NOT(ISBLANK(H7)), CONCATENATE(" DEFAULT ", H7), " "), " " )</f>
         <v xml:space="preserve">,ROBO_MAIN VARCHAR (50)   </v>
       </c>
       <c r="Q7" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(O7, P7)</f>
         <v xml:space="preserve">,ROBO_MAIN VARCHAR (50)   </v>
       </c>
     </row>
@@ -4519,19 +4531,19 @@
         <v>82</v>
       </c>
       <c r="L8" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("private ",IF(K8="DT","Date",IF(I8="INT","int",IF(I8="TEXT","String",IF(I8="BIGINT", "long", "double")))), " ", LOWER(D8), ";")</f>
         <v>private double robo_sub1;</v>
       </c>
       <c r="N8" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B8), ",", CONCATENATE("CREATE TABLE ", B8, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O8" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(N8, D8, " ", I8, IF(NOT(ISBLANK(J8)), " (", " "), J8, IF(NOT(ISBLANK(J8)), ") ", " "), IF(NOT(ISBLANK(H8)), CONCATENATE(" DEFAULT ", H8), " "), " " )</f>
         <v xml:space="preserve">,ROBO_SUB1 VARCHAR (50)   </v>
       </c>
       <c r="Q8" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(O8, P8)</f>
         <v xml:space="preserve">,ROBO_SUB1 VARCHAR (50)   </v>
       </c>
     </row>
@@ -4642,19 +4654,19 @@
         <v>82</v>
       </c>
       <c r="L11" s="8" t="str">
-        <f t="shared" ref="L11" si="8">CONCATENATE("private ",IF(K11="DT","Date",IF(I11="INT","int",IF(I11="TEXT","String",IF(I11="BIGINT", "long", "double")))), " ", LOWER(D11), ";")</f>
+        <f>CONCATENATE("private ",IF(K11="DT","Date",IF(I11="INT","int",IF(I11="TEXT","String",IF(I11="BIGINT", "long", "double")))), " ", LOWER(D11), ";")</f>
         <v>private double robo_sub4;</v>
       </c>
       <c r="N11" s="8" t="str">
-        <f t="shared" ref="N11" si="9">IF(ISBLANK(B11), ",", CONCATENATE("CREATE TABLE ", B11, " ( "))</f>
+        <f>IF(ISBLANK(B11), ",", CONCATENATE("CREATE TABLE ", B11, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O11" s="8" t="str">
-        <f t="shared" ref="O11" si="10">CONCATENATE(N11, D11, " ", I11, IF(NOT(ISBLANK(J11)), " (", " "), J11, IF(NOT(ISBLANK(J11)), ") ", " "), IF(NOT(ISBLANK(H11)), CONCATENATE(" DEFAULT ", H11), " "), " " )</f>
+        <f>CONCATENATE(N11, D11, " ", I11, IF(NOT(ISBLANK(J11)), " (", " "), J11, IF(NOT(ISBLANK(J11)), ") ", " "), IF(NOT(ISBLANK(H11)), CONCATENATE(" DEFAULT ", H11), " "), " " )</f>
         <v xml:space="preserve">,ROBO_SUB4 VARCHAR (50)   </v>
       </c>
       <c r="Q11" s="10" t="str">
-        <f t="shared" ref="Q11" si="11">CONCATENATE(O11, P11)</f>
+        <f>CONCATENATE(O11, P11)</f>
         <v xml:space="preserve">,ROBO_SUB4 VARCHAR (50)   </v>
       </c>
     </row>
@@ -4781,10 +4793,10 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -4813,15 +4825,15 @@
         <v>private long srv_id;</v>
       </c>
       <c r="N15" s="8" t="str">
-        <f t="shared" ref="N15:N19" si="12">IF(ISBLANK(B15), ",", CONCATENATE("CREATE TABLE ", B15, " ( "))</f>
+        <f t="shared" ref="N15:N21" si="4">IF(ISBLANK(B15), ",", CONCATENATE("CREATE TABLE ", B15, " ( "))</f>
         <v xml:space="preserve">CREATE TABLE SRV_MST ( </v>
       </c>
       <c r="O15" s="8" t="str">
-        <f t="shared" ref="O15:O19" si="13">CONCATENATE(N15, D15, " ", I15, IF(NOT(ISBLANK(J15)), " (", " "), J15, IF(NOT(ISBLANK(J15)), ") ", " "), IF(NOT(ISBLANK(H15)), CONCATENATE(" DEFAULT ", H15), " "), " " )</f>
+        <f t="shared" ref="O15:O29" si="5">CONCATENATE(N15, D15, " ", I15, IF(NOT(ISBLANK(J15)), " (", " "), J15, IF(NOT(ISBLANK(J15)), ") ", " "), IF(NOT(ISBLANK(H15)), CONCATENATE(" DEFAULT ", H15), " "), " " )</f>
         <v xml:space="preserve">CREATE TABLE SRV_MST ( SRV_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q15" s="10" t="str">
-        <f t="shared" ref="Q15:Q19" si="14">CONCATENATE(O15, P15)</f>
+        <f t="shared" ref="Q15:Q21" si="6">CONCATENATE(O15, P15)</f>
         <v xml:space="preserve">CREATE TABLE SRV_MST ( SRV_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
@@ -4829,8 +4841,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="11" t="s">
         <v>86</v>
       </c>
@@ -4854,15 +4866,15 @@
         <v>private double srv_nm;</v>
       </c>
       <c r="N16" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="O16" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,SRV_NM VARCHAR (100)   </v>
       </c>
       <c r="Q16" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">,SRV_NM VARCHAR (100)   </v>
       </c>
     </row>
@@ -4870,8 +4882,8 @@
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="11" t="s">
         <v>87</v>
       </c>
@@ -4895,15 +4907,15 @@
         <v>private double srv_desc;</v>
       </c>
       <c r="N17" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="O17" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q17" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
       </c>
     </row>
@@ -4911,8 +4923,8 @@
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="11" t="s">
         <v>88</v>
       </c>
@@ -4939,15 +4951,15 @@
         <v>174</v>
       </c>
       <c r="N18" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="O18" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,SRV_TP VARCHAR (10)   </v>
       </c>
       <c r="Q18" s="10" t="str">
-        <f>CONCATENATE(O18, P18)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">,SRV_TP VARCHAR (10)   </v>
       </c>
     </row>
@@ -4955,8 +4967,8 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="11" t="s">
         <v>83</v>
       </c>
@@ -4977,15 +4989,15 @@
         <v>private int sorts;</v>
       </c>
       <c r="N19" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="O19" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q19" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">,SORTS INT    </v>
       </c>
     </row>
@@ -4993,8 +5005,8 @@
       <c r="A20" s="8">
         <v>28</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
@@ -5017,15 +5029,15 @@
         <v>private Date reg_dt;</v>
       </c>
       <c r="N20" s="8" t="str">
-        <f t="shared" ref="N20:N21" si="15">IF(ISBLANK(B20), ",", CONCATENATE("CREATE TABLE ", B20, " ( "))</f>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="O20" s="8" t="str">
-        <f t="shared" ref="O20:O21" si="16">CONCATENATE(N20, D20, " ", I20, IF(NOT(ISBLANK(J20)), " (", " "), J20, IF(NOT(ISBLANK(J20)), ") ", " "), IF(NOT(ISBLANK(H20)), CONCATENATE(" DEFAULT ", H20), " "), " " )</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q20" s="10" t="str">
-        <f t="shared" ref="Q20:Q21" si="17">CONCATENATE(O20, P20)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
@@ -5033,8 +5045,8 @@
       <c r="A21" s="8">
         <v>30</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="11" t="s">
         <v>80</v>
       </c>
@@ -5055,18 +5067,18 @@
         <v>private Date mod_dt;</v>
       </c>
       <c r="N21" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="O21" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,MOD_DT DATETIME    </v>
       </c>
       <c r="P21" s="12" t="s">
         <v>189</v>
       </c>
       <c r="Q21" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_ID)); </v>
       </c>
     </row>
@@ -5074,10 +5086,10 @@
       <c r="A22" s="8">
         <v>14</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -5104,15 +5116,15 @@
         <v>private long srv_id;</v>
       </c>
       <c r="N22" s="8" t="str">
-        <f t="shared" ref="N22:N40" si="18">IF(ISBLANK(B22), ",", CONCATENATE("CREATE TABLE ", B22, " ( "))</f>
+        <f t="shared" ref="N22:N39" si="7">IF(ISBLANK(B22), ",", CONCATENATE("CREATE TABLE ", B22, " ( "))</f>
         <v xml:space="preserve">CREATE TABLE PARM_MST ( </v>
       </c>
       <c r="O22" s="8" t="str">
-        <f t="shared" ref="O22:O26" si="19">CONCATENATE(N22, D22, " ", I22, IF(NOT(ISBLANK(J22)), " (", " "), J22, IF(NOT(ISBLANK(J22)), ") ", " "), IF(NOT(ISBLANK(H22)), CONCATENATE(" DEFAULT ", H22), " "), " " )</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">CREATE TABLE PARM_MST ( SRV_ID BIGINT    </v>
       </c>
       <c r="Q22" s="10" t="str">
-        <f t="shared" ref="Q22:Q40" si="20">CONCATENATE(O22, P22)</f>
+        <f t="shared" ref="Q22:Q39" si="8">CONCATENATE(O22, P22)</f>
         <v xml:space="preserve">CREATE TABLE PARM_MST ( SRV_ID BIGINT    </v>
       </c>
     </row>
@@ -5120,8 +5132,8 @@
       <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="11" t="s">
         <v>97</v>
       </c>
@@ -5149,15 +5161,15 @@
         <v>private double parm_id;</v>
       </c>
       <c r="N23" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O23" s="8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,PARM_ID VARCHAR (100)   </v>
       </c>
       <c r="Q23" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,PARM_ID VARCHAR (100)   </v>
       </c>
     </row>
@@ -5165,8 +5177,8 @@
       <c r="A24" s="8">
         <v>16</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="11" t="s">
         <v>98</v>
       </c>
@@ -5190,15 +5202,15 @@
         <v>private double parm_desc;</v>
       </c>
       <c r="N24" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O24" s="8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q24" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
       </c>
     </row>
@@ -5206,8 +5218,8 @@
       <c r="A25" s="8">
         <v>16</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="11" t="s">
         <v>172</v>
       </c>
@@ -5234,11 +5246,11 @@
         <v>187</v>
       </c>
       <c r="N25" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O25" s="8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,PARM_TP VARCHAR (10)   </v>
       </c>
       <c r="Q25" s="10" t="str">
@@ -5250,8 +5262,8 @@
       <c r="A26" s="8">
         <v>18</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="11" t="s">
         <v>101</v>
       </c>
@@ -5278,15 +5290,15 @@
         <v>176</v>
       </c>
       <c r="N26" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O26" s="8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,DEF_VAL VARCHAR (100)   </v>
       </c>
       <c r="Q26" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,DEF_VAL VARCHAR (100)   </v>
       </c>
     </row>
@@ -5294,8 +5306,8 @@
       <c r="A27" s="8">
         <v>28</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="11" t="s">
         <v>83</v>
       </c>
@@ -5316,15 +5328,15 @@
         <v>private int sorts;</v>
       </c>
       <c r="N27" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O27" s="8" t="str">
-        <f>CONCATENATE(N27, D27, " ", I27, IF(NOT(ISBLANK(J27)), " (", " "), J27, IF(NOT(ISBLANK(J27)), ") ", " "), IF(NOT(ISBLANK(H27)), CONCATENATE(" DEFAULT ", H27), " "), " " )</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q27" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,SORTS INT    </v>
       </c>
     </row>
@@ -5332,8 +5344,8 @@
       <c r="A28" s="8">
         <v>28</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="11" t="s">
         <v>24</v>
       </c>
@@ -5356,15 +5368,15 @@
         <v>private Date reg_dt;</v>
       </c>
       <c r="N28" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O28" s="8" t="str">
-        <f>CONCATENATE(N28, D28, " ", I28, IF(NOT(ISBLANK(J28)), " (", " "), J28, IF(NOT(ISBLANK(J28)), ") ", " "), IF(NOT(ISBLANK(H28)), CONCATENATE(" DEFAULT ", H28), " "), " " )</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q28" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
@@ -5372,8 +5384,8 @@
       <c r="A29" s="8">
         <v>30</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="11" t="s">
         <v>80</v>
       </c>
@@ -5394,18 +5406,18 @@
         <v>private Date mod_dt;</v>
       </c>
       <c r="N29" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O29" s="8" t="str">
-        <f>CONCATENATE(N29, D29, " ", I29, IF(NOT(ISBLANK(J29)), " (", " "), J29, IF(NOT(ISBLANK(J29)), ") ", " "), IF(NOT(ISBLANK(H29)), CONCATENATE(" DEFAULT ", H29), " "), " " )</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,MOD_DT DATETIME    </v>
       </c>
       <c r="P29" s="12" t="s">
         <v>190</v>
       </c>
       <c r="Q29" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_ID, PARM_ID)); </v>
       </c>
     </row>
@@ -5445,15 +5457,15 @@
         <v>private long srv_seq;</v>
       </c>
       <c r="N30" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">CREATE TABLE SRV_INFO ( </v>
       </c>
       <c r="O30" s="8" t="str">
-        <f t="shared" ref="O30:O37" si="21">CONCATENATE(N30, D30, " ", I30, IF(NOT(ISBLANK(J30)), " (", " "), J30, IF(NOT(ISBLANK(J30)), ") ", " "), IF(NOT(ISBLANK(H30)), CONCATENATE(" DEFAULT ", H30), " "), " " )</f>
+        <f t="shared" ref="O30:O36" si="9">CONCATENATE(N30, D30, " ", I30, IF(NOT(ISBLANK(J30)), " (", " "), J30, IF(NOT(ISBLANK(J30)), ") ", " "), IF(NOT(ISBLANK(H30)), CONCATENATE(" DEFAULT ", H30), " "), " " )</f>
         <v xml:space="preserve">CREATE TABLE SRV_INFO ( SRV_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q30" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CREATE TABLE SRV_INFO ( SRV_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
@@ -5485,15 +5497,15 @@
         <v>private long srv_id;</v>
       </c>
       <c r="N31" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O31" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,SRV_ID BIGINT    </v>
       </c>
       <c r="Q31" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,SRV_ID BIGINT    </v>
       </c>
     </row>
@@ -5504,10 +5516,10 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="11" t="s">
-        <v>87</v>
+        <v>344</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -5523,19 +5535,19 @@
       </c>
       <c r="L32" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double srv_desc;</v>
+        <v>private double srv_detail;</v>
       </c>
       <c r="N32" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O32" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,SRV_DETAIL VARCHAR (255)   </v>
       </c>
       <c r="Q32" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,SRV_DETAIL VARCHAR (255)   </v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
@@ -5567,15 +5579,15 @@
         <v>private double srv_call;</v>
       </c>
       <c r="N33" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O33" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,SRV_CALL VARCHAR (100)   </v>
       </c>
       <c r="Q33" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,SRV_CALL VARCHAR (100)   </v>
       </c>
     </row>
@@ -5608,15 +5620,15 @@
         <v>165</v>
       </c>
       <c r="N34" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O34" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,SRV_DUR INT    </v>
       </c>
       <c r="Q34" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,SRV_DUR INT    </v>
       </c>
     </row>
@@ -5649,15 +5661,15 @@
         <v>166</v>
       </c>
       <c r="N35" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O35" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,PRE_DUR INT    </v>
       </c>
       <c r="Q35" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,PRE_DUR INT    </v>
       </c>
     </row>
@@ -5690,60 +5702,54 @@
         <v>167</v>
       </c>
       <c r="N36" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O36" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,AFT_DUR INT    </v>
       </c>
       <c r="Q36" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,AFT_DUR INT    </v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
-        <v>16</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="11" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="L37" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double map_tp;</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>175</v>
+        <v>private int sorts;</v>
       </c>
       <c r="N37" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O37" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
+        <f>CONCATENATE(N37, D37, " ", I37, IF(NOT(ISBLANK(J37)), " (", " "), J37, IF(NOT(ISBLANK(J37)), ") ", " "), IF(NOT(ISBLANK(H37)), CONCATENATE(" DEFAULT ", H37), " "), " " )</f>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q37" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,MAP_TP VARCHAR (10)   </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,54 +5759,54 @@
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="11" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I38" s="8" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L38" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private int sorts;</v>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N38" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O38" s="8" t="str">
         <f>CONCATENATE(N38, D38, " ", I38, IF(NOT(ISBLANK(J38)), " (", " "), J38, IF(NOT(ISBLANK(J38)), ") ", " "), IF(NOT(ISBLANK(H38)), CONCATENATE(" DEFAULT ", H38), " "), " " )</f>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q38" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="11" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="H39" s="11"/>
       <c r="I39" s="8" t="s">
         <v>46</v>
       </c>
@@ -5809,87 +5815,89 @@
       </c>
       <c r="L39" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private Date reg_dt;</v>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N39" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>,</v>
       </c>
       <c r="O39" s="8" t="str">
-        <f t="shared" ref="O39:O40" si="22">CONCATENATE(N39, D39, " ", I39, IF(NOT(ISBLANK(J39)), " (", " "), J39, IF(NOT(ISBLANK(J39)), ") ", " "), IF(NOT(ISBLANK(H39)), CONCATENATE(" DEFAULT ", H39), " "), " " )</f>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f>CONCATENATE(N39, D39, " ", I39, IF(NOT(ISBLANK(J39)), " (", " "), J39, IF(NOT(ISBLANK(J39)), ") ", " "), IF(NOT(ISBLANK(H39)), CONCATENATE(" DEFAULT ", H39), " "), " " )</f>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="Q39" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ)); </v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
-        <v>30</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>273</v>
+      </c>
       <c r="D40" s="11" t="s">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+        <v>341</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="I40" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L40" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private Date mod_dt;</v>
+        <f t="shared" ref="L40:L46" si="10">CONCATENATE("private ",IF(K40="DT","Date",IF(I40="INT","int",IF(I40="TEXT","String",IF(I40="BIGINT", "long", "double")))), " ", LOWER(D40), ";")</f>
+        <v>private long msn_seq;</v>
       </c>
       <c r="N40" s="8" t="str">
-        <f t="shared" si="18"/>
-        <v>,</v>
+        <f t="shared" ref="N40:N46" si="11">IF(ISBLANK(B40), ",", CONCATENATE("CREATE TABLE ", B40, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( </v>
       </c>
       <c r="O40" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>274</v>
+        <f t="shared" ref="O40:O46" si="12">CONCATENATE(N40, D40, " ", I40, IF(NOT(ISBLANK(J40)), " (", " "), J40, IF(NOT(ISBLANK(J40)), ") ", " "), IF(NOT(ISBLANK(H40)), CONCATENATE(" DEFAULT ", H40), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q40" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ)); </v>
+        <f t="shared" ref="Q40:Q46" si="13">CONCATENATE(O40, P40)</f>
+        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
-        <v>14</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>273</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="11" t="s">
-        <v>340</v>
+        <v>191</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>7</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F41" s="11"/>
       <c r="G41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="H41" s="11"/>
       <c r="I41" s="8" t="s">
         <v>47</v>
       </c>
@@ -5897,20 +5905,20 @@
         <v>34</v>
       </c>
       <c r="L41" s="8" t="str">
-        <f t="shared" ref="L41:L47" si="23">CONCATENATE("private ",IF(K41="DT","Date",IF(I41="INT","int",IF(I41="TEXT","String",IF(I41="BIGINT", "long", "double")))), " ", LOWER(D41), ";")</f>
-        <v>private long msn_seq;</v>
+        <f t="shared" si="10"/>
+        <v>private long srv_seq;</v>
       </c>
       <c r="N41" s="8" t="str">
-        <f t="shared" ref="N41:N47" si="24">IF(ISBLANK(B41), ",", CONCATENATE("CREATE TABLE ", B41, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( </v>
+        <f t="shared" si="11"/>
+        <v>,</v>
       </c>
       <c r="O41" s="8" t="str">
-        <f t="shared" ref="O41:O47" si="25">CONCATENATE(N41, D41, " ", I41, IF(NOT(ISBLANK(J41)), " (", " "), J41, IF(NOT(ISBLANK(J41)), ") ", " "), IF(NOT(ISBLANK(H41)), CONCATENATE(" DEFAULT ", H41), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f>CONCATENATE(N41, D41, " ", I41, IF(NOT(ISBLANK(J41)), " (", " "), J41, IF(NOT(ISBLANK(J41)), ") ", " "), IF(NOT(ISBLANK(H41)), CONCATENATE(" DEFAULT ", H41), " "), " " )</f>
+        <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
       </c>
       <c r="Q41" s="10" t="str">
-        <f t="shared" ref="Q41:Q45" si="26">CONCATENATE(O41, P41)</f>
-        <v xml:space="preserve">CREATE TABLE MSN_SRV_INFO ( MSN_SEQ BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
@@ -5920,10 +5928,10 @@
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="11" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11" t="s">
@@ -5937,33 +5945,33 @@
         <v>34</v>
       </c>
       <c r="L42" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>private long srv_seq;</v>
+        <f t="shared" si="10"/>
+        <v>private long msn_id;</v>
       </c>
       <c r="N42" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O42" s="8" t="str">
-        <f t="shared" ref="O42" si="27">CONCATENATE(N42, D42, " ", I42, IF(NOT(ISBLANK(J42)), " (", " "), J42, IF(NOT(ISBLANK(J42)), ") ", " "), IF(NOT(ISBLANK(H42)), CONCATENATE(" DEFAULT ", H42), " "), " " )</f>
-        <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
       <c r="Q42" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">,SRV_SEQ BIGINT    </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11" t="s">
@@ -5977,60 +5985,58 @@
         <v>34</v>
       </c>
       <c r="L43" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>private long msn_id;</v>
+        <f t="shared" si="10"/>
+        <v>private long srv_id;</v>
       </c>
       <c r="N43" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O43" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">,MSN_ID BIGINT    </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,SRV_ID BIGINT    </v>
       </c>
       <c r="Q43" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">,MSN_ID BIGINT    </v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,SRV_ID BIGINT    </v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
-        <v>18</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="L44" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>private long srv_id;</v>
+        <f t="shared" si="10"/>
+        <v>private int sorts;</v>
       </c>
       <c r="N44" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O44" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">,SRV_ID BIGINT    </v>
+        <f>CONCATENATE(N44, D44, " ", I44, IF(NOT(ISBLANK(J44)), " (", " "), J44, IF(NOT(ISBLANK(J44)), ") ", " "), IF(NOT(ISBLANK(H44)), CONCATENATE(" DEFAULT ", H44), " "), " " )</f>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q44" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">,SRV_ID BIGINT    </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,54 +6046,54 @@
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="11" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="H45" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I45" s="8" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L45" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>private int sorts;</v>
+        <f t="shared" si="10"/>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N45" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O45" s="8" t="str">
-        <f>CONCATENATE(N45, D45, " ", I45, IF(NOT(ISBLANK(J45)), " (", " "), J45, IF(NOT(ISBLANK(J45)), ") ", " "), IF(NOT(ISBLANK(H45)), CONCATENATE(" DEFAULT ", H45), " "), " " )</f>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q45" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="11" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="H46" s="11"/>
       <c r="I46" s="8" t="s">
         <v>46</v>
       </c>
@@ -6095,78 +6101,82 @@
         <v>11</v>
       </c>
       <c r="L46" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="10"/>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N46" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O46" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="Q46" s="10" t="str">
-        <f t="shared" ref="Q46:Q47" si="28">CONCATENATE(O46, P46)</f>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_SEQ)); </v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
-        <v>30</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="D47" s="11" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+        <v>194</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H47" s="11"/>
       <c r="I47" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L47" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>private Date mod_dt;</v>
+        <f t="shared" si="3"/>
+        <v>private long srv_seq;</v>
       </c>
       <c r="N47" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v>,</v>
+        <f t="shared" ref="N47:N60" si="14">IF(ISBLANK(B47), ",", CONCATENATE("CREATE TABLE ", B47, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE PARM_INFO ( </v>
       </c>
       <c r="O47" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P47" s="12" t="s">
-        <v>342</v>
+        <f t="shared" ref="O47:O60" si="15">CONCATENATE(N47, D47, " ", I47, IF(NOT(ISBLANK(J47)), " (", " "), J47, IF(NOT(ISBLANK(J47)), ") ", " "), IF(NOT(ISBLANK(H47)), CONCATENATE(" DEFAULT ", H47), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
       </c>
       <c r="Q47" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(MSN_SEQ)); </v>
+        <f t="shared" ref="Q47:Q72" si="16">CONCATENATE(O47, P47)</f>
+        <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
-        <v>14</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>58</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="11" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>7</v>
@@ -6176,46 +6186,45 @@
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="J48" s="8">
+        <v>50</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L48" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private long srv_seq;</v>
+        <f>CONCATENATE("private ",IF(K48="DT","Date",IF(I48="INT","int",IF(I48="TEXT","String",IF(I48="BIGINT", "long", "double")))), " ", LOWER(D48), ";")</f>
+        <v>private double parm_id;</v>
       </c>
       <c r="N48" s="8" t="str">
-        <f t="shared" ref="N48:N63" si="29">IF(ISBLANK(B48), ",", CONCATENATE("CREATE TABLE ", B48, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE PARM_INFO ( </v>
+        <f t="shared" si="14"/>
+        <v>,</v>
       </c>
       <c r="O48" s="8" t="str">
-        <f t="shared" ref="O48:O63" si="30">CONCATENATE(N48, D48, " ", I48, IF(NOT(ISBLANK(J48)), " (", " "), J48, IF(NOT(ISBLANK(J48)), ") ", " "), IF(NOT(ISBLANK(H48)), CONCATENATE(" DEFAULT ", H48), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
       </c>
       <c r="Q48" s="10" t="str">
-        <f t="shared" ref="Q48:Q75" si="31">CONCATENATE(O48, P48)</f>
-        <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="11" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="8" t="s">
         <v>45</v>
@@ -6224,313 +6233,298 @@
         <v>50</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L49" s="8" t="str">
-        <f t="shared" ref="L49:L50" si="32">CONCATENATE("private ",IF(K49="DT","Date",IF(I49="INT","int",IF(I49="TEXT","String",IF(I49="BIGINT", "long", "double")))), " ", LOWER(D49), ";")</f>
-        <v>private double parm_id;</v>
+        <f t="shared" si="3"/>
+        <v>private double parm_val;</v>
       </c>
       <c r="N49" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="O49" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
       </c>
       <c r="Q49" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
-        <v>16</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="11" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50" s="8">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L50" s="8" t="str">
-        <f t="shared" si="32"/>
-        <v>private double parm_desc;</v>
+        <f t="shared" si="3"/>
+        <v>private int sorts;</v>
       </c>
       <c r="N50" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="O50" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q50" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,PARM_DESC VARCHAR (255)   </v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,SORTS INT    </v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>18</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="11" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="H51" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I51" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J51" s="8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double def_val;</v>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N51" s="8" t="str">
-        <f t="shared" ref="N51" si="33">IF(ISBLANK(B51), ",", CONCATENATE("CREATE TABLE ", B51, " ( "))</f>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="O51" s="8" t="str">
-        <f t="shared" ref="O51" si="34">CONCATENATE(N51, D51, " ", I51, IF(NOT(ISBLANK(J51)), " (", " "), J51, IF(NOT(ISBLANK(J51)), ") ", " "), IF(NOT(ISBLANK(H51)), CONCATENATE(" DEFAULT ", H51), " "), " " )</f>
-        <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q51" s="10" t="str">
-        <f t="shared" ref="Q51" si="35">CONCATENATE(O51, P51)</f>
-        <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
-        <v>18</v>
-      </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J52" s="8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L52" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private double parm_val;</v>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N52" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="O52" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="Q52" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ, PARM_ID)); </v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
-        <v>18</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I53" s="8" t="s">
-        <v>48</v>
+        <v>211</v>
+      </c>
+      <c r="J53" s="8">
+        <v>50</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="L53" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private int sorts;</v>
+        <f t="shared" ref="L53:L72" si="17">CONCATENATE("private ",IF(K53="DT","Date",IF(I53="INTEGER","int",IF(I53="TEXT","String","double"))), " ", LOWER(D53), ";")</f>
+        <v>private double admin_id;</v>
       </c>
       <c r="N53" s="8" t="str">
-        <f t="shared" si="29"/>
-        <v>,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( </v>
       </c>
       <c r="O53" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
       </c>
       <c r="Q53" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,SORTS INT    </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
-        <v>18</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+        <v>15</v>
+      </c>
       <c r="D54" s="11" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="8" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>46</v>
+        <v>211</v>
+      </c>
+      <c r="J54" s="8">
+        <v>50</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="L54" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="17"/>
+        <v>private double admin_nm;</v>
       </c>
       <c r="N54" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(ISBLANK(B54), ",", CONCATENATE("CREATE TABLE ", B54, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O54" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f>CONCATENATE(N54, D54, " ", I54, IF(NOT(ISBLANK(J54)), " (", " "), J54, IF(NOT(ISBLANK(J54)), ") ", " "), IF(NOT(ISBLANK(H54)), CONCATENATE(" DEFAULT ", H54), " "), " " )</f>
+        <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
       </c>
       <c r="Q54" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
-        <v>30</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+        <v>15</v>
+      </c>
       <c r="D55" s="11" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+        <v>9</v>
+      </c>
       <c r="I55" s="8" t="s">
-        <v>46</v>
+        <v>217</v>
+      </c>
+      <c r="J55" s="8">
+        <v>50</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="L55" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private Date mod_dt;</v>
+        <f t="shared" si="17"/>
+        <v>private double tel_no;</v>
       </c>
       <c r="N55" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="O55" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P55" s="12" t="s">
-        <v>204</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
       </c>
       <c r="Q55" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ, PARM_ID)); </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
-        <v>14</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J56" s="8">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L56" s="8" t="str">
-        <f t="shared" ref="L56:L75" si="36">CONCATENATE("private ",IF(K56="DT","Date",IF(I56="INTEGER","int",IF(I56="TEXT","String","double"))), " ", LOWER(D56), ";")</f>
-        <v>private double admin_id;</v>
+        <f t="shared" si="17"/>
+        <v>private double email;</v>
       </c>
       <c r="N56" s="8" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( </v>
+        <f t="shared" si="14"/>
+        <v>,</v>
       </c>
       <c r="O56" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
       </c>
       <c r="Q56" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,176 +6532,188 @@
         <v>15</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="J57" s="8">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L57" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double admin_nm;</v>
+        <f t="shared" si="17"/>
+        <v>private double auto_login;</v>
       </c>
       <c r="N57" s="8" t="str">
-        <f>IF(ISBLANK(B57), ",", CONCATENATE("CREATE TABLE ", B57, " ( "))</f>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="O57" s="8" t="str">
-        <f>CONCATENATE(N57, D57, " ", I57, IF(NOT(ISBLANK(J57)), " (", " "), J57, IF(NOT(ISBLANK(J57)), ") ", " "), IF(NOT(ISBLANK(H57)), CONCATENATE(" DEFAULT ", H57), " "), " " )</f>
-        <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,AUTO_LOGIN INT    </v>
       </c>
       <c r="Q57" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,AUTO_LOGIN INT    </v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J58" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="L58" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double tel_no;</v>
+        <f t="shared" si="17"/>
+        <v>private double passwd;</v>
       </c>
       <c r="N58" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(ISBLANK(B58), ",", CONCATENATE("CREATE TABLE ", B58, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O58" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
+        <f>CONCATENATE(N58, D58, " ", I58, IF(NOT(ISBLANK(J58)), " (", " "), J58, IF(NOT(ISBLANK(J58)), ") ", " "), IF(NOT(ISBLANK(H58)), CONCATENATE(" DEFAULT ", H58), " "), " " )</f>
+        <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
       </c>
       <c r="Q58" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>217</v>
       </c>
       <c r="J59" s="8">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L59" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double email;</v>
+        <f t="shared" si="17"/>
+        <v>private double auth_level;</v>
       </c>
       <c r="N59" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(ISBLANK(B59), ",", CONCATENATE("CREATE TABLE ", B59, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O59" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
+        <f>CONCATENATE(N59, D59, " ", I59, IF(NOT(ISBLANK(J59)), " (", " "), J59, IF(NOT(ISBLANK(J59)), ") ", " "), IF(NOT(ISBLANK(H59)), CONCATENATE(" DEFAULT ", H59), " "), " " )</f>
+        <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
       </c>
       <c r="Q59" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="L60" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double auto_login;</v>
+        <f t="shared" si="17"/>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N60" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="14"/>
         <v>,</v>
       </c>
       <c r="O60" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,AUTO_LOGIN INT    </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,REG_DT DATETIME    </v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="Q60" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,AUTO_LOGIN INT    </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
-        <v>23</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>225</v>
+        <v>14</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="J61" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="L61" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double passwd;</v>
+        <f t="shared" si="17"/>
+        <v>private double admin_id;</v>
       </c>
       <c r="N61" s="8" t="str">
         <f>IF(ISBLANK(B61), ",", CONCATENATE("CREATE TABLE ", B61, " ( "))</f>
-        <v>,</v>
+        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( </v>
       </c>
       <c r="O61" s="8" t="str">
         <f>CONCATENATE(N61, D61, " ", I61, IF(NOT(ISBLANK(J61)), " (", " "), J61, IF(NOT(ISBLANK(J61)), ") ", " "), IF(NOT(ISBLANK(H61)), CONCATENATE(" DEFAULT ", H61), " "), " " )</f>
-        <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
+        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
       </c>
       <c r="Q61" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6721,19 @@
         <v>15</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>227</v>
+        <v>237</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J62" s="8">
         <v>50</v>
@@ -6730,8 +6742,8 @@
         <v>212</v>
       </c>
       <c r="L62" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double auth_level;</v>
+        <f t="shared" si="17"/>
+        <v>private double auto_login_key;</v>
       </c>
       <c r="N62" s="8" t="str">
         <f>IF(ISBLANK(B62), ",", CONCATENATE("CREATE TABLE ", B62, " ( "))</f>
@@ -6739,106 +6751,100 @@
       </c>
       <c r="O62" s="8" t="str">
         <f>CONCATENATE(N62, D62, " ", I62, IF(NOT(ISBLANK(J62)), " (", " "), J62, IF(NOT(ISBLANK(J62)), ") ", " "), IF(NOT(ISBLANK(H62)), CONCATENATE(" DEFAULT ", H62), " "), " " )</f>
-        <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
+        <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
       </c>
       <c r="Q62" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>230</v>
+        <v>211</v>
+      </c>
+      <c r="J63" s="8">
+        <v>50</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="L63" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="17"/>
+        <v>private double remote_addr;</v>
       </c>
       <c r="N63" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(ISBLANK(B63), ",", CONCATENATE("CREATE TABLE ", B63, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O63" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,REG_DT DATETIME    </v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>232</v>
+        <f>CONCATENATE(N63, D63, " ", I63, IF(NOT(ISBLANK(J63)), " (", " "), J63, IF(NOT(ISBLANK(J63)), ") ", " "), IF(NOT(ISBLANK(H63)), CONCATENATE(" DEFAULT ", H63), " "), " " )</f>
+        <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
       </c>
       <c r="Q63" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
-        <v>14</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J64" s="8">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="L64" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double admin_id;</v>
+        <f t="shared" si="17"/>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N64" s="8" t="str">
         <f>IF(ISBLANK(B64), ",", CONCATENATE("CREATE TABLE ", B64, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( </v>
+        <v>,</v>
       </c>
       <c r="O64" s="8" t="str">
         <f>CONCATENATE(N64, D64, " ", I64, IF(NOT(ISBLANK(J64)), " (", " "), J64, IF(NOT(ISBLANK(J64)), ") ", " "), IF(NOT(ISBLANK(H64)), CONCATENATE(" DEFAULT ", H64), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
+        <v xml:space="preserve">,REG_DT DATETIME    </v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="Q64" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID, AUTO_LOGIN_KEY)); </v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>7</v>
@@ -6847,29 +6853,29 @@
         <v>8</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="J65" s="8">
         <v>50</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L65" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double auto_login_key;</v>
+        <f t="shared" si="17"/>
+        <v>private double robo_id;</v>
       </c>
       <c r="N65" s="8" t="str">
-        <f>IF(ISBLANK(B65), ",", CONCATENATE("CREATE TABLE ", B65, " ( "))</f>
-        <v>,</v>
+        <f t="shared" ref="N65:N72" si="18">IF(ISBLANK(B65), ",", CONCATENATE("CREATE TABLE ", B65, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE ROBO_MST ( </v>
       </c>
       <c r="O65" s="8" t="str">
-        <f>CONCATENATE(N65, D65, " ", I65, IF(NOT(ISBLANK(J65)), " (", " "), J65, IF(NOT(ISBLANK(J65)), ") ", " "), IF(NOT(ISBLANK(H65)), CONCATENATE(" DEFAULT ", H65), " "), " " )</f>
-        <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
+        <f t="shared" ref="O65:O72" si="19">CONCATENATE(N65, D65, " ", I65, IF(NOT(ISBLANK(J65)), " (", " "), J65, IF(NOT(ISBLANK(J65)), ") ", " "), IF(NOT(ISBLANK(H65)), CONCATENATE(" DEFAULT ", H65), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
       </c>
       <c r="Q65" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,495 +6883,489 @@
         <v>15</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="J66" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L66" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double remote_addr;</v>
+        <f t="shared" si="17"/>
+        <v>private double robo_nm;</v>
       </c>
       <c r="N66" s="8" t="str">
-        <f>IF(ISBLANK(B66), ",", CONCATENATE("CREATE TABLE ", B66, " ( "))</f>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O66" s="8" t="str">
-        <f>CONCATENATE(N66, D66, " ", I66, IF(NOT(ISBLANK(J66)), " (", " "), J66, IF(NOT(ISBLANK(J66)), ") ", " "), IF(NOT(ISBLANK(H66)), CONCATENATE(" DEFAULT ", H66), " "), " " )</f>
-        <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
       </c>
       <c r="Q66" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>240</v>
+        <v>45</v>
+      </c>
+      <c r="J67" s="8">
+        <v>255</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="L67" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="17"/>
+        <v>private double robo_desc;</v>
       </c>
       <c r="N67" s="8" t="str">
-        <f>IF(ISBLANK(B67), ",", CONCATENATE("CREATE TABLE ", B67, " ( "))</f>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O67" s="8" t="str">
-        <f>CONCATENATE(N67, D67, " ", I67, IF(NOT(ISBLANK(J67)), " (", " "), J67, IF(NOT(ISBLANK(J67)), ") ", " "), IF(NOT(ISBLANK(H67)), CONCATENATE(" DEFAULT ", H67), " "), " " )</f>
-        <v xml:space="preserve">,REG_DT DATETIME    </v>
-      </c>
-      <c r="P67" s="8" t="s">
-        <v>242</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q67" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID, AUTO_LOGIN_KEY)); </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
-        <v>14</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J68" s="8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>12</v>
       </c>
       <c r="L68" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double robo_id;</v>
+        <f t="shared" si="17"/>
+        <v>private double ip_addr;</v>
       </c>
       <c r="N68" s="8" t="str">
-        <f t="shared" ref="N68:N75" si="37">IF(ISBLANK(B68), ",", CONCATENATE("CREATE TABLE ", B68, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE ROBO_MST ( </v>
+        <f t="shared" si="18"/>
+        <v>,</v>
       </c>
       <c r="O68" s="8" t="str">
-        <f t="shared" ref="O68:O75" si="38">CONCATENATE(N68, D68, " ", I68, IF(NOT(ISBLANK(J68)), " (", " "), J68, IF(NOT(ISBLANK(J68)), ") ", " "), IF(NOT(ISBLANK(H68)), CONCATENATE(" DEFAULT ", H68), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,IP_ADDR VARCHAR (20)   </v>
       </c>
       <c r="Q68" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
+        <f>CONCATENATE(O68, P68)</f>
+        <v xml:space="preserve">,IP_ADDR VARCHAR (20)   </v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="H69" s="8">
+        <v>1</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J69" s="8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="L69" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double robo_nm;</v>
+        <f t="shared" si="17"/>
+        <v>private double robo_tp;</v>
       </c>
       <c r="N69" s="8" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O69" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,ROBO_TP VARCHAR (10)  DEFAULT 1 </v>
       </c>
       <c r="Q69" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
+        <f>CONCATENATE(O69, P69)</f>
+        <v xml:space="preserve">,ROBO_TP VARCHAR (10)  DEFAULT 1 </v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>250</v>
+        <v>255</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>256</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J70" s="8">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="L70" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double robo_desc;</v>
+        <f t="shared" si="17"/>
+        <v>private double state;</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="N70" s="8" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O70" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,STATE VARCHAR (10)   </v>
       </c>
       <c r="Q70" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,STATE VARCHAR (10)   </v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>251</v>
+        <v>24</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>252</v>
+        <v>25</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J71" s="8">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L71" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double ip_addr;</v>
+        <f t="shared" si="17"/>
+        <v>private Date reg_dt;</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="N71" s="8" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O71" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,IP_ADDR VARCHAR (20)   </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q71" s="10" t="str">
-        <f>CONCATENATE(O71, P71)</f>
-        <v xml:space="preserve">,IP_ADDR VARCHAR (20)   </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H72" s="8">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J72" s="8">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="L72" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double robo_tp;</v>
+        <f t="shared" si="17"/>
+        <v>private Date mod_dt;</v>
       </c>
       <c r="N72" s="8" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
       <c r="O72" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,ROBO_TP VARCHAR (10)  DEFAULT 1 </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    </v>
+      </c>
+      <c r="P72" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="Q72" s="10" t="str">
-        <f>CONCATENATE(O72, P72)</f>
-        <v xml:space="preserve">,ROBO_TP VARCHAR (10)  DEFAULT 1 </v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(ROBO_ID)); </v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>256</v>
+        <v>76</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J73" s="8">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="L73" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private double state;</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>257</v>
+        <f t="shared" si="3"/>
+        <v>private long msn_id;</v>
       </c>
       <c r="N73" s="8" t="str">
-        <f t="shared" si="37"/>
-        <v>,</v>
+        <f t="shared" ref="N73:N85" si="20">IF(ISBLANK(B73), ",", CONCATENATE("CREATE TABLE ", B73, " ( "))</f>
+        <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( </v>
       </c>
       <c r="O73" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,STATE VARCHAR (10)   </v>
+        <f t="shared" ref="O73:O85" si="21">CONCATENATE(N73, D73, " ", I73, IF(NOT(ISBLANK(J73)), " (", " "), J73, IF(NOT(ISBLANK(J73)), ") ", " "), IF(NOT(ISBLANK(H73)), CONCATENATE(" DEFAULT ", H73), " "), " " )</f>
+        <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q73" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,STATE VARCHAR (10)   </v>
+        <f t="shared" ref="Q73:Q85" si="22">CONCATENATE(O73, P73)</f>
+        <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
       <c r="D74" s="11" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="8" t="s">
-        <v>201</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="11"/>
       <c r="I74" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L74" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private Date reg_dt;</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>258</v>
+        <f t="shared" si="3"/>
+        <v>private long msn_seq;</v>
       </c>
       <c r="N74" s="8" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(ISBLANK(B74), ",", CONCATENATE("CREATE TABLE ", B74, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O74" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
       <c r="Q74" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+        <f>CONCATENATE(O74, P74)</f>
+        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="11" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H75" s="11"/>
       <c r="I75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L75" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>private int exe_seq;</v>
+      </c>
+      <c r="N75" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>,</v>
+      </c>
+      <c r="O75" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,EXE_SEQ INT    </v>
+      </c>
+      <c r="Q75" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,EXE_SEQ INT    </v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>15</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="K76" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="L75" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v>private Date mod_dt;</v>
-      </c>
-      <c r="N75" s="8" t="str">
-        <f t="shared" si="37"/>
-        <v>,</v>
-      </c>
-      <c r="O75" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    </v>
-      </c>
-      <c r="P75" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q75" s="10" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(ROBO_ID)); </v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
-        <v>14</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="L76" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private long msn_id;</v>
+        <v>private Date exe_dt;</v>
       </c>
       <c r="N76" s="8" t="str">
-        <f t="shared" ref="N76:N88" si="39">IF(ISBLANK(B76), ",", CONCATENATE("CREATE TABLE ", B76, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( </v>
+        <f>IF(ISBLANK(B76), ",", CONCATENATE("CREATE TABLE ", B76, " ( "))</f>
+        <v>,</v>
       </c>
       <c r="O76" s="8" t="str">
-        <f t="shared" ref="O76:O88" si="40">CONCATENATE(N76, D76, " ", I76, IF(NOT(ISBLANK(J76)), " (", " "), J76, IF(NOT(ISBLANK(J76)), ") ", " "), IF(NOT(ISBLANK(H76)), CONCATENATE(" DEFAULT ", H76), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,EXE_DT DATETIME    </v>
       </c>
       <c r="Q76" s="10" t="str">
-        <f t="shared" ref="Q76:Q88" si="41">CONCATENATE(O76, P76)</f>
-        <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
+        <f>CONCATENATE(O76, P76)</f>
+        <v xml:space="preserve">,EXE_DT DATETIME    </v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L77" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private long msn_seq;</v>
+        <v>private Date end_dt;</v>
       </c>
       <c r="N77" s="8" t="str">
-        <f>IF(ISBLANK(B77), ",", CONCATENATE("CREATE TABLE ", B77, " ( "))</f>
+        <f t="shared" si="20"/>
         <v>,</v>
       </c>
       <c r="O77" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,END_DT DATETIME    </v>
       </c>
       <c r="Q77" s="10" t="str">
-        <f>CONCATENATE(O77, P77)</f>
-        <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,END_DT DATETIME    </v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="8" t="s">
         <v>48</v>
@@ -7375,187 +7375,198 @@
       </c>
       <c r="L78" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>private int exe_seq;</v>
+        <v>private int exe_dur;</v>
       </c>
       <c r="N78" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="20"/>
         <v>,</v>
       </c>
       <c r="O78" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,EXE_SEQ INT    </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,EXE_DUR INT    </v>
       </c>
       <c r="Q78" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,EXE_SEQ INT    </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,EXE_DUR INT    </v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
+      <c r="H79" s="11">
+        <v>0</v>
+      </c>
       <c r="I79" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L79" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private Date exe_dt;</v>
+        <f t="shared" ref="L79:L91" si="23">CONCATENATE("private ",IF(K79="DT","Date",IF(I79="INT","int",IF(I79="TEXT","String",IF(I79="BIGINT", "long", "double")))), " ", LOWER(D79), ";")</f>
+        <v>private int exe_res;</v>
       </c>
       <c r="N79" s="8" t="str">
-        <f>IF(ISBLANK(B79), ",", CONCATENATE("CREATE TABLE ", B79, " ( "))</f>
+        <f t="shared" si="20"/>
         <v>,</v>
       </c>
       <c r="O79" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,EXE_DT DATETIME    </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
       </c>
       <c r="Q79" s="10" t="str">
-        <f>CONCATENATE(O79, P79)</f>
-        <v xml:space="preserve">,EXE_DT DATETIME    </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="J80" s="8">
+        <v>10000</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L80" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private Date end_dt;</v>
+        <f t="shared" si="23"/>
+        <v>private double res_msg;</v>
       </c>
       <c r="N80" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="20"/>
         <v>,</v>
       </c>
       <c r="O80" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,END_DT DATETIME    </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
       </c>
       <c r="Q80" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,END_DT DATETIME    </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
+      <c r="H81" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="I81" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L81" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>private int exe_dur;</v>
+        <f t="shared" si="23"/>
+        <v>private Date reg_dt;</v>
       </c>
       <c r="N81" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="20"/>
         <v>,</v>
       </c>
       <c r="O81" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,EXE_DUR INT    </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
+      </c>
+      <c r="P81" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="Q81" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,EXE_DUR INT    </v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() , PRIMARY KEY(CLASS_DT, CLASS_ID, USER_ID)); </v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
-        <v>28</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="11"/>
       <c r="I82" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="J82" s="8">
+        <v>50</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L82" s="8" t="str">
-        <f t="shared" ref="L82:L94" si="42">CONCATENATE("private ",IF(K82="DT","Date",IF(I82="INT","int",IF(I82="TEXT","String",IF(I82="BIGINT", "long", "double")))), " ", LOWER(D82), ";")</f>
-        <v>private int exe_res;</v>
+        <f t="shared" si="23"/>
+        <v>private long ;</v>
       </c>
       <c r="N82" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v>,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG ( </v>
       </c>
       <c r="O82" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
       </c>
       <c r="Q82" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
-      <c r="D83" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>199</v>
-      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -7563,119 +7574,105 @@
         <v>45</v>
       </c>
       <c r="J83" s="8">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L83" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private double res_msg;</v>
+        <f t="shared" si="23"/>
+        <v>private double ;</v>
       </c>
       <c r="N83" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="20"/>
         <v>,</v>
       </c>
       <c r="O83" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
       <c r="Q83" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="H84" s="11"/>
       <c r="I84" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="J84" s="8">
+        <v>1000</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L84" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private Date reg_dt;</v>
+        <f t="shared" si="23"/>
+        <v>private double ;</v>
       </c>
       <c r="N84" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="20"/>
         <v>,</v>
       </c>
       <c r="O84" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
-      </c>
-      <c r="P84" s="12" t="s">
-        <v>51</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q84" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() , PRIMARY KEY(CLASS_DT, CLASS_ID, USER_ID)); </v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
-        <v>14</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>60</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J85" s="8">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L85" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private long ;</v>
+        <f t="shared" si="23"/>
+        <v>private double ;</v>
       </c>
       <c r="N85" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG ( </v>
+        <f t="shared" si="20"/>
+        <v>,</v>
       </c>
       <c r="O85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q85" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -7685,71 +7682,79 @@
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J86" s="8">
+        <v>46</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v>private Date ;</v>
+      </c>
+      <c r="N86" s="8" t="str">
+        <f t="shared" ref="N86:N91" si="24">IF(ISBLANK(B86), ",", CONCATENATE("CREATE TABLE ", B86, " ( "))</f>
+        <v>,</v>
+      </c>
+      <c r="O86" s="8" t="str">
+        <f t="shared" ref="O86:O91" si="25">CONCATENATE(N86, D86, " ", I86, IF(NOT(ISBLANK(J86)), " (", " "), J86, IF(NOT(ISBLANK(J86)), ") ", " "), IF(NOT(ISBLANK(H86)), CONCATENATE(" DEFAULT ", H86), " "), " " )</f>
+        <v xml:space="preserve">, DATETIME    </v>
+      </c>
+      <c r="P86" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K86" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L86" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private double ;</v>
-      </c>
-      <c r="N86" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v>,</v>
-      </c>
-      <c r="O86" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">, VARCHAR (50)   </v>
-      </c>
       <c r="Q86" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">, VARCHAR (50)   </v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q86:Q91" si="26">CONCATENATE(O86, P86)</f>
+        <v xml:space="preserve">, DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
-        <v>15</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
+      <c r="F87" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H87" s="11"/>
       <c r="I87" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J87" s="8">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="L87" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private double ;</v>
+        <f t="shared" si="23"/>
+        <v>private long ;</v>
       </c>
       <c r="N87" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v>,</v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG ( </v>
       </c>
       <c r="O87" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">, VARCHAR (1000)   </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
       </c>
       <c r="Q87" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">, VARCHAR (1000)   </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -7762,31 +7767,31 @@
         <v>45</v>
       </c>
       <c r="J88" s="8">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L88" s="8" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>private double ;</v>
       </c>
       <c r="N88" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="24"/>
         <v>,</v>
       </c>
       <c r="O88" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">, VARCHAR (1000)   </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
       <c r="Q88" s="10" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">, VARCHAR (1000)   </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -7796,79 +7801,71 @@
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="J89" s="8">
+        <v>1000</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L89" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private Date ;</v>
+        <f t="shared" si="23"/>
+        <v>private double ;</v>
       </c>
       <c r="N89" s="8" t="str">
-        <f>IF(ISBLANK(B89), ",", CONCATENATE("CREATE TABLE ", B89, " ( "))</f>
+        <f t="shared" si="24"/>
         <v>,</v>
       </c>
       <c r="O89" s="8" t="str">
-        <f>CONCATENATE(N89, D89, " ", I89, IF(NOT(ISBLANK(J89)), " (", " "), J89, IF(NOT(ISBLANK(J89)), ") ", " "), IF(NOT(ISBLANK(H89)), CONCATENATE(" DEFAULT ", H89), " "), " " )</f>
-        <v xml:space="preserve">, DATETIME    </v>
-      </c>
-      <c r="P89" s="12" t="s">
-        <v>50</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q89" s="10" t="str">
-        <f>CONCATENATE(O89, P89)</f>
-        <v xml:space="preserve">, DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
-        <v>14</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>61</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J90" s="8">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L90" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private long ;</v>
+        <f t="shared" si="23"/>
+        <v>private double ;</v>
       </c>
       <c r="N90" s="8" t="str">
-        <f t="shared" ref="N90:N93" si="43">IF(ISBLANK(B90), ",", CONCATENATE("CREATE TABLE ", B90, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG ( </v>
+        <f t="shared" si="24"/>
+        <v>,</v>
       </c>
       <c r="O90" s="8" t="str">
-        <f t="shared" ref="O90:O93" si="44">CONCATENATE(N90, D90, " ", I90, IF(NOT(ISBLANK(J90)), " (", " "), J90, IF(NOT(ISBLANK(J90)), ") ", " "), IF(NOT(ISBLANK(H90)), CONCATENATE(" DEFAULT ", H90), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q90" s="10" t="str">
-        <f t="shared" ref="Q90:Q93" si="45">CONCATENATE(O90, P90)</f>
-        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -7878,285 +7875,174 @@
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
       <c r="I91" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J91" s="8">
+        <v>46</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v>private Date ;</v>
+      </c>
+      <c r="N91" s="8" t="str">
+        <f t="shared" si="24"/>
+        <v>,</v>
+      </c>
+      <c r="O91" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">, DATETIME    </v>
+      </c>
+      <c r="P91" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K91" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L91" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private double ;</v>
-      </c>
-      <c r="N91" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v>,</v>
-      </c>
-      <c r="O91" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">, VARCHAR (50)   </v>
-      </c>
       <c r="Q91" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">, VARCHAR (50)   </v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="8">
-        <v>15</v>
-      </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J92" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K92" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L92" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private double ;</v>
-      </c>
-      <c r="N92" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v>,</v>
-      </c>
-      <c r="O92" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">, VARCHAR (1000)   </v>
-      </c>
-      <c r="Q92" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">, VARCHAR (1000)   </v>
-      </c>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">, DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B92" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="36"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
-        <v>24</v>
-      </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J93" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K93" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L93" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private double ;</v>
-      </c>
-      <c r="N93" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v>,</v>
-      </c>
-      <c r="O93" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">, VARCHAR (1000)   </v>
-      </c>
-      <c r="Q93" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">, VARCHAR (1000)   </v>
-      </c>
+      <c r="D93" s="28"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="39"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="8">
-        <v>30</v>
-      </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K94" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L94" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>private Date ;</v>
-      </c>
-      <c r="N94" s="8" t="str">
-        <f>IF(ISBLANK(B94), ",", CONCATENATE("CREATE TABLE ", B94, " ( "))</f>
-        <v>,</v>
-      </c>
-      <c r="O94" s="8" t="str">
-        <f>CONCATENATE(N94, D94, " ", I94, IF(NOT(ISBLANK(J94)), " (", " "), J94, IF(NOT(ISBLANK(J94)), ") ", " "), IF(NOT(ISBLANK(H94)), CONCATENATE(" DEFAULT ", H94), " "), " " )</f>
-        <v xml:space="preserve">, DATETIME    </v>
-      </c>
-      <c r="P94" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q94" s="10" t="str">
-        <f>CONCATENATE(O94, P94)</f>
-        <v xml:space="preserve">, DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B95" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="N95" s="32"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
-      <c r="Q95" s="33"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="39"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D95" s="28"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="39"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D96" s="25"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="34"/>
-      <c r="N96" s="35"/>
-      <c r="O96" s="35"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="36"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="38"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
+      <c r="Q96" s="39"/>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D97" s="25"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="34"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="36"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="30"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="38"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="39"/>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D98" s="25"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="35"/>
-      <c r="O98" s="35"/>
-      <c r="P98" s="35"/>
-      <c r="Q98" s="36"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="30"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="38"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="39"/>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D99" s="25"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="34"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="35"/>
-      <c r="P99" s="35"/>
-      <c r="Q99" s="36"/>
-    </row>
-    <row r="100" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D100" s="25"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="35"/>
-      <c r="O100" s="35"/>
-      <c r="P100" s="35"/>
-      <c r="Q100" s="36"/>
-    </row>
-    <row r="101" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D101" s="25"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="26"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="34"/>
-      <c r="N101" s="35"/>
-      <c r="O101" s="35"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="36"/>
-    </row>
-    <row r="102" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D102" s="28"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="30"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="38"/>
-      <c r="O102" s="38"/>
-      <c r="P102" s="38"/>
-      <c r="Q102" s="39"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K102"/>
+  <autoFilter ref="A1:K99"/>
   <mergeCells count="2">
-    <mergeCell ref="D95:L102"/>
-    <mergeCell ref="M95:Q102"/>
+    <mergeCell ref="D92:L99"/>
+    <mergeCell ref="M92:Q99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9942,11 +9828,11 @@
         <v>private double msn_desc;</v>
       </c>
       <c r="N42" s="8" t="str">
-        <f t="shared" ref="N42:N43" si="5">IF(ISBLANK(B42), ",", CONCATENATE("CREATE TABLE ", B42, " ( "))</f>
+        <f>IF(ISBLANK(B42), ",", CONCATENATE("CREATE TABLE ", B42, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O42" s="8" t="str">
-        <f t="shared" ref="O42:O43" si="6">CONCATENATE(N42, D42, " ", I42, IF(NOT(ISBLANK(J42)), " (", " "), J42, IF(NOT(ISBLANK(J42)), ") ", " "), IF(NOT(ISBLANK(H42)), CONCATENATE(" DEFAULT ", H42), " "), " " )</f>
+        <f>CONCATENATE(N42, D42, " ", I42, IF(NOT(ISBLANK(J42)), " (", " "), J42, IF(NOT(ISBLANK(J42)), ") ", " "), IF(NOT(ISBLANK(H42)), CONCATENATE(" DEFAULT ", H42), " "), " " )</f>
         <v xml:space="preserve">,MSN_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q42" s="10" t="str">
@@ -9983,11 +9869,11 @@
         <v>private double remrk;</v>
       </c>
       <c r="N43" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(B43), ",", CONCATENATE("CREATE TABLE ", B43, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O43" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(N43, D43, " ", I43, IF(NOT(ISBLANK(J43)), " (", " "), J43, IF(NOT(ISBLANK(J43)), ") ", " "), IF(NOT(ISBLANK(H43)), CONCATENATE(" DEFAULT ", H43), " "), " " )</f>
         <v xml:space="preserve">,REMRK VARCHAR (255)   </v>
       </c>
       <c r="Q43" s="10" t="str">
@@ -10275,7 +10161,7 @@
         <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q50" s="10" t="str">
-        <f t="shared" ref="Q50" si="7">CONCATENATE(O50, P50)</f>
+        <f>CONCATENATE(O50, P50)</f>
         <v xml:space="preserve">,SRV_DESC VARCHAR (255)   </v>
       </c>
     </row>
@@ -10520,7 +10406,7 @@
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q56" s="10" t="str">
-        <f t="shared" ref="Q56:Q99" si="8">CONCATENATE(O56, P56)</f>
+        <f t="shared" ref="Q56:Q99" si="5">CONCATENATE(O56, P56)</f>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
@@ -10561,7 +10447,7 @@
         <v>203</v>
       </c>
       <c r="Q57" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ)); </v>
       </c>
     </row>
@@ -10607,7 +10493,7 @@
         <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
       </c>
       <c r="Q58" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">CREATE TABLE PARM_INFO ( SRV_SEQ BIGINT    </v>
       </c>
     </row>
@@ -10652,7 +10538,7 @@
         <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
       </c>
       <c r="Q59" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,PARM_ID VARCHAR (50)   </v>
       </c>
     </row>
@@ -10690,7 +10576,7 @@
         <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
       <c r="Q60" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,MSN_ID BIGINT    </v>
       </c>
     </row>
@@ -10728,7 +10614,7 @@
         <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
       <c r="Q61" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
     </row>
@@ -10769,7 +10655,7 @@
         <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
       </c>
       <c r="Q62" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,DEF_VAL VARCHAR (50)   </v>
       </c>
     </row>
@@ -10810,7 +10696,7 @@
         <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
       </c>
       <c r="Q63" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,PARM_VAL VARCHAR (50)   </v>
       </c>
     </row>
@@ -10848,7 +10734,7 @@
         <v xml:space="preserve">,SORTS INT    </v>
       </c>
       <c r="Q64" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,SORTS INT    </v>
       </c>
     </row>
@@ -10888,7 +10774,7 @@
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q65" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
@@ -10918,7 +10804,7 @@
         <v>private Date mod_dt;</v>
       </c>
       <c r="N66" s="8" t="str">
-        <f t="shared" ref="N66:N82" si="9">IF(ISBLANK(B66), ",", CONCATENATE("CREATE TABLE ", B66, " ( "))</f>
+        <f t="shared" ref="N66:N74" si="6">IF(ISBLANK(B66), ",", CONCATENATE("CREATE TABLE ", B66, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O66" s="8" t="str">
@@ -10929,7 +10815,7 @@
         <v>204</v>
       </c>
       <c r="Q66" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(SRV_SEQ, PARM_ID)); </v>
       </c>
     </row>
@@ -10965,11 +10851,11 @@
         <v>12</v>
       </c>
       <c r="L67" s="8" t="str">
-        <f t="shared" ref="L67:L86" si="10">CONCATENATE("private ",IF(K67="DT","Date",IF(I67="INTEGER","int",IF(I67="TEXT","String","double"))), " ", LOWER(D67), ";")</f>
+        <f t="shared" ref="L67:L86" si="7">CONCATENATE("private ",IF(K67="DT","Date",IF(I67="INTEGER","int",IF(I67="TEXT","String","double"))), " ", LOWER(D67), ";")</f>
         <v>private double admin_id;</v>
       </c>
       <c r="N67" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">CREATE TABLE ADMIN_MST ( </v>
       </c>
       <c r="O67" s="8" t="str">
@@ -10977,7 +10863,7 @@
         <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
       </c>
       <c r="Q67" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">CREATE TABLE ADMIN_MST ( ADMIN_ID VARCHAR (50)   </v>
       </c>
     </row>
@@ -11001,7 +10887,7 @@
         <v>12</v>
       </c>
       <c r="L68" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double admin_nm;</v>
       </c>
       <c r="N68" s="8" t="str">
@@ -11013,7 +10899,7 @@
         <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
       </c>
       <c r="Q68" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,ADMIN_NM VARCHAR (50)   </v>
       </c>
     </row>
@@ -11037,11 +10923,11 @@
         <v>12</v>
       </c>
       <c r="L69" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double tel_no;</v>
       </c>
       <c r="N69" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>,</v>
       </c>
       <c r="O69" s="8" t="str">
@@ -11049,7 +10935,7 @@
         <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
       </c>
       <c r="Q69" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,TEL_NO VARCHAR (50)   </v>
       </c>
     </row>
@@ -11073,11 +10959,11 @@
         <v>23</v>
       </c>
       <c r="L70" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double email;</v>
       </c>
       <c r="N70" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>,</v>
       </c>
       <c r="O70" s="8" t="str">
@@ -11085,7 +10971,7 @@
         <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
       </c>
       <c r="Q70" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,EMAIL VARCHAR (255)   </v>
       </c>
     </row>
@@ -11106,11 +10992,11 @@
         <v>223</v>
       </c>
       <c r="L71" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double auto_login;</v>
       </c>
       <c r="N71" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>,</v>
       </c>
       <c r="O71" s="8" t="str">
@@ -11118,7 +11004,7 @@
         <v xml:space="preserve">,AUTO_LOGIN INT    </v>
       </c>
       <c r="Q71" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,AUTO_LOGIN INT    </v>
       </c>
     </row>
@@ -11142,7 +11028,7 @@
         <v>224</v>
       </c>
       <c r="L72" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double passwd;</v>
       </c>
       <c r="N72" s="8" t="str">
@@ -11154,7 +11040,7 @@
         <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
       </c>
       <c r="Q72" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,PASSWD VARCHAR (100)   </v>
       </c>
     </row>
@@ -11178,7 +11064,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double auth_level;</v>
       </c>
       <c r="N73" s="8" t="str">
@@ -11190,7 +11076,7 @@
         <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
       </c>
       <c r="Q73" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,AUTH_LEVEL VARCHAR (50)   </v>
       </c>
     </row>
@@ -11211,11 +11097,11 @@
         <v>11</v>
       </c>
       <c r="L74" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private Date reg_dt;</v>
       </c>
       <c r="N74" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>,</v>
       </c>
       <c r="O74" s="8" t="str">
@@ -11226,7 +11112,7 @@
         <v>232</v>
       </c>
       <c r="Q74" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
       </c>
     </row>
@@ -11262,7 +11148,7 @@
         <v>12</v>
       </c>
       <c r="L75" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double admin_id;</v>
       </c>
       <c r="N75" s="8" t="str">
@@ -11274,7 +11160,7 @@
         <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
       </c>
       <c r="Q75" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">CREATE TABLE ADMIN_COOKIE ( ADMIN_ID VARCHAR (50)   </v>
       </c>
     </row>
@@ -11304,7 +11190,7 @@
         <v>12</v>
       </c>
       <c r="L76" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double auto_login_key;</v>
       </c>
       <c r="N76" s="8" t="str">
@@ -11316,7 +11202,7 @@
         <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
       </c>
       <c r="Q76" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,AUTO_LOGIN_KEY VARCHAR (50)   </v>
       </c>
     </row>
@@ -11340,7 +11226,7 @@
         <v>12</v>
       </c>
       <c r="L77" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double remote_addr;</v>
       </c>
       <c r="N77" s="8" t="str">
@@ -11352,7 +11238,7 @@
         <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
       </c>
       <c r="Q77" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,REMOTE_ADDR VARCHAR (50)   </v>
       </c>
     </row>
@@ -11373,7 +11259,7 @@
         <v>11</v>
       </c>
       <c r="L78" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private Date reg_dt;</v>
       </c>
       <c r="N78" s="8" t="str">
@@ -11388,7 +11274,7 @@
         <v>242</v>
       </c>
       <c r="Q78" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,REG_DT DATETIME    , PRIMARY KEY(ADMIN_ID, AUTO_LOGIN_KEY)); </v>
       </c>
     </row>
@@ -11424,19 +11310,19 @@
         <v>12</v>
       </c>
       <c r="L79" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double robo_id;</v>
       </c>
       <c r="N79" s="8" t="str">
-        <f t="shared" ref="N79:N99" si="11">IF(ISBLANK(B79), ",", CONCATENATE("CREATE TABLE ", B79, " ( "))</f>
+        <f t="shared" ref="N79:N99" si="8">IF(ISBLANK(B79), ",", CONCATENATE("CREATE TABLE ", B79, " ( "))</f>
         <v xml:space="preserve">CREATE TABLE ROBO_MST ( </v>
       </c>
       <c r="O79" s="8" t="str">
-        <f t="shared" ref="O79:O99" si="12">CONCATENATE(N79, D79, " ", I79, IF(NOT(ISBLANK(J79)), " (", " "), J79, IF(NOT(ISBLANK(J79)), ") ", " "), IF(NOT(ISBLANK(H79)), CONCATENATE(" DEFAULT ", H79), " "), " " )</f>
+        <f t="shared" ref="O79:O99" si="9">CONCATENATE(N79, D79, " ", I79, IF(NOT(ISBLANK(J79)), " (", " "), J79, IF(NOT(ISBLANK(J79)), ") ", " "), IF(NOT(ISBLANK(H79)), CONCATENATE(" DEFAULT ", H79), " "), " " )</f>
         <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
       </c>
       <c r="Q79" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">CREATE TABLE ROBO_MST ( ROBO_ID VARCHAR (50)   </v>
       </c>
     </row>
@@ -11460,19 +11346,19 @@
         <v>12</v>
       </c>
       <c r="L80" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double robo_nm;</v>
       </c>
       <c r="N80" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O80" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
       </c>
       <c r="Q80" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,ROBO_NM VARCHAR (100)   </v>
       </c>
     </row>
@@ -11496,19 +11382,19 @@
         <v>12</v>
       </c>
       <c r="L81" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double robo_desc;</v>
       </c>
       <c r="N81" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O81" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
       </c>
       <c r="Q81" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,ROBO_DESC VARCHAR (255)   </v>
       </c>
     </row>
@@ -11532,15 +11418,15 @@
         <v>12</v>
       </c>
       <c r="L82" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double ip_addr;</v>
       </c>
       <c r="N82" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O82" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,IP_ADDR VARCHAR (20)   </v>
       </c>
       <c r="Q82" s="10" t="str">
@@ -11571,15 +11457,15 @@
         <v>36</v>
       </c>
       <c r="L83" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double robo_tp;</v>
       </c>
       <c r="N83" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O83" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,ROBO_TP VARCHAR (10)  DEFAULT 1 </v>
       </c>
       <c r="Q83" s="10" t="str">
@@ -11607,22 +11493,22 @@
         <v>36</v>
       </c>
       <c r="L84" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private double state;</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>257</v>
       </c>
       <c r="N84" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O84" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,STATE VARCHAR (10)   </v>
       </c>
       <c r="Q84" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,STATE VARCHAR (10)   </v>
       </c>
     </row>
@@ -11648,22 +11534,22 @@
         <v>11</v>
       </c>
       <c r="L85" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private Date reg_dt;</v>
       </c>
       <c r="M85" s="9" t="s">
         <v>258</v>
       </c>
       <c r="N85" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O85" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="Q85" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
     </row>
@@ -11687,22 +11573,22 @@
         <v>11</v>
       </c>
       <c r="L86" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>private Date mod_dt;</v>
       </c>
       <c r="N86" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O86" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,MOD_DT DATETIME    </v>
       </c>
       <c r="P86" s="12" t="s">
         <v>272</v>
       </c>
       <c r="Q86" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,MOD_DT DATETIME    , PRIMARY KEY(ROBO_ID)); </v>
       </c>
     </row>
@@ -11742,15 +11628,15 @@
         <v>private long msn_id;</v>
       </c>
       <c r="N87" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( </v>
       </c>
       <c r="O87" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
       <c r="Q87" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">CREATE TABLE MSN_EXE_LOG ( MSN_ID BIGINT   DEFAULT AUTO_INCREMENT </v>
       </c>
     </row>
@@ -11788,7 +11674,7 @@
         <v>,</v>
       </c>
       <c r="O88" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,MSN_SEQ BIGINT    </v>
       </c>
       <c r="Q88" s="10" t="str">
@@ -11826,15 +11712,15 @@
         <v>private int exe_seq;</v>
       </c>
       <c r="N89" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O89" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,EXE_SEQ INT    </v>
       </c>
       <c r="Q89" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,EXE_SEQ INT    </v>
       </c>
     </row>
@@ -11868,7 +11754,7 @@
         <v>,</v>
       </c>
       <c r="O90" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,EXE_DT DATETIME    </v>
       </c>
       <c r="Q90" s="10" t="str">
@@ -11902,15 +11788,15 @@
         <v>private Date end_dt;</v>
       </c>
       <c r="N91" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O91" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,END_DT DATETIME    </v>
       </c>
       <c r="Q91" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,END_DT DATETIME    </v>
       </c>
     </row>
@@ -11940,15 +11826,15 @@
         <v>private int exe_dur;</v>
       </c>
       <c r="N92" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O92" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,EXE_DUR INT    </v>
       </c>
       <c r="Q92" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,EXE_DUR INT    </v>
       </c>
     </row>
@@ -11976,19 +11862,19 @@
         <v>13</v>
       </c>
       <c r="L93" s="8" t="str">
-        <f t="shared" ref="L93:L105" si="13">CONCATENATE("private ",IF(K93="DT","Date",IF(I93="INT","int",IF(I93="TEXT","String",IF(I93="BIGINT", "long", "double")))), " ", LOWER(D93), ";")</f>
+        <f t="shared" ref="L93:L105" si="10">CONCATENATE("private ",IF(K93="DT","Date",IF(I93="INT","int",IF(I93="TEXT","String",IF(I93="BIGINT", "long", "double")))), " ", LOWER(D93), ";")</f>
         <v>private int exe_res;</v>
       </c>
       <c r="N93" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O93" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
       </c>
       <c r="Q93" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,EXE_RES INT   DEFAULT 0 </v>
       </c>
     </row>
@@ -12017,19 +11903,19 @@
         <v>35</v>
       </c>
       <c r="L94" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>private double res_msg;</v>
       </c>
       <c r="N94" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O94" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
       </c>
       <c r="Q94" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,RES_MSG VARCHAR (10000)   </v>
       </c>
     </row>
@@ -12057,22 +11943,22 @@
         <v>11</v>
       </c>
       <c r="L95" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>private Date reg_dt;</v>
       </c>
       <c r="N95" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O95" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() </v>
       </c>
       <c r="P95" s="12" t="s">
         <v>51</v>
       </c>
       <c r="Q95" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">,REG_DT DATETIME   DEFAULT NOW() , PRIMARY KEY(CLASS_DT, CLASS_ID, USER_ID)); </v>
       </c>
     </row>
@@ -12105,19 +11991,19 @@
         <v>47</v>
       </c>
       <c r="L96" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>private long ;</v>
       </c>
       <c r="N96" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG ( </v>
       </c>
       <c r="O96" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
       </c>
       <c r="Q96" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">CREATE TABLE SRV_EXE_LOG (  BIGINT (50)   </v>
       </c>
     </row>
@@ -12142,19 +12028,19 @@
         <v>12</v>
       </c>
       <c r="L97" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>private double ;</v>
       </c>
       <c r="N97" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O97" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
       <c r="Q97" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
     </row>
@@ -12179,19 +12065,19 @@
         <v>22</v>
       </c>
       <c r="L98" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>private double ;</v>
       </c>
       <c r="N98" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O98" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q98" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -12216,19 +12102,19 @@
         <v>23</v>
       </c>
       <c r="L99" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>private double ;</v>
       </c>
       <c r="N99" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="O99" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
       <c r="Q99" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -12250,22 +12136,22 @@
         <v>11</v>
       </c>
       <c r="L100" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>private Date ;</v>
       </c>
       <c r="N100" s="8" t="str">
-        <f>IF(ISBLANK(B100), ",", CONCATENATE("CREATE TABLE ", B100, " ( "))</f>
+        <f t="shared" ref="N100:N105" si="11">IF(ISBLANK(B100), ",", CONCATENATE("CREATE TABLE ", B100, " ( "))</f>
         <v>,</v>
       </c>
       <c r="O100" s="8" t="str">
-        <f>CONCATENATE(N100, D100, " ", I100, IF(NOT(ISBLANK(J100)), " (", " "), J100, IF(NOT(ISBLANK(J100)), ") ", " "), IF(NOT(ISBLANK(H100)), CONCATENATE(" DEFAULT ", H100), " "), " " )</f>
+        <f t="shared" ref="O100:O105" si="12">CONCATENATE(N100, D100, " ", I100, IF(NOT(ISBLANK(J100)), " (", " "), J100, IF(NOT(ISBLANK(J100)), ") ", " "), IF(NOT(ISBLANK(H100)), CONCATENATE(" DEFAULT ", H100), " "), " " )</f>
         <v xml:space="preserve">, DATETIME    </v>
       </c>
       <c r="P100" s="12" t="s">
         <v>50</v>
       </c>
       <c r="Q100" s="10" t="str">
-        <f>CONCATENATE(O100, P100)</f>
+        <f t="shared" ref="Q100:Q105" si="13">CONCATENATE(O100, P100)</f>
         <v xml:space="preserve">, DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
       </c>
     </row>
@@ -12298,19 +12184,19 @@
         <v>47</v>
       </c>
       <c r="L101" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>private long ;</v>
+      </c>
+      <c r="N101" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG ( </v>
+      </c>
+      <c r="O101" s="8" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
+      </c>
+      <c r="Q101" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>private long ;</v>
-      </c>
-      <c r="N101" s="8" t="str">
-        <f t="shared" ref="N101:N104" si="14">IF(ISBLANK(B101), ",", CONCATENATE("CREATE TABLE ", B101, " ( "))</f>
-        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG ( </v>
-      </c>
-      <c r="O101" s="8" t="str">
-        <f t="shared" ref="O101:O104" si="15">CONCATENATE(N101, D101, " ", I101, IF(NOT(ISBLANK(J101)), " (", " "), J101, IF(NOT(ISBLANK(J101)), ") ", " "), IF(NOT(ISBLANK(H101)), CONCATENATE(" DEFAULT ", H101), " "), " " )</f>
-        <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
-      </c>
-      <c r="Q101" s="10" t="str">
-        <f t="shared" ref="Q101:Q104" si="16">CONCATENATE(O101, P101)</f>
         <v xml:space="preserve">CREATE TABLE PARM_EXE_LOG (  BIGINT (50)   </v>
       </c>
     </row>
@@ -12335,19 +12221,19 @@
         <v>12</v>
       </c>
       <c r="L102" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>private double ;</v>
+      </c>
+      <c r="N102" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>,</v>
+      </c>
+      <c r="O102" s="8" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">, VARCHAR (50)   </v>
+      </c>
+      <c r="Q102" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>private double ;</v>
-      </c>
-      <c r="N102" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>,</v>
-      </c>
-      <c r="O102" s="8" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">, VARCHAR (50)   </v>
-      </c>
-      <c r="Q102" s="10" t="str">
-        <f t="shared" si="16"/>
         <v xml:space="preserve">, VARCHAR (50)   </v>
       </c>
     </row>
@@ -12372,19 +12258,19 @@
         <v>22</v>
       </c>
       <c r="L103" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>private double ;</v>
+      </c>
+      <c r="N103" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>,</v>
+      </c>
+      <c r="O103" s="8" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+      <c r="Q103" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>private double ;</v>
-      </c>
-      <c r="N103" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>,</v>
-      </c>
-      <c r="O103" s="8" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">, VARCHAR (1000)   </v>
-      </c>
-      <c r="Q103" s="10" t="str">
-        <f t="shared" si="16"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -12409,19 +12295,19 @@
         <v>23</v>
       </c>
       <c r="L104" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>private double ;</v>
+      </c>
+      <c r="N104" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>,</v>
+      </c>
+      <c r="O104" s="8" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">, VARCHAR (1000)   </v>
+      </c>
+      <c r="Q104" s="10" t="str">
         <f t="shared" si="13"/>
-        <v>private double ;</v>
-      </c>
-      <c r="N104" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>,</v>
-      </c>
-      <c r="O104" s="8" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">, VARCHAR (1000)   </v>
-      </c>
-      <c r="Q104" s="10" t="str">
-        <f t="shared" si="16"/>
         <v xml:space="preserve">, VARCHAR (1000)   </v>
       </c>
     </row>
@@ -12443,22 +12329,22 @@
         <v>11</v>
       </c>
       <c r="L105" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>private Date ;</v>
       </c>
       <c r="N105" s="8" t="str">
-        <f>IF(ISBLANK(B105), ",", CONCATENATE("CREATE TABLE ", B105, " ( "))</f>
+        <f t="shared" si="11"/>
         <v>,</v>
       </c>
       <c r="O105" s="8" t="str">
-        <f>CONCATENATE(N105, D105, " ", I105, IF(NOT(ISBLANK(J105)), " (", " "), J105, IF(NOT(ISBLANK(J105)), ") ", " "), IF(NOT(ISBLANK(H105)), CONCATENATE(" DEFAULT ", H105), " "), " " )</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">, DATETIME    </v>
       </c>
       <c r="P105" s="12" t="s">
         <v>50</v>
       </c>
       <c r="Q105" s="10" t="str">
-        <f>CONCATENATE(O105, P105)</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">, DATETIME    , PRIMARY KEY(ADMIN_ID)); </v>
       </c>
     </row>
@@ -12469,136 +12355,136 @@
       <c r="C106" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="23"/>
-      <c r="J106" s="23"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="31" t="s">
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="33"/>
+      <c r="N106" s="35"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
+      <c r="Q106" s="36"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D107" s="25"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="34"/>
-      <c r="N107" s="35"/>
-      <c r="O107" s="35"/>
-      <c r="P107" s="35"/>
-      <c r="Q107" s="36"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="38"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="39"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D108" s="25"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="34"/>
-      <c r="N108" s="35"/>
-      <c r="O108" s="35"/>
-      <c r="P108" s="35"/>
-      <c r="Q108" s="36"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="30"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="38"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
+      <c r="Q108" s="39"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D109" s="25"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="34"/>
-      <c r="N109" s="35"/>
-      <c r="O109" s="35"/>
-      <c r="P109" s="35"/>
-      <c r="Q109" s="36"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="30"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="39"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D110" s="25"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="26"/>
-      <c r="L110" s="27"/>
-      <c r="M110" s="34"/>
-      <c r="N110" s="35"/>
-      <c r="O110" s="35"/>
-      <c r="P110" s="35"/>
-      <c r="Q110" s="36"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="30"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="38"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
+      <c r="Q110" s="39"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D111" s="25"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="34"/>
-      <c r="N111" s="35"/>
-      <c r="O111" s="35"/>
-      <c r="P111" s="35"/>
-      <c r="Q111" s="36"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="30"/>
+      <c r="M111" s="37"/>
+      <c r="N111" s="38"/>
+      <c r="O111" s="38"/>
+      <c r="P111" s="38"/>
+      <c r="Q111" s="39"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D112" s="25"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="26"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="34"/>
-      <c r="N112" s="35"/>
-      <c r="O112" s="35"/>
-      <c r="P112" s="35"/>
-      <c r="Q112" s="36"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="30"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="38"/>
+      <c r="O112" s="38"/>
+      <c r="P112" s="38"/>
+      <c r="Q112" s="39"/>
     </row>
     <row r="113" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D113" s="28"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="30"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="38"/>
-      <c r="O113" s="38"/>
-      <c r="P113" s="38"/>
-      <c r="Q113" s="39"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="33"/>
+      <c r="M113" s="40"/>
+      <c r="N113" s="41"/>
+      <c r="O113" s="41"/>
+      <c r="P113" s="41"/>
+      <c r="Q113" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K113"/>
